--- a/backend/out.xlsx
+++ b/backend/out.xlsx
@@ -830,256 +830,206 @@
     <t xml:space="preserve">〇</t>
   </si>
   <si>
-    <t xml:space="preserve">
-"Verify that the login screen contains elements such as Username, 
+    <t xml:space="preserve">"Verify that the login screen contains elements such as Username, 
 Password, Sign in button, Remember password check box, Forgot 
 password link, and create an account link."</t>
   </si>
   <si>
-    <t xml:space="preserve">
-"Verify that tab functionality is working properly or not"</t>
+    <t xml:space="preserve">"Verify that tab functionality is working properly or not"</t>
   </si>
   <si>
-    <t xml:space="preserve">
-"Verify that Enter/Tab key works as a substitute for the Sign-in 
+    <t xml:space="preserve">"Verify that Enter/Tab key works as a substitute for the Sign-in 
 button"</t>
   </si>
   <si>
-    <t xml:space="preserve">
-"Verify that all the fields such as Username, Password has a 
+    <t xml:space="preserve">"Verify that all the fields such as Username, Password has a 
 valid placeholder"</t>
   </si>
   <si>
-    <t xml:space="preserve">
-"Verify whether all the text boxes have a minimum and maximum 
+    <t xml:space="preserve">"Verify whether all the text boxes have a minimum and maximum 
 length."</t>
   </si>
   <si>
     <t xml:space="preserve">result</t>
   </si>
   <si>
-    <t xml:space="preserve">
-"Verify that the labels float upward when the text field is in 
+    <t xml:space="preserve">"Verify that the labels float upward when the text field is in 
 focus or filled (In case of the floating label)"</t>
   </si>
   <si>
-    <t xml:space="preserve">
-"Verify that the User is able to Login with Valid Credentials"</t>
+    <t xml:space="preserve">"Verify that the User is able to Login with Valid Credentials"</t>
   </si>
   <si>
-    <t xml:space="preserve">
-"Verify that the User is not able to Login with an invalid 
+    <t xml:space="preserve">"Verify that the User is not able to Login with an invalid 
 Username and invalid Password"</t>
   </si>
   <si>
-    <t xml:space="preserve">
-"Verify that the User is not able to Login with a Valid Username 
+    <t xml:space="preserve">"Verify that the User is not able to Login with a Valid Username 
 and invalid Password"</t>
   </si>
   <si>
-    <t xml:space="preserve">
-"Verify that the User is not able to log in with an invalid 
+    <t xml:space="preserve">"Verify that the User is not able to log in with an invalid 
 Username and Valid Password"</t>
   </si>
   <si>
-    <t xml:space="preserve">
-"Verify that the User is not able to log in with a blank Username 
+    <t xml:space="preserve">"Verify that the User is not able to log in with a blank Username 
 or Password"</t>
   </si>
   <si>
-    <t xml:space="preserve">
-"Verify that the User is not able to Login with inactive 
+    <t xml:space="preserve">"Verify that the User is not able to Login with inactive 
 credentials"</t>
   </si>
   <si>
-    <t xml:space="preserve">
-"Verify that the reset button clears the data from all the text 
+    <t xml:space="preserve">"Verify that the reset button clears the data from all the text 
 boxes in the login form"</t>
   </si>
   <si>
-    <t xml:space="preserve">
-"Verify that the login credentials, mainly password stores in a 
+    <t xml:space="preserve">"Verify that the login credentials, mainly password stores in a 
 database in an encrypted format"</t>
   </si>
   <si>
-    <t xml:space="preserve">
-"Verify that clicking on the browser back button after successful 
+    <t xml:space="preserve">"Verify that clicking on the browser back button after successful 
 login should not take the User to log out mode"</t>
   </si>
   <si>
-    <t xml:space="preserve">
-"Verify that clicking on the browser back button after successful 
+    <t xml:space="preserve">"Verify that clicking on the browser back button after successful 
 logout should not take the User to a logged-in mode"</t>
   </si>
   <si>
-    <t xml:space="preserve">
-"Verify that there is a limit on the total number of unsuccessful 
+    <t xml:space="preserve">"Verify that there is a limit on the total number of unsuccessful 
 login attempts (No. of invalid attempts should be based on 
 business logic. Based on the business logic, User will be asked 
 to enter the captcha and try again or user will be blocked)"</t>
   </si>
   <si>
-    <t xml:space="preserve">
-"Verify that the password is in encrypted form (masked format) 
+    <t xml:space="preserve">"Verify that the password is in encrypted form (masked format) 
 when entered"</t>
   </si>
   <si>
-    <t xml:space="preserve">
-"Verify the password can be copy-pasted. System shouldn’t allow 
+    <t xml:space="preserve">"Verify the password can be copy-pasted. System shouldn’t allow 
 users to copy paste password."</t>
   </si>
   <si>
-    <t xml:space="preserve">
-"Verify that encrypted characters in the 'Password' field should 
+    <t xml:space="preserve">"Verify that encrypted characters in the 'Password' field should 
 not allow deciphering if copied"</t>
   </si>
   <si>
-    <t xml:space="preserve">
-"Verify that the User should be able to login with the new 
+    <t xml:space="preserve">"Verify that the User should be able to login with the new 
 password after changing the password"</t>
   </si>
   <si>
-    <t xml:space="preserve">
-"Verify that the user should not be able to login with the old 
+    <t xml:space="preserve">"Verify that the user should not be able to login with the old 
 password after changing the password"</t>
   </si>
   <si>
-    <t xml:space="preserve">
-"Verify that spaces should not be allowed before any password 
+    <t xml:space="preserve">"Verify that spaces should not be allowed before any password 
 characters attempted"</t>
   </si>
   <si>
-    <t xml:space="preserve">
-"Verify whether the user is still logged in after a series of 
+    <t xml:space="preserve">"Verify whether the user is still logged in after a series of 
 actions such as sign-in, close the browser, and reopen the 
 application."</t>
   </si>
   <si>
-    <t xml:space="preserve">
-"Verify that the ways to retrieve the password if the user 
+    <t xml:space="preserve">"Verify that the ways to retrieve the password if the user 
 forgets the password"</t>
   </si>
   <si>
-    <t xml:space="preserve">
-"Verify that the 'Remember password' checkbox is unselected by 
+    <t xml:space="preserve">"Verify that the 'Remember password' checkbox is unselected by 
 default (depends on business logic, it may be selected or 
 unselected)"</t>
   </si>
   <si>
-    <t xml:space="preserve">
-"Verify that the 'Keep me logged in' checkbox is unselected by 
+    <t xml:space="preserve">"Verify that the 'Keep me logged in' checkbox is unselected by 
 default (depends on business logic, it may be selected or 
 unselected)"</t>
   </si>
   <si>
-    <t xml:space="preserve">
-"Verify that the timeout of the login session (Session Timeout)"</t>
+    <t xml:space="preserve">"Verify that the timeout of the login session (Session Timeout)"</t>
   </si>
   <si>
-    <t xml:space="preserve">
-"Verify that the logout link is redirected to login/home page"</t>
+    <t xml:space="preserve">"Verify that the logout link is redirected to login/home page"</t>
   </si>
   <si>
-    <t xml:space="preserve">
-"Verify that User is redirected to appropriate page after 
+    <t xml:space="preserve">"Verify that User is redirected to appropriate page after 
 successful login"</t>
   </si>
   <si>
-    <t xml:space="preserve">
-"Verify that the User is redirected to the Forgot password page 
+    <t xml:space="preserve">"Verify that the User is redirected to the Forgot password page 
 when clicking on the Forgot Password link"</t>
   </si>
   <si>
-    <t xml:space="preserve">
-"Verify that the User is redirected to the Create an account page 
+    <t xml:space="preserve">"Verify that the User is redirected to the Create an account page 
 when clicking on the Signup / Create an account link"</t>
   </si>
   <si>
-    <t xml:space="preserve">
-"Verify that validation message is displayed in the case when 
+    <t xml:space="preserve">"Verify that validation message is displayed in the case when 
 User leaves Username or Password as blank"</t>
   </si>
   <si>
-    <t xml:space="preserve">
-"Verify that validation message is displayed in case of exceeding 
+    <t xml:space="preserve">"Verify that validation message is displayed in case of exceeding 
 the character limit of the Username and Password fields"</t>
   </si>
   <si>
-    <t xml:space="preserve">
-"Verify that validation message is displayed in case of entering 
+    <t xml:space="preserve">"Verify that validation message is displayed in case of entering 
 special character in the Username and password fields"</t>
   </si>
   <si>
-    <t xml:space="preserve">
-"Verify whether the login form is revealing any security 
+    <t xml:space="preserve">"Verify whether the login form is revealing any security 
 information by viewing the page source"</t>
   </si>
   <si>
-    <t xml:space="preserve">
-"Verify that the login page is vulnerable to SQL injection"</t>
+    <t xml:space="preserve">"Verify that the login page is vulnerable to SQL injection"</t>
   </si>
   <si>
-    <t xml:space="preserve">
-"Verify whether Cross-site scripting (XSS ) vulnerability works 
+    <t xml:space="preserve">"Verify whether Cross-site scripting (XSS ) vulnerability works 
 on a login page. XSS vulnerability may be used by hackers to 
 bypass access controls."</t>
   </si>
   <si>
-    <t xml:space="preserve">
-"If there is a captcha on the login page (Test Cases for 
+    <t xml:space="preserve">"If there is a captcha on the login page (Test Cases for 
 CAPTCHA):"</t>
   </si>
   <si>
-    <t xml:space="preserve">
-"Verify that whether there is a client-side validation when the 
+    <t xml:space="preserve">"Verify that whether there is a client-side validation when the 
 User doesn’t enter the CAPTCHA"</t>
   </si>
   <si>
-    <t xml:space="preserve">
-"Verify that the refresh link of CAPTCHA is generating the new 
+    <t xml:space="preserve">"Verify that the refresh link of CAPTCHA is generating the new 
 CAPTCHA"</t>
   </si>
   <si>
-    <t xml:space="preserve">
-"Verify that the CAPTCHA is case sensitive"</t>
+    <t xml:space="preserve">"Verify that the CAPTCHA is case sensitive"</t>
   </si>
   <si>
-    <t xml:space="preserve">
-"Verify whether the CAPTCHA has audio support to listen"</t>
+    <t xml:space="preserve">"Verify whether the CAPTCHA has audio support to listen"</t>
   </si>
   <si>
-    <t xml:space="preserve">
-"Verify whether virtual keyboard is available and working 
+    <t xml:space="preserve">"Verify whether virtual keyboard is available and working 
 properly to enter login credentials incase of banking 
 applications."</t>
   </si>
   <si>
-    <t xml:space="preserve">
-"Verify two-way authentication through OTP is working properly 
+    <t xml:space="preserve">"Verify two-way authentication through OTP is working properly 
 incase of banking applications."</t>
   </si>
   <si>
-    <t xml:space="preserve">
-"Verify SSL certificate is implemented or not"</t>
+    <t xml:space="preserve">"Verify SSL certificate is implemented or not"</t>
   </si>
   <si>
-    <t xml:space="preserve">
-"Verify the login page and all the fields in the login page are 
+    <t xml:space="preserve">"Verify the login page and all the fields in the login page are 
 displaying without any break in different browsers"</t>
   </si>
   <si>
-    <t xml:space="preserve">
-"Cookies – Learn Website Cookie Testing"</t>
+    <t xml:space="preserve">"Cookies – Learn Website Cookie Testing"</t>
   </si>
   <si>
-    <t xml:space="preserve">
-"Verify that the user is able to login when the browser cookies 
+    <t xml:space="preserve">"Verify that the user is able to login when the browser cookies 
 are cleared. When the cookies are cleared, system should not 
 allow user to login automatically."</t>
   </si>
   <si>
-    <t xml:space="preserve">
-"Verify the login functionality when the browser cookies are 
+    <t xml:space="preserve">"Verify the login functionality when the browser cookies are 
 turned off."</t>
   </si>
   <si>
@@ -37674,7 +37624,9 @@
     <row r="12" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
       <c r="A12" s="51"/>
       <c r="B12" s="150"/>
-      <c r="C12" s="365"/>
+      <c r="C12" t="s" s="365">
+        <v>97</v>
+      </c>
       <c r="D12" s="119"/>
       <c r="E12" s="119"/>
       <c r="F12" s="119"/>
@@ -37714,7 +37666,9 @@
     <row r="13" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
       <c r="A13" s="51"/>
       <c r="B13" s="150"/>
-      <c r="C13" s="367"/>
+      <c r="C13" t="s" s="367">
+        <v>97</v>
+      </c>
       <c r="D13" s="119"/>
       <c r="E13" s="119"/>
       <c r="F13" s="119"/>

--- a/backend/out.xlsx
+++ b/backend/out.xlsx
@@ -18,6 +18,7 @@
     <sheet name="M3" sheetId="5" r:id="rId16"/>
     <sheet name="M4" sheetId="6" r:id="rId17"/>
     <sheet name="M5" sheetId="7" r:id="rId18"/>
+    <sheet name="M6" sheetId="8" r:id="rId19"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -818,94 +819,98 @@
     <t>CHK-018</t>
   </si>
   <si>
-    <t xml:space="preserve">"Check if correct data is getting saved in database upon 
-successful page submit"</t>
+    <t xml:space="preserve">"All fields on page (e.g. text box, radio options, dropdown 
+lists) should be aligned properly"</t>
   </si>
   <si>
     <t xml:space="preserve">〇</t>
   </si>
   <si>
-    <t xml:space="preserve">"Check values for columns which are not accepting null values"</t>
+    <t xml:space="preserve">"Numeric values should be right justified unless specified 
+otherwise"</t>
   </si>
   <si>
-    <t xml:space="preserve">"Check for data integrity. Data should be stored in single or 
-multiple tables based on design"</t>
+    <t xml:space="preserve">"Enough space should be provided between field labels, columns, 
+rows, error messages etc."</t>
   </si>
   <si>
-    <t xml:space="preserve">"Index names should be given as per the standards e.g. IND__"</t>
+    <t xml:space="preserve">"Scroll bar should be enabled only when necessary"</t>
   </si>
   <si>
-    <t xml:space="preserve">"Tables should have primary key column"</t>
+    <t xml:space="preserve">"Font size, style and color for headline, description text, 
+labels, infield data, and grid info should be standard as 
+specified in SRS"</t>
   </si>
   <si>
-    <t xml:space="preserve">"Table columns should have description information available 
-(except for audit columns like created date, created by etc.)"</t>
+    <t xml:space="preserve">"Description text box should be multi-line"</t>
   </si>
   <si>
     <t xml:space="preserve">result</t>
   </si>
   <si>
-    <t xml:space="preserve">"For every database add/update operation log should be added"</t>
+    <t xml:space="preserve">"Disabled fields should be grayed out and user should not be able 
+to set focus on these fields"</t>
   </si>
   <si>
-    <t xml:space="preserve">"Required table indexes should be created"</t>
+    <t xml:space="preserve">"Upon click of any input text field, mouse arrow pointer should 
+get changed to cursor"</t>
   </si>
   <si>
-    <t xml:space="preserve">"Check if data is committed to database only when the operation 
-is successfully completed"</t>
+    <t xml:space="preserve">"User should not be able to type in drop down select lists"</t>
   </si>
   <si>
-    <t xml:space="preserve">"Data should be rolled back in case of failed transactions"</t>
+    <t xml:space="preserve">"Information filled by users should remain intact when there is 
+error message on page submit. User should be able to submit the 
+form again by correcting the errors"</t>
   </si>
   <si>
-    <t xml:space="preserve">"Database name should be given as per the application type i.e. 
-test, UAT, sandbox, live (though this is not a standard it is 
-helpful for database maintenance)"</t>
+    <t xml:space="preserve">"Check if proper field labels are used in error messages"</t>
   </si>
   <si>
-    <t xml:space="preserve">"Database logical names should be given according to database 
-name (again this is not standard but helpful for DB maintenance)"</t>
+    <t xml:space="preserve">"Dropdown field values should be displayed in defined sort order"</t>
   </si>
   <si>
-    <t xml:space="preserve">"Stored procedures should not be named with prefix “sp_”"</t>
+    <t xml:space="preserve">"Tab and Shift+Tab order should work properly"</t>
   </si>
   <si>
-    <t xml:space="preserve">"Check is values for table audit columns (like createddate, 
-createdby, updatedate, updatedby, isdeleted, deleteddate, 
-deletedby etc.) are populated properly"</t>
+    <t xml:space="preserve">"Default radio options should be pre-selected on page load"</t>
   </si>
   <si>
-    <t xml:space="preserve">"Check if input data is not truncated while saving. Field length 
-shown to user on page and in database schema should be same"</t>
+    <t xml:space="preserve">"Field specific and page level help messages should be available"</t>
   </si>
   <si>
-    <t xml:space="preserve">"Check numeric fields with minimum, maximum, and float values"</t>
+    <t xml:space="preserve">"Check if correct fields are highlighted in case of errors"</t>
   </si>
   <si>
-    <t xml:space="preserve">"Check numeric fields with negative values (for both acceptance 
-and non-acceptance)"</t>
+    <t xml:space="preserve">"Check if dropdown list options are readable and not truncated 
+due to field size limit"</t>
   </si>
   <si>
-    <t xml:space="preserve">"Check if radio button and dropdown list options are saved 
-correctly in database"</t>
+    <t xml:space="preserve">"All buttons on page should be accessible by keyboard shortcuts 
+and user should be able to perform all operations using keyboard"</t>
   </si>
   <si>
-    <t xml:space="preserve">"Check if database fields are designed with correct data type and 
-data length"</t>
+    <t xml:space="preserve">"Check all pages for broken images"</t>
   </si>
   <si>
-    <t xml:space="preserve">"Check if all table constraints like Primary key, Foreign key 
-etc. are implemented correctly"</t>
+    <t xml:space="preserve">"Check all pages for broken links"</t>
   </si>
   <si>
-    <t xml:space="preserve">"Test stored procedures and triggers with sample input data"</t>
+    <t xml:space="preserve">"All pages should have title"</t>
   </si>
   <si>
-    <t xml:space="preserve">"Input field leading and trailing spaces should be truncated 
-before committing data to database"</t>
+    <t xml:space="preserve">"Confirmation messages should be displayed before performing any 
+update or delete operation"</t>
   </si>
   <si>
-    <t xml:space="preserve">"Null values should not be allowed for Primary key column"</t>
+    <t xml:space="preserve">"Hour glass should be displayed when application is busy"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Page text should be left justified"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"User should be able to select only one radio option and any 
+combination for check boxes."</t>
   </si>
   <si>
     <t xml:space="preserve"/>
@@ -1036,6 +1041,152 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1791,6 +1942,45 @@
     <fill/>
     <fill/>
     <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
   </fills>
   <borders>
     <border>
@@ -2494,6 +2684,342 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -4757,6 +5283,102 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="114" fillId="99" borderId="153" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="100" borderId="154" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="101" borderId="155" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="102" borderId="156" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="103" borderId="157" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="104" borderId="158" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="105" borderId="159" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="106" borderId="160" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="107" borderId="161" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="108" borderId="162" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="109" borderId="163" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="110" borderId="164" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="111" borderId="165" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="112" borderId="166" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="113" borderId="167" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="114" borderId="168" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="115" borderId="169" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="116" borderId="170" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="117" borderId="171" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="118" borderId="172" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="119" borderId="173" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="120" borderId="174" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="121" borderId="175" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="122" borderId="176" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -24140,6 +24762,1984 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961F266A-B1EB-4F19-84A2-CD1F09B9F4D9}">
+  <sheetPr codeName="Sheet1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:O30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.875" style="23" customWidth="1"/>
+    <col min="2" max="14" width="3.625" style="23" customWidth="1"/>
+    <col min="15" max="15" width="20.375" style="23" customWidth="1"/>
+    <col min="16" max="28" width="3.625" style="23" customWidth="1"/>
+    <col min="29" max="29" width="3.625" style="24" customWidth="1"/>
+    <col min="30" max="35" width="3.625" style="23" customWidth="1"/>
+    <col min="36" max="36" width="1.875" style="23" customWidth="1"/>
+    <col min="37" max="16384" width="9.875" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" ht="6" customHeight="1" thickBot="1"/>
+    <row r="2" spans="1:36" ht="18.95" customHeight="1" thickBot="1">
+      <c r="K2" t="s" s="25">
+        <v>0</v>
+      </c>
+      <c r="L2" s="25"/>
+      <c r="M2" s="139">
+        <v>1</v>
+      </c>
+      <c r="N2" s="140"/>
+      <c r="O2" s="26"/>
+      <c r="P2" t="s" s="141">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="142"/>
+      <c r="R2" s="142"/>
+      <c r="S2" s="142"/>
+      <c r="T2" s="142"/>
+      <c r="U2" s="142"/>
+      <c r="V2" s="142"/>
+      <c r="W2" s="142"/>
+      <c r="X2" s="142"/>
+      <c r="Y2" s="142"/>
+      <c r="Z2" s="143"/>
+      <c r="AA2" t="s" s="144">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="145"/>
+      <c r="AC2" s="140"/>
+      <c r="AD2" t="s" s="139">
+        <v>13</v>
+      </c>
+      <c r="AE2" s="145"/>
+      <c r="AF2" s="140"/>
+      <c r="AG2" t="s" s="139">
+        <v>14</v>
+      </c>
+      <c r="AH2" s="145"/>
+      <c r="AI2" s="140"/>
+    </row>
+    <row r="3" spans="1:36" ht="18.95" customHeight="1">
+      <c r="B3" s="27"/>
+      <c r="C3" t="s" s="28">
+        <v>3</v>
+      </c>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="32"/>
+      <c r="K3" t="s" s="33">
+        <v>4</v>
+      </c>
+      <c r="O3" s="34"/>
+      <c r="P3" s="121"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="122"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="122"/>
+      <c r="U3" s="122"/>
+      <c r="V3" s="122"/>
+      <c r="W3" s="122"/>
+      <c r="X3" s="122"/>
+      <c r="Y3" s="122"/>
+      <c r="Z3" s="123"/>
+      <c r="AA3" s="124"/>
+      <c r="AB3" s="125"/>
+      <c r="AC3" s="126"/>
+      <c r="AD3" s="124"/>
+      <c r="AE3" s="125"/>
+      <c r="AF3" s="126"/>
+      <c r="AG3" s="124"/>
+      <c r="AH3" s="125"/>
+      <c r="AI3" s="126"/>
+    </row>
+    <row r="4" spans="1:36" ht="24" customHeight="1" thickBot="1">
+      <c r="B4" s="35"/>
+      <c r="C4" t="s" s="36">
+        <v>5</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="38"/>
+      <c r="K4" t="s" s="33">
+        <v>6</v>
+      </c>
+      <c r="O4" s="34"/>
+      <c r="P4" s="133"/>
+      <c r="Q4" s="134"/>
+      <c r="R4" s="134"/>
+      <c r="S4" s="134"/>
+      <c r="T4" s="134"/>
+      <c r="U4" s="134"/>
+      <c r="V4" s="134"/>
+      <c r="W4" s="134"/>
+      <c r="X4" s="134"/>
+      <c r="Y4" s="134"/>
+      <c r="Z4" s="135"/>
+      <c r="AA4" s="127"/>
+      <c r="AB4" s="128"/>
+      <c r="AC4" s="129"/>
+      <c r="AD4" s="127"/>
+      <c r="AE4" s="128"/>
+      <c r="AF4" s="129"/>
+      <c r="AG4" s="127"/>
+      <c r="AH4" s="128"/>
+      <c r="AI4" s="129"/>
+    </row>
+    <row r="5" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
+      <c r="C5" s="39"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="33"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="136"/>
+      <c r="Q5" s="137"/>
+      <c r="R5" s="137"/>
+      <c r="S5" s="137"/>
+      <c r="T5" s="137"/>
+      <c r="U5" s="137"/>
+      <c r="V5" s="137"/>
+      <c r="W5" s="137"/>
+      <c r="X5" s="137"/>
+      <c r="Y5" s="137"/>
+      <c r="Z5" s="138"/>
+      <c r="AA5" s="130"/>
+      <c r="AB5" s="131"/>
+      <c r="AC5" s="132"/>
+      <c r="AD5" s="130"/>
+      <c r="AE5" s="131"/>
+      <c r="AF5" s="132"/>
+      <c r="AG5" s="130"/>
+      <c r="AH5" s="131"/>
+      <c r="AI5" s="132"/>
+    </row>
+    <row r="6" spans="1:36" ht="21" customHeight="1">
+      <c r="AA6" t="s" s="146">
+        <v>7</v>
+      </c>
+      <c r="AB6" s="147"/>
+      <c r="AC6" s="147"/>
+      <c r="AD6" s="147"/>
+      <c r="AE6" s="147"/>
+      <c r="AF6" s="148"/>
+      <c r="AG6" s="41">
+        <v>1</v>
+      </c>
+      <c r="AH6" t="s" s="42">
+        <v>8</v>
+      </c>
+      <c r="AI6" s="43">
+        <v>18</v>
+      </c>
+      <c r="AJ6" s="44"/>
+    </row>
+    <row r="7" spans="1:36" ht="99.6" customHeight="1">
+      <c r="A7" s="45"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="48"/>
+      <c r="P7" t="s" s="49">
+        <v>9</v>
+      </c>
+      <c r="Q7" t="s" s="49">
+        <v>10</v>
+      </c>
+      <c r="R7" t="s" s="49">
+        <v>11</v>
+      </c>
+      <c r="S7" t="s" s="49">
+        <v>12</v>
+      </c>
+      <c r="T7" t="s" s="49">
+        <v>30</v>
+      </c>
+      <c r="U7" t="s" s="49">
+        <v>31</v>
+      </c>
+      <c r="V7" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="W7" t="s" s="49">
+        <v>33</v>
+      </c>
+      <c r="X7" t="s" s="49">
+        <v>34</v>
+      </c>
+      <c r="Y7" t="s" s="49">
+        <v>35</v>
+      </c>
+      <c r="Z7" t="s" s="49">
+        <v>36</v>
+      </c>
+      <c r="AA7" t="s" s="49">
+        <v>37</v>
+      </c>
+      <c r="AB7" t="s" s="49">
+        <v>38</v>
+      </c>
+      <c r="AC7" t="s" s="49">
+        <v>39</v>
+      </c>
+      <c r="AD7" t="s" s="49">
+        <v>40</v>
+      </c>
+      <c r="AE7" t="s" s="49">
+        <v>41</v>
+      </c>
+      <c r="AF7" t="s" s="49">
+        <v>42</v>
+      </c>
+      <c r="AG7" t="s" s="49">
+        <v>43</v>
+      </c>
+      <c r="AH7" s="50"/>
+      <c r="AI7" s="50"/>
+      <c r="AJ7" s="44"/>
+    </row>
+    <row r="8" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A8" s="51"/>
+      <c r="B8" t="s" s="149">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s" s="261">
+        <v>70</v>
+      </c>
+      <c r="D8" s="153"/>
+      <c r="E8" s="153"/>
+      <c r="F8" s="153"/>
+      <c r="G8" s="153"/>
+      <c r="H8" s="153"/>
+      <c r="I8" s="153"/>
+      <c r="J8" s="153"/>
+      <c r="K8" s="153"/>
+      <c r="L8" s="153"/>
+      <c r="M8" s="153"/>
+      <c r="N8" s="153"/>
+      <c r="O8" s="154"/>
+      <c r="P8" t="s" s="262">
+        <v>45</v>
+      </c>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="52"/>
+      <c r="AC8" s="53"/>
+      <c r="AD8" s="54"/>
+      <c r="AE8" s="52"/>
+      <c r="AF8" s="52"/>
+      <c r="AG8" s="52"/>
+      <c r="AH8" s="52"/>
+      <c r="AI8" s="55"/>
+      <c r="AJ8" s="56"/>
+    </row>
+    <row r="9" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A9" s="51"/>
+      <c r="B9" s="150"/>
+      <c r="C9" t="s" s="263">
+        <v>71</v>
+      </c>
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="119"/>
+      <c r="M9" s="119"/>
+      <c r="N9" s="119"/>
+      <c r="O9" s="120"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" t="s" s="264">
+        <v>45</v>
+      </c>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="58"/>
+      <c r="AC9" s="59"/>
+      <c r="AD9" s="60"/>
+      <c r="AE9" s="58"/>
+      <c r="AF9" s="58"/>
+      <c r="AG9" s="58"/>
+      <c r="AH9" s="58"/>
+      <c r="AI9" s="61"/>
+      <c r="AJ9" s="56"/>
+    </row>
+    <row r="10" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A10" s="51"/>
+      <c r="B10" s="150"/>
+      <c r="C10" t="s" s="265">
+        <v>71</v>
+      </c>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="119"/>
+      <c r="M10" s="119"/>
+      <c r="N10" s="119"/>
+      <c r="O10" s="120"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" t="s" s="266">
+        <v>45</v>
+      </c>
+      <c r="S10" s="6"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="62"/>
+      <c r="AC10" s="63"/>
+      <c r="AD10" s="62"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="64"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="65"/>
+      <c r="AJ10" s="56"/>
+    </row>
+    <row r="11" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A11" s="51"/>
+      <c r="B11" s="150"/>
+      <c r="C11" t="s" s="267">
+        <v>71</v>
+      </c>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="119"/>
+      <c r="L11" s="119"/>
+      <c r="M11" s="119"/>
+      <c r="N11" s="119"/>
+      <c r="O11" s="120"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" t="s" s="268">
+        <v>45</v>
+      </c>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="62"/>
+      <c r="Z11" s="62"/>
+      <c r="AA11" s="62"/>
+      <c r="AB11" s="62"/>
+      <c r="AC11" s="63"/>
+      <c r="AD11" s="62"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="64"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="65"/>
+      <c r="AJ11" s="56"/>
+    </row>
+    <row r="12" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A12" s="51"/>
+      <c r="B12" s="150"/>
+      <c r="C12" t="s" s="269">
+        <v>71</v>
+      </c>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="119"/>
+      <c r="K12" s="119"/>
+      <c r="L12" s="119"/>
+      <c r="M12" s="119"/>
+      <c r="N12" s="119"/>
+      <c r="O12" s="120"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" t="s" s="270">
+        <v>45</v>
+      </c>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="64"/>
+      <c r="AI12" s="65"/>
+      <c r="AJ12" s="56"/>
+    </row>
+    <row r="13" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A13" s="51"/>
+      <c r="B13" s="150"/>
+      <c r="C13" t="s" s="271">
+        <v>71</v>
+      </c>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="119"/>
+      <c r="L13" s="119"/>
+      <c r="M13" s="119"/>
+      <c r="N13" s="119"/>
+      <c r="O13" s="120"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" t="s" s="272">
+        <v>45</v>
+      </c>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="64"/>
+      <c r="AI13" s="65"/>
+      <c r="AJ13" s="56"/>
+    </row>
+    <row r="14" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A14" s="51"/>
+      <c r="B14" s="150"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="119"/>
+      <c r="K14" s="119"/>
+      <c r="L14" s="119"/>
+      <c r="M14" s="119"/>
+      <c r="N14" s="119"/>
+      <c r="O14" s="120"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="64"/>
+      <c r="AI14" s="65"/>
+      <c r="AJ14" s="56"/>
+    </row>
+    <row r="15" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A15" s="51"/>
+      <c r="B15" s="150"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="119"/>
+      <c r="J15" s="119"/>
+      <c r="K15" s="119"/>
+      <c r="L15" s="119"/>
+      <c r="M15" s="119"/>
+      <c r="N15" s="119"/>
+      <c r="O15" s="120"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="64"/>
+      <c r="AI15" s="65"/>
+      <c r="AJ15" s="56"/>
+    </row>
+    <row r="16" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A16" s="51"/>
+      <c r="B16" s="150"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="119"/>
+      <c r="J16" s="119"/>
+      <c r="K16" s="119"/>
+      <c r="L16" s="119"/>
+      <c r="M16" s="119"/>
+      <c r="N16" s="119"/>
+      <c r="O16" s="120"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="64"/>
+      <c r="AI16" s="65"/>
+      <c r="AJ16" s="56"/>
+    </row>
+    <row r="17" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A17" s="51"/>
+      <c r="B17" s="150"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="119"/>
+      <c r="I17" s="119"/>
+      <c r="J17" s="119"/>
+      <c r="K17" s="119"/>
+      <c r="L17" s="119"/>
+      <c r="M17" s="119"/>
+      <c r="N17" s="119"/>
+      <c r="O17" s="120"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="64"/>
+      <c r="AI17" s="65"/>
+      <c r="AJ17" s="56"/>
+    </row>
+    <row r="18" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A18" s="51"/>
+      <c r="B18" s="150"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="119"/>
+      <c r="J18" s="119"/>
+      <c r="K18" s="119"/>
+      <c r="L18" s="119"/>
+      <c r="M18" s="119"/>
+      <c r="N18" s="119"/>
+      <c r="O18" s="120"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="64"/>
+      <c r="AI18" s="65"/>
+      <c r="AJ18" s="56"/>
+    </row>
+    <row r="19" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A19" s="51"/>
+      <c r="B19" s="150"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="119"/>
+      <c r="J19" s="119"/>
+      <c r="K19" s="119"/>
+      <c r="L19" s="119"/>
+      <c r="M19" s="119"/>
+      <c r="N19" s="119"/>
+      <c r="O19" s="120"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="64"/>
+      <c r="AI19" s="65"/>
+      <c r="AJ19" s="56"/>
+    </row>
+    <row r="20" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A20" s="51"/>
+      <c r="B20" s="150"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="119"/>
+      <c r="J20" s="119"/>
+      <c r="K20" s="119"/>
+      <c r="L20" s="119"/>
+      <c r="M20" s="119"/>
+      <c r="N20" s="119"/>
+      <c r="O20" s="120"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="64"/>
+      <c r="AI20" s="65"/>
+      <c r="AJ20" s="56"/>
+    </row>
+    <row r="21" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A21" s="51"/>
+      <c r="B21" s="150"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="119"/>
+      <c r="J21" s="119"/>
+      <c r="K21" s="119"/>
+      <c r="L21" s="119"/>
+      <c r="M21" s="119"/>
+      <c r="N21" s="119"/>
+      <c r="O21" s="120"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="64"/>
+      <c r="AI21" s="65"/>
+      <c r="AJ21" s="56"/>
+    </row>
+    <row r="22" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A22" s="51"/>
+      <c r="B22" s="150"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="119"/>
+      <c r="J22" s="119"/>
+      <c r="K22" s="119"/>
+      <c r="L22" s="119"/>
+      <c r="M22" s="119"/>
+      <c r="N22" s="119"/>
+      <c r="O22" s="120"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="64"/>
+      <c r="AI22" s="65"/>
+      <c r="AJ22" s="56"/>
+    </row>
+    <row r="23" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A23" s="51"/>
+      <c r="B23" s="150"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="119"/>
+      <c r="H23" s="119"/>
+      <c r="I23" s="119"/>
+      <c r="J23" s="119"/>
+      <c r="K23" s="119"/>
+      <c r="L23" s="119"/>
+      <c r="M23" s="119"/>
+      <c r="N23" s="119"/>
+      <c r="O23" s="120"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="64"/>
+      <c r="AI23" s="65"/>
+      <c r="AJ23" s="56"/>
+    </row>
+    <row r="24" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A24" s="51"/>
+      <c r="B24" s="150"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="119"/>
+      <c r="H24" s="119"/>
+      <c r="I24" s="119"/>
+      <c r="J24" s="119"/>
+      <c r="K24" s="119"/>
+      <c r="L24" s="119"/>
+      <c r="M24" s="119"/>
+      <c r="N24" s="119"/>
+      <c r="O24" s="120"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="6"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="64"/>
+      <c r="AI24" s="65"/>
+      <c r="AJ24" s="56"/>
+    </row>
+    <row r="25" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A25" s="51"/>
+      <c r="B25" s="150"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="119"/>
+      <c r="H25" s="119"/>
+      <c r="I25" s="119"/>
+      <c r="J25" s="119"/>
+      <c r="K25" s="119"/>
+      <c r="L25" s="119"/>
+      <c r="M25" s="119"/>
+      <c r="N25" s="119"/>
+      <c r="O25" s="120"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="6"/>
+      <c r="AE25" s="6"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="64"/>
+      <c r="AI25" s="65"/>
+      <c r="AJ25" s="56"/>
+    </row>
+    <row r="26" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A26" s="51"/>
+      <c r="B26" s="150"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="67"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="16"/>
+      <c r="AC26" s="17"/>
+      <c r="AD26" s="67"/>
+      <c r="AE26" s="16"/>
+      <c r="AF26" s="16"/>
+      <c r="AG26" s="16"/>
+      <c r="AH26" s="68"/>
+      <c r="AI26" s="69"/>
+      <c r="AJ26" s="56"/>
+    </row>
+    <row r="27" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A27" s="51"/>
+      <c r="B27" t="s" s="149">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s" s="273">
+        <v>51</v>
+      </c>
+      <c r="D27" s="163"/>
+      <c r="E27" s="163"/>
+      <c r="F27" s="163"/>
+      <c r="G27" s="163"/>
+      <c r="H27" s="163"/>
+      <c r="I27" s="163"/>
+      <c r="J27" s="163"/>
+      <c r="K27" s="163"/>
+      <c r="L27" s="163"/>
+      <c r="M27" s="163"/>
+      <c r="N27" s="163"/>
+      <c r="O27" s="164"/>
+      <c r="P27" t="s" s="274">
+        <v>45</v>
+      </c>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="53"/>
+      <c r="AD27" s="54"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="52"/>
+      <c r="AI27" s="55"/>
+      <c r="AJ27" s="56"/>
+    </row>
+    <row r="28" spans="1:36" s="57" customFormat="1">
+      <c r="A28" s="51"/>
+      <c r="B28" s="150"/>
+      <c r="C28" t="s" s="275">
+        <v>51</v>
+      </c>
+      <c r="D28" s="116"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="116"/>
+      <c r="I28" s="116"/>
+      <c r="J28" s="116"/>
+      <c r="K28" s="116"/>
+      <c r="L28" s="116"/>
+      <c r="M28" s="116"/>
+      <c r="N28" s="116"/>
+      <c r="O28" s="117"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" t="s" s="276">
+        <v>45</v>
+      </c>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="7"/>
+      <c r="AC28" s="7"/>
+      <c r="AD28" s="7"/>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="62"/>
+      <c r="AG28" s="8"/>
+      <c r="AH28" s="64"/>
+      <c r="AI28" s="65"/>
+      <c r="AJ28" s="56"/>
+    </row>
+    <row r="29" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A29" s="51"/>
+      <c r="B29" s="150"/>
+      <c r="C29" t="s" s="277">
+        <v>51</v>
+      </c>
+      <c r="D29" s="116"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="116"/>
+      <c r="H29" s="116"/>
+      <c r="I29" s="116"/>
+      <c r="J29" s="116"/>
+      <c r="K29" s="116"/>
+      <c r="L29" s="116"/>
+      <c r="M29" s="116"/>
+      <c r="N29" s="116"/>
+      <c r="O29" s="117"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" t="s" s="278">
+        <v>45</v>
+      </c>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="62"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7"/>
+      <c r="AC29" s="7"/>
+      <c r="AD29" s="7"/>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="62"/>
+      <c r="AG29" s="18"/>
+      <c r="AH29" s="70"/>
+      <c r="AI29" s="71"/>
+      <c r="AJ29" s="56"/>
+    </row>
+    <row r="30" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A30" s="51"/>
+      <c r="B30" s="150"/>
+      <c r="C30" t="s" s="279">
+        <v>51</v>
+      </c>
+      <c r="D30" s="116"/>
+      <c r="E30" s="116"/>
+      <c r="F30" s="116"/>
+      <c r="G30" s="116"/>
+      <c r="H30" s="116"/>
+      <c r="I30" s="116"/>
+      <c r="J30" s="116"/>
+      <c r="K30" s="116"/>
+      <c r="L30" s="116"/>
+      <c r="M30" s="116"/>
+      <c r="N30" s="116"/>
+      <c r="O30" s="117"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="6"/>
+      <c r="S30" t="s" s="280">
+        <v>45</v>
+      </c>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="7"/>
+      <c r="AF30" s="62"/>
+      <c r="AG30" s="8"/>
+      <c r="AH30" s="64"/>
+      <c r="AI30" s="65"/>
+      <c r="AJ30" s="56"/>
+    </row>
+    <row r="31" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A31" s="51"/>
+      <c r="B31" s="150"/>
+      <c r="C31" t="s" s="281">
+        <v>51</v>
+      </c>
+      <c r="D31" s="116"/>
+      <c r="E31" s="116"/>
+      <c r="F31" s="116"/>
+      <c r="G31" s="116"/>
+      <c r="H31" s="116"/>
+      <c r="I31" s="116"/>
+      <c r="J31" s="116"/>
+      <c r="K31" s="116"/>
+      <c r="L31" s="116"/>
+      <c r="M31" s="116"/>
+      <c r="N31" s="116"/>
+      <c r="O31" s="117"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="6"/>
+      <c r="T31" t="s" s="282">
+        <v>45</v>
+      </c>
+      <c r="U31" s="21"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="22"/>
+      <c r="AD31" s="72"/>
+      <c r="AE31" s="8"/>
+      <c r="AF31" s="8"/>
+      <c r="AG31" s="8"/>
+      <c r="AH31" s="64"/>
+      <c r="AI31" s="65"/>
+      <c r="AJ31" s="56"/>
+    </row>
+    <row r="32" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A32" s="51"/>
+      <c r="B32" s="150"/>
+      <c r="C32" t="s" s="283">
+        <v>51</v>
+      </c>
+      <c r="D32" s="116"/>
+      <c r="E32" s="116"/>
+      <c r="F32" s="116"/>
+      <c r="G32" s="116"/>
+      <c r="H32" s="116"/>
+      <c r="I32" s="116"/>
+      <c r="J32" s="116"/>
+      <c r="K32" s="116"/>
+      <c r="L32" s="116"/>
+      <c r="M32" s="116"/>
+      <c r="N32" s="116"/>
+      <c r="O32" s="117"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="21"/>
+      <c r="U32" t="s" s="284">
+        <v>45</v>
+      </c>
+      <c r="V32" s="21"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="22"/>
+      <c r="AD32" s="72"/>
+      <c r="AE32" s="8"/>
+      <c r="AF32" s="8"/>
+      <c r="AG32" s="8"/>
+      <c r="AH32" s="64"/>
+      <c r="AI32" s="65"/>
+      <c r="AJ32" s="56"/>
+    </row>
+    <row r="33" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A33" s="51"/>
+      <c r="B33" s="150"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="116"/>
+      <c r="E33" s="116"/>
+      <c r="F33" s="116"/>
+      <c r="G33" s="116"/>
+      <c r="H33" s="116"/>
+      <c r="I33" s="116"/>
+      <c r="J33" s="116"/>
+      <c r="K33" s="116"/>
+      <c r="L33" s="116"/>
+      <c r="M33" s="116"/>
+      <c r="N33" s="116"/>
+      <c r="O33" s="117"/>
+      <c r="P33" s="112"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="18"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="18"/>
+      <c r="X33" s="18"/>
+      <c r="Y33" s="18"/>
+      <c r="Z33" s="18"/>
+      <c r="AA33" s="18"/>
+      <c r="AB33" s="18"/>
+      <c r="AC33" s="113"/>
+      <c r="AD33" s="114"/>
+      <c r="AE33" s="18"/>
+      <c r="AF33" s="18"/>
+      <c r="AG33" s="18"/>
+      <c r="AH33" s="70"/>
+      <c r="AI33" s="71"/>
+      <c r="AJ33" s="56"/>
+    </row>
+    <row r="34" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A34" s="51"/>
+      <c r="B34" s="150"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="116"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="116"/>
+      <c r="K34" s="116"/>
+      <c r="L34" s="116"/>
+      <c r="M34" s="116"/>
+      <c r="N34" s="116"/>
+      <c r="O34" s="117"/>
+      <c r="P34" s="112"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="21"/>
+      <c r="W34" s="18"/>
+      <c r="X34" s="18"/>
+      <c r="Y34" s="18"/>
+      <c r="Z34" s="18"/>
+      <c r="AA34" s="18"/>
+      <c r="AB34" s="18"/>
+      <c r="AC34" s="113"/>
+      <c r="AD34" s="114"/>
+      <c r="AE34" s="18"/>
+      <c r="AF34" s="18"/>
+      <c r="AG34" s="18"/>
+      <c r="AH34" s="70"/>
+      <c r="AI34" s="71"/>
+      <c r="AJ34" s="56"/>
+    </row>
+    <row r="35" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A35" s="51"/>
+      <c r="B35" s="150"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="116"/>
+      <c r="G35" s="116"/>
+      <c r="H35" s="116"/>
+      <c r="I35" s="116"/>
+      <c r="J35" s="116"/>
+      <c r="K35" s="116"/>
+      <c r="L35" s="116"/>
+      <c r="M35" s="116"/>
+      <c r="N35" s="116"/>
+      <c r="O35" s="117"/>
+      <c r="P35" s="112"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="18"/>
+      <c r="V35" s="21"/>
+      <c r="W35" s="18"/>
+      <c r="X35" s="18"/>
+      <c r="Y35" s="18"/>
+      <c r="Z35" s="18"/>
+      <c r="AA35" s="18"/>
+      <c r="AB35" s="18"/>
+      <c r="AC35" s="113"/>
+      <c r="AD35" s="114"/>
+      <c r="AE35" s="18"/>
+      <c r="AF35" s="18"/>
+      <c r="AG35" s="18"/>
+      <c r="AH35" s="70"/>
+      <c r="AI35" s="71"/>
+      <c r="AJ35" s="56"/>
+    </row>
+    <row r="36" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A36" s="51"/>
+      <c r="B36" s="150"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="116"/>
+      <c r="E36" s="116"/>
+      <c r="F36" s="116"/>
+      <c r="G36" s="116"/>
+      <c r="H36" s="116"/>
+      <c r="I36" s="116"/>
+      <c r="J36" s="116"/>
+      <c r="K36" s="116"/>
+      <c r="L36" s="116"/>
+      <c r="M36" s="116"/>
+      <c r="N36" s="116"/>
+      <c r="O36" s="117"/>
+      <c r="P36" s="112"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="21"/>
+      <c r="U36" s="18"/>
+      <c r="V36" s="21"/>
+      <c r="W36" s="18"/>
+      <c r="X36" s="18"/>
+      <c r="Y36" s="18"/>
+      <c r="Z36" s="18"/>
+      <c r="AA36" s="18"/>
+      <c r="AB36" s="18"/>
+      <c r="AC36" s="113"/>
+      <c r="AD36" s="114"/>
+      <c r="AE36" s="18"/>
+      <c r="AF36" s="18"/>
+      <c r="AG36" s="18"/>
+      <c r="AH36" s="70"/>
+      <c r="AI36" s="71"/>
+      <c r="AJ36" s="56"/>
+    </row>
+    <row r="37" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A37" s="51"/>
+      <c r="B37" s="150"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="116"/>
+      <c r="F37" s="116"/>
+      <c r="G37" s="116"/>
+      <c r="H37" s="116"/>
+      <c r="I37" s="116"/>
+      <c r="J37" s="116"/>
+      <c r="K37" s="116"/>
+      <c r="L37" s="116"/>
+      <c r="M37" s="116"/>
+      <c r="N37" s="116"/>
+      <c r="O37" s="117"/>
+      <c r="P37" s="112"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="21"/>
+      <c r="U37" s="18"/>
+      <c r="V37" s="21"/>
+      <c r="W37" s="18"/>
+      <c r="X37" s="18"/>
+      <c r="Y37" s="18"/>
+      <c r="Z37" s="18"/>
+      <c r="AA37" s="18"/>
+      <c r="AB37" s="18"/>
+      <c r="AC37" s="113"/>
+      <c r="AD37" s="114"/>
+      <c r="AE37" s="18"/>
+      <c r="AF37" s="18"/>
+      <c r="AG37" s="18"/>
+      <c r="AH37" s="70"/>
+      <c r="AI37" s="71"/>
+      <c r="AJ37" s="56"/>
+    </row>
+    <row r="38" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A38" s="51"/>
+      <c r="B38" s="150"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="116"/>
+      <c r="E38" s="116"/>
+      <c r="F38" s="116"/>
+      <c r="G38" s="116"/>
+      <c r="H38" s="116"/>
+      <c r="I38" s="116"/>
+      <c r="J38" s="116"/>
+      <c r="K38" s="116"/>
+      <c r="L38" s="116"/>
+      <c r="M38" s="116"/>
+      <c r="N38" s="116"/>
+      <c r="O38" s="117"/>
+      <c r="P38" s="112"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="21"/>
+      <c r="T38" s="21"/>
+      <c r="U38" s="18"/>
+      <c r="V38" s="21"/>
+      <c r="W38" s="18"/>
+      <c r="X38" s="18"/>
+      <c r="Y38" s="18"/>
+      <c r="Z38" s="18"/>
+      <c r="AA38" s="18"/>
+      <c r="AB38" s="18"/>
+      <c r="AC38" s="113"/>
+      <c r="AD38" s="114"/>
+      <c r="AE38" s="18"/>
+      <c r="AF38" s="18"/>
+      <c r="AG38" s="18"/>
+      <c r="AH38" s="70"/>
+      <c r="AI38" s="71"/>
+      <c r="AJ38" s="56"/>
+    </row>
+    <row r="39" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A39" s="51"/>
+      <c r="B39" s="150"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="116"/>
+      <c r="E39" s="116"/>
+      <c r="F39" s="116"/>
+      <c r="G39" s="116"/>
+      <c r="H39" s="116"/>
+      <c r="I39" s="116"/>
+      <c r="J39" s="116"/>
+      <c r="K39" s="116"/>
+      <c r="L39" s="116"/>
+      <c r="M39" s="116"/>
+      <c r="N39" s="116"/>
+      <c r="O39" s="117"/>
+      <c r="P39" s="112"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="21"/>
+      <c r="W39" s="18"/>
+      <c r="X39" s="18"/>
+      <c r="Y39" s="18"/>
+      <c r="Z39" s="18"/>
+      <c r="AA39" s="18"/>
+      <c r="AB39" s="18"/>
+      <c r="AC39" s="113"/>
+      <c r="AD39" s="114"/>
+      <c r="AE39" s="18"/>
+      <c r="AF39" s="18"/>
+      <c r="AG39" s="18"/>
+      <c r="AH39" s="70"/>
+      <c r="AI39" s="71"/>
+      <c r="AJ39" s="56"/>
+    </row>
+    <row r="40" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A40" s="51"/>
+      <c r="B40" s="151"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="74"/>
+      <c r="K40" s="74"/>
+      <c r="L40" s="74"/>
+      <c r="M40" s="74"/>
+      <c r="N40" s="74"/>
+      <c r="O40" s="75"/>
+      <c r="P40" s="76"/>
+      <c r="Q40" s="68"/>
+      <c r="R40" s="68"/>
+      <c r="S40" s="68"/>
+      <c r="T40" s="68"/>
+      <c r="U40" s="68"/>
+      <c r="V40" s="68"/>
+      <c r="W40" s="68"/>
+      <c r="X40" s="68"/>
+      <c r="Y40" s="68"/>
+      <c r="Z40" s="68"/>
+      <c r="AA40" s="68"/>
+      <c r="AB40" s="68"/>
+      <c r="AC40" s="77"/>
+      <c r="AD40" s="68"/>
+      <c r="AE40" s="68"/>
+      <c r="AF40" s="68"/>
+      <c r="AG40" s="68"/>
+      <c r="AH40" s="68"/>
+      <c r="AI40" s="69"/>
+      <c r="AJ40" s="56"/>
+    </row>
+    <row r="41" spans="1:36" ht="51" customHeight="1">
+      <c r="A41" s="45"/>
+      <c r="B41" s="78"/>
+      <c r="C41" t="s" s="79">
+        <v>15</v>
+      </c>
+      <c r="D41" s="79"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="79"/>
+      <c r="H41" s="79"/>
+      <c r="I41" s="79"/>
+      <c r="K41" s="79"/>
+      <c r="L41" s="79"/>
+      <c r="M41" s="79"/>
+      <c r="N41" s="79"/>
+      <c r="O41" s="80"/>
+      <c r="P41" s="81"/>
+      <c r="Q41" s="82"/>
+      <c r="R41" s="82"/>
+      <c r="S41" s="82"/>
+      <c r="T41" s="82"/>
+      <c r="U41" s="82"/>
+      <c r="V41" s="82"/>
+      <c r="W41" s="82"/>
+      <c r="X41" s="82"/>
+      <c r="Y41" s="82"/>
+      <c r="Z41" s="82"/>
+      <c r="AA41" s="82"/>
+      <c r="AB41" s="82"/>
+      <c r="AC41" s="83"/>
+      <c r="AD41" s="82"/>
+      <c r="AE41" s="82"/>
+      <c r="AF41" s="82"/>
+      <c r="AG41" s="82"/>
+      <c r="AH41" s="82"/>
+      <c r="AI41" s="84"/>
+      <c r="AJ41" s="44"/>
+    </row>
+    <row r="42" spans="1:36" ht="17.100000000000001" customHeight="1">
+      <c r="A42" s="45"/>
+      <c r="B42" s="85"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="86"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="86"/>
+      <c r="H42" s="86"/>
+      <c r="I42" s="86"/>
+      <c r="J42" s="86"/>
+      <c r="K42" s="86"/>
+      <c r="L42" s="86"/>
+      <c r="M42" s="86"/>
+      <c r="N42" s="87"/>
+      <c r="O42" t="s" s="88">
+        <v>18</v>
+      </c>
+      <c r="P42" s="89"/>
+      <c r="Q42" s="90"/>
+      <c r="R42" s="90"/>
+      <c r="S42" s="90"/>
+      <c r="T42" s="90"/>
+      <c r="U42" s="90"/>
+      <c r="V42" s="90"/>
+      <c r="W42" s="90"/>
+      <c r="X42" s="90"/>
+      <c r="Y42" s="90"/>
+      <c r="Z42" s="90"/>
+      <c r="AA42" s="90"/>
+      <c r="AB42" s="91"/>
+      <c r="AC42" s="92"/>
+      <c r="AD42" s="91"/>
+      <c r="AE42" s="91"/>
+      <c r="AF42" s="91"/>
+      <c r="AG42" s="91"/>
+      <c r="AH42" s="91"/>
+      <c r="AI42" s="93"/>
+      <c r="AJ42" s="44"/>
+    </row>
+    <row r="43" spans="1:36" ht="26.25" customHeight="1">
+      <c r="A43" s="45"/>
+      <c r="B43" t="s" s="94">
+        <v>19</v>
+      </c>
+      <c r="C43" s="95"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="95"/>
+      <c r="G43" s="95"/>
+      <c r="H43" s="95"/>
+      <c r="I43" s="95"/>
+      <c r="J43" s="95"/>
+      <c r="K43" s="95"/>
+      <c r="L43" s="95"/>
+      <c r="M43" s="95"/>
+      <c r="N43" s="96"/>
+      <c r="O43" t="s" s="88">
+        <v>20</v>
+      </c>
+      <c r="P43" s="97"/>
+      <c r="Q43" s="97"/>
+      <c r="R43" s="97"/>
+      <c r="S43" s="97"/>
+      <c r="T43" s="97"/>
+      <c r="U43" s="97"/>
+      <c r="V43" s="97"/>
+      <c r="W43" s="98"/>
+      <c r="X43" s="98"/>
+      <c r="Y43" s="98"/>
+      <c r="Z43" s="98"/>
+      <c r="AA43" s="98"/>
+      <c r="AB43" s="98"/>
+      <c r="AC43" s="99"/>
+      <c r="AD43" s="98"/>
+      <c r="AE43" s="98"/>
+      <c r="AF43" s="98"/>
+      <c r="AG43" s="98"/>
+      <c r="AH43" s="98"/>
+      <c r="AI43" s="98"/>
+      <c r="AJ43" s="44"/>
+    </row>
+    <row r="44" spans="1:36" ht="23.1" customHeight="1">
+      <c r="A44" s="45"/>
+      <c r="B44" s="47"/>
+      <c r="C44" t="s" s="47">
+        <v>21</v>
+      </c>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="100"/>
+      <c r="H44" s="100"/>
+      <c r="I44" s="100"/>
+      <c r="J44" s="100"/>
+      <c r="K44" s="100"/>
+      <c r="L44" s="100"/>
+      <c r="M44" s="100"/>
+      <c r="N44" s="100"/>
+      <c r="O44" s="101"/>
+      <c r="P44" t="s" s="102">
+        <v>22</v>
+      </c>
+      <c r="Q44" t="s" s="102">
+        <v>22</v>
+      </c>
+      <c r="R44" t="s" s="102">
+        <v>22</v>
+      </c>
+      <c r="S44" t="s" s="102">
+        <v>22</v>
+      </c>
+      <c r="T44" s="102"/>
+      <c r="U44" s="102"/>
+      <c r="V44" s="102"/>
+      <c r="W44" s="102"/>
+      <c r="X44" s="102"/>
+      <c r="Y44" s="102"/>
+      <c r="Z44" s="102"/>
+      <c r="AA44" s="102"/>
+      <c r="AB44" s="102"/>
+      <c r="AC44" s="102"/>
+      <c r="AD44" s="102"/>
+      <c r="AE44" s="102"/>
+      <c r="AF44" s="102"/>
+      <c r="AG44" s="102"/>
+      <c r="AH44" s="102"/>
+      <c r="AI44" s="102"/>
+      <c r="AJ44" s="44"/>
+    </row>
+    <row r="45" spans="1:36" ht="19.5" customHeight="1">
+      <c r="A45" s="45"/>
+      <c r="B45" t="s" s="96">
+        <v>23</v>
+      </c>
+      <c r="C45" s="96"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="96"/>
+      <c r="F45" s="96"/>
+      <c r="G45" s="96"/>
+      <c r="H45" s="96"/>
+      <c r="I45" s="96"/>
+      <c r="J45" s="96"/>
+      <c r="K45" s="96"/>
+      <c r="L45" s="96"/>
+      <c r="M45" s="96"/>
+      <c r="N45" s="96"/>
+      <c r="O45" s="103"/>
+      <c r="P45" s="57"/>
+      <c r="Q45" s="57"/>
+      <c r="R45" s="57"/>
+      <c r="S45" s="57"/>
+      <c r="T45" s="57"/>
+      <c r="U45" s="57"/>
+      <c r="V45" s="57"/>
+      <c r="W45" s="57"/>
+      <c r="X45" s="57"/>
+      <c r="Y45" t="s" s="155">
+        <v>24</v>
+      </c>
+      <c r="Z45" s="155"/>
+      <c r="AA45" s="155"/>
+      <c r="AB45" s="156"/>
+      <c r="AC45" s="156"/>
+      <c r="AD45" s="156"/>
+      <c r="AE45" s="156"/>
+      <c r="AF45" s="157"/>
+      <c r="AG45" s="157"/>
+      <c r="AH45" s="157"/>
+      <c r="AI45" s="157"/>
+      <c r="AJ45" s="44"/>
+    </row>
+    <row r="46" spans="1:36" ht="19.5" customHeight="1">
+      <c r="A46" s="45"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="34"/>
+      <c r="N46" s="34"/>
+      <c r="O46" s="104"/>
+      <c r="P46" s="105"/>
+      <c r="Q46" s="96"/>
+      <c r="R46" s="96"/>
+      <c r="S46" s="96"/>
+      <c r="T46" s="96"/>
+      <c r="U46" s="96"/>
+      <c r="V46" s="96"/>
+      <c r="W46" s="106"/>
+      <c r="X46" s="106"/>
+      <c r="Y46" t="s" s="155">
+        <v>25</v>
+      </c>
+      <c r="Z46" s="155"/>
+      <c r="AA46" s="155"/>
+      <c r="AB46" s="156"/>
+      <c r="AC46" s="156"/>
+      <c r="AD46" s="156"/>
+      <c r="AE46" s="156"/>
+      <c r="AF46" s="157"/>
+      <c r="AG46" s="157"/>
+      <c r="AH46" s="157"/>
+      <c r="AI46" s="157"/>
+      <c r="AJ46" s="44"/>
+    </row>
+    <row r="47" spans="1:36" ht="19.5" customHeight="1">
+      <c r="A47" s="45"/>
+      <c r="B47" s="107"/>
+      <c r="C47" s="108"/>
+      <c r="D47" s="108"/>
+      <c r="E47" s="108"/>
+      <c r="F47" s="108"/>
+      <c r="G47" s="108"/>
+      <c r="H47" s="108"/>
+      <c r="I47" s="108"/>
+      <c r="J47" s="108"/>
+      <c r="K47" s="108"/>
+      <c r="L47" s="108"/>
+      <c r="M47" s="108"/>
+      <c r="N47" s="108"/>
+      <c r="O47" s="109"/>
+      <c r="P47" s="107"/>
+      <c r="Q47" s="108"/>
+      <c r="R47" s="108"/>
+      <c r="S47" s="108"/>
+      <c r="T47" s="108"/>
+      <c r="U47" s="108"/>
+      <c r="V47" s="108"/>
+      <c r="W47" s="110"/>
+      <c r="X47" s="110"/>
+      <c r="Y47" t="s" s="155">
+        <v>26</v>
+      </c>
+      <c r="Z47" s="155"/>
+      <c r="AA47" s="155"/>
+      <c r="AB47" s="146"/>
+      <c r="AC47" s="147"/>
+      <c r="AD47" s="147"/>
+      <c r="AE47" s="148"/>
+      <c r="AF47" s="157"/>
+      <c r="AG47" s="157"/>
+      <c r="AH47" s="157"/>
+      <c r="AI47" s="157"/>
+      <c r="AJ47" s="44"/>
+    </row>
+    <row r="48" spans="1:36" ht="17.100000000000001" customHeight="1">
+      <c r="A48" s="45"/>
+      <c r="B48" s="107"/>
+      <c r="C48" t="s" s="108">
+        <v>27</v>
+      </c>
+      <c r="D48" s="108"/>
+      <c r="E48" s="108"/>
+      <c r="F48" s="108"/>
+      <c r="G48" s="108"/>
+      <c r="H48" s="108"/>
+      <c r="I48" s="108"/>
+      <c r="J48" s="108"/>
+      <c r="K48" s="108"/>
+      <c r="L48" s="108"/>
+      <c r="M48" s="108"/>
+      <c r="N48" s="108"/>
+      <c r="O48" s="108"/>
+      <c r="P48" s="108"/>
+      <c r="Q48" s="108"/>
+      <c r="R48" s="108"/>
+      <c r="S48" s="108"/>
+      <c r="T48" s="108"/>
+      <c r="U48" s="109"/>
+      <c r="V48" t="s" s="111">
+        <v>28</v>
+      </c>
+      <c r="W48" s="47"/>
+      <c r="X48" s="111"/>
+      <c r="Y48" s="100"/>
+      <c r="Z48" s="100"/>
+      <c r="AA48" s="101"/>
+      <c r="AB48" s="158">
+        <f>AG6</f>
+      </c>
+      <c r="AC48" s="159"/>
+      <c r="AD48" s="159"/>
+      <c r="AE48" t="s" s="147">
+        <v>29</v>
+      </c>
+      <c r="AF48" s="147"/>
+      <c r="AG48" s="160">
+        <f>AI6</f>
+      </c>
+      <c r="AH48" s="160"/>
+      <c r="AI48" s="161"/>
+      <c r="AJ48" s="44"/>
+    </row>
+    <row r="49" ht="6" customHeight="1"/>
+    <row r="50" ht="17.100000000000001" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="57">
+    <mergeCell ref="C38:O38"/>
+    <mergeCell ref="C39:O39"/>
+    <mergeCell ref="C33:O33"/>
+    <mergeCell ref="C34:O34"/>
+    <mergeCell ref="C35:O35"/>
+    <mergeCell ref="C36:O36"/>
+    <mergeCell ref="C37:O37"/>
+    <mergeCell ref="Y47:AA47"/>
+    <mergeCell ref="AB47:AE47"/>
+    <mergeCell ref="AF47:AI47"/>
+    <mergeCell ref="AB48:AD48"/>
+    <mergeCell ref="AE48:AF48"/>
+    <mergeCell ref="AG48:AI48"/>
+    <mergeCell ref="Y45:AA45"/>
+    <mergeCell ref="AB45:AE45"/>
+    <mergeCell ref="AF45:AI45"/>
+    <mergeCell ref="Y46:AA46"/>
+    <mergeCell ref="AB46:AE46"/>
+    <mergeCell ref="AF46:AI46"/>
+    <mergeCell ref="AA6:AF6"/>
+    <mergeCell ref="B8:B26"/>
+    <mergeCell ref="B27:B40"/>
+    <mergeCell ref="C8:O8"/>
+    <mergeCell ref="C9:O9"/>
+    <mergeCell ref="C10:O10"/>
+    <mergeCell ref="C11:O11"/>
+    <mergeCell ref="C12:O12"/>
+    <mergeCell ref="C13:O13"/>
+    <mergeCell ref="C14:O14"/>
+    <mergeCell ref="C15:O15"/>
+    <mergeCell ref="C16:O16"/>
+    <mergeCell ref="C17:O17"/>
+    <mergeCell ref="C18:O18"/>
+    <mergeCell ref="C19:O19"/>
+    <mergeCell ref="C20:O20"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:Z2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="P3:Z3"/>
+    <mergeCell ref="AA3:AC5"/>
+    <mergeCell ref="AD3:AF5"/>
+    <mergeCell ref="AG3:AI5"/>
+    <mergeCell ref="P4:Z4"/>
+    <mergeCell ref="P5:Z5"/>
+    <mergeCell ref="C21:O21"/>
+    <mergeCell ref="C22:O22"/>
+    <mergeCell ref="C23:O23"/>
+    <mergeCell ref="C24:O24"/>
+    <mergeCell ref="C25:O25"/>
+    <mergeCell ref="C32:O32"/>
+    <mergeCell ref="C27:O27"/>
+    <mergeCell ref="C28:O28"/>
+    <mergeCell ref="C29:O29"/>
+    <mergeCell ref="C30:O30"/>
+    <mergeCell ref="C31:O31"/>
+  </mergeCells>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <printOptions gridLinesSet="0"/>
+  <pageMargins left="0.39370078740157483" right="0" top="0.78740157480314965" bottom="0.39370078740157483" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;R〔規定番号〕ＳーＰ０４(Ｒｅｖ１.1)</oddHeader>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961F266A-B1EB-4F19-84A2-CD1F09B9F4D9}">
   <sheetPr codeName="Sheet1"/>
   <sheetViews>

--- a/backend/out.xlsx
+++ b/backend/out.xlsx
@@ -15,6 +15,7 @@
   <sheets>
     <sheet name="M1" sheetId="3" r:id="rId1"/>
     <sheet name="M2" sheetId="4" r:id="rId15"/>
+    <sheet name="M3" sheetId="5" r:id="rId16"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -815,18 +816,43 @@
     <t>CHK-018</t>
   </si>
   <si>
-    <t xml:space="preserve">"All fields on page (e.g. text box, radio options, dropdown 
-lists) should be aligned properly"</t>
+    <t xml:space="preserve">All fields on page (e.g. text box, radio options, dropdown lists) should be aligned properly</t>
   </si>
   <si>
     <t xml:space="preserve">〇</t>
   </si>
   <si>
-    <t xml:space="preserve">"Numeric values should be right justified unless specified 
-otherwise"</t>
+    <t xml:space="preserve">Numeric values should be right justified unless specified otherwise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enough space should be provided between field labels, columns, rows, error messages etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scroll bar should be enabled only when necessary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Font size, style and color for headline, description text, labels, infield data, and grid info should be standard as specified in SRS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description text box should be multi-line</t>
   </si>
   <si>
     <t xml:space="preserve">result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disabled fields should be grayed out and user should not be able to set focus on these fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upon click of any input text field, mouse arrow pointer should get changed to cursor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should not be able to type in drop down select lists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information filled by users should remain intact when there is error message on page submit. User should be able to submit the form again by correcting the errors</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
   </si>
 </sst>
 </file>
@@ -989,6 +1015,54 @@
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
       <family val="1"/>
       <charset val="128"/>
     </font>
@@ -1002,6 +1076,201 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -1031,6 +1300,71 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
   </fills>
   <borders>
     <border>
@@ -1797,6 +2131,118 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1813,6 +2259,454 @@
         <color indexed="64"/>
       </right>
       <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
         <color indexed="64"/>
       </top>
       <bottom style="hair">
@@ -2410,6 +3304,166 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="10" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="65" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="66" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="67" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="69" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="70" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="71" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="73" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="74" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="21" borderId="75" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="22" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="77" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="78" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="79" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="26" borderId="80" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="81" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="28" borderId="82" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="29" borderId="83" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="30" borderId="84" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="85" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="32" borderId="86" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="33" borderId="87" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="34" borderId="88" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="35" borderId="89" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="36" borderId="90" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="37" borderId="91" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="38" borderId="92" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="39" borderId="93" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="40" borderId="94" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="41" borderId="95" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="42" borderId="96" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="43" borderId="97" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="44" borderId="98" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="45" borderId="99" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="46" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="47" borderId="101" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="48" borderId="102" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="49" borderId="103" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="50" borderId="104" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -14232,7 +15286,9 @@
     <row r="10" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
       <c r="A10" s="51"/>
       <c r="B10" s="150"/>
-      <c r="C10" s="118"/>
+      <c r="C10" t="s" s="169">
+        <v>47</v>
+      </c>
       <c r="D10" s="119"/>
       <c r="E10" s="119"/>
       <c r="F10" s="119"/>
@@ -14247,7 +15303,9 @@
       <c r="O10" s="120"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
+      <c r="R10" t="s" s="170">
+        <v>45</v>
+      </c>
       <c r="S10" s="6"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
@@ -14270,7 +15328,9 @@
     <row r="11" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
       <c r="A11" s="51"/>
       <c r="B11" s="150"/>
-      <c r="C11" s="118"/>
+      <c r="C11" t="s" s="171">
+        <v>48</v>
+      </c>
       <c r="D11" s="119"/>
       <c r="E11" s="119"/>
       <c r="F11" s="119"/>
@@ -14286,7 +15346,9 @@
       <c r="P11" s="66"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
+      <c r="S11" t="s" s="172">
+        <v>45</v>
+      </c>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
@@ -14308,7 +15370,9 @@
     <row r="12" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
       <c r="A12" s="51"/>
       <c r="B12" s="150"/>
-      <c r="C12" s="118"/>
+      <c r="C12" t="s" s="173">
+        <v>49</v>
+      </c>
       <c r="D12" s="119"/>
       <c r="E12" s="119"/>
       <c r="F12" s="119"/>
@@ -14325,7 +15389,9 @@
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
+      <c r="T12" t="s" s="174">
+        <v>45</v>
+      </c>
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
@@ -14346,7 +15412,9 @@
     <row r="13" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
       <c r="A13" s="51"/>
       <c r="B13" s="150"/>
-      <c r="C13" s="118"/>
+      <c r="C13" t="s" s="175">
+        <v>50</v>
+      </c>
       <c r="D13" s="119"/>
       <c r="E13" s="119"/>
       <c r="F13" s="119"/>
@@ -14364,7 +15432,9 @@
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
+      <c r="U13" t="s" s="176">
+        <v>45</v>
+      </c>
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
@@ -14880,8 +15950,8 @@
       <c r="B27" t="s" s="149">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="169">
-        <v>47</v>
+      <c r="C27" t="s" s="177">
+        <v>51</v>
       </c>
       <c r="D27" s="163"/>
       <c r="E27" s="163"/>
@@ -14895,7 +15965,7 @@
       <c r="M27" s="163"/>
       <c r="N27" s="163"/>
       <c r="O27" s="164"/>
-      <c r="P27" t="s" s="170">
+      <c r="P27" t="s" s="178">
         <v>45</v>
       </c>
       <c r="Q27" s="2"/>
@@ -14922,8 +15992,8 @@
     <row r="28" spans="1:36" s="57" customFormat="1">
       <c r="A28" s="51"/>
       <c r="B28" s="150"/>
-      <c r="C28" t="s" s="171">
-        <v>47</v>
+      <c r="C28" t="s" s="179">
+        <v>51</v>
       </c>
       <c r="D28" s="116"/>
       <c r="E28" s="116"/>
@@ -14938,7 +16008,7 @@
       <c r="N28" s="116"/>
       <c r="O28" s="117"/>
       <c r="P28" s="6"/>
-      <c r="Q28" t="s" s="172">
+      <c r="Q28" t="s" s="180">
         <v>45</v>
       </c>
       <c r="R28" s="7"/>
@@ -14964,7 +16034,9 @@
     <row r="29" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
       <c r="A29" s="51"/>
       <c r="B29" s="150"/>
-      <c r="C29" s="115"/>
+      <c r="C29" t="s" s="181">
+        <v>51</v>
+      </c>
       <c r="D29" s="116"/>
       <c r="E29" s="116"/>
       <c r="F29" s="116"/>
@@ -14979,7 +16051,9 @@
       <c r="O29" s="117"/>
       <c r="P29" s="10"/>
       <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
+      <c r="R29" t="s" s="182">
+        <v>45</v>
+      </c>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
@@ -15002,7 +16076,9 @@
     <row r="30" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
       <c r="A30" s="51"/>
       <c r="B30" s="150"/>
-      <c r="C30" s="115"/>
+      <c r="C30" t="s" s="183">
+        <v>51</v>
+      </c>
       <c r="D30" s="116"/>
       <c r="E30" s="116"/>
       <c r="F30" s="116"/>
@@ -15018,7 +16094,9 @@
       <c r="P30" s="6"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="6"/>
-      <c r="S30" s="7"/>
+      <c r="S30" t="s" s="184">
+        <v>45</v>
+      </c>
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
       <c r="V30" s="7"/>
@@ -15040,7 +16118,9 @@
     <row r="31" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
       <c r="A31" s="51"/>
       <c r="B31" s="150"/>
-      <c r="C31" s="115"/>
+      <c r="C31" t="s" s="185">
+        <v>51</v>
+      </c>
       <c r="D31" s="116"/>
       <c r="E31" s="116"/>
       <c r="F31" s="116"/>
@@ -15057,7 +16137,9 @@
       <c r="Q31" s="18"/>
       <c r="R31" s="8"/>
       <c r="S31" s="6"/>
-      <c r="T31" s="20"/>
+      <c r="T31" t="s" s="186">
+        <v>45</v>
+      </c>
       <c r="U31" s="21"/>
       <c r="V31" s="8"/>
       <c r="W31" s="8"/>
@@ -15078,7 +16160,9 @@
     <row r="32" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
       <c r="A32" s="51"/>
       <c r="B32" s="150"/>
-      <c r="C32" s="115"/>
+      <c r="C32" t="s" s="187">
+        <v>51</v>
+      </c>
       <c r="D32" s="116"/>
       <c r="E32" s="116"/>
       <c r="F32" s="116"/>
@@ -15096,7 +16180,9 @@
       <c r="R32" s="18"/>
       <c r="S32" s="20"/>
       <c r="T32" s="21"/>
-      <c r="U32" s="8"/>
+      <c r="U32" t="s" s="188">
+        <v>45</v>
+      </c>
       <c r="V32" s="21"/>
       <c r="W32" s="8"/>
       <c r="X32" s="8"/>
@@ -15830,6 +16916,1984 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961F266A-B1EB-4F19-84A2-CD1F09B9F4D9}">
+  <sheetPr codeName="Sheet1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:O30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.875" style="23" customWidth="1"/>
+    <col min="2" max="14" width="3.625" style="23" customWidth="1"/>
+    <col min="15" max="15" width="20.375" style="23" customWidth="1"/>
+    <col min="16" max="28" width="3.625" style="23" customWidth="1"/>
+    <col min="29" max="29" width="3.625" style="24" customWidth="1"/>
+    <col min="30" max="35" width="3.625" style="23" customWidth="1"/>
+    <col min="36" max="36" width="1.875" style="23" customWidth="1"/>
+    <col min="37" max="16384" width="9.875" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" ht="6" customHeight="1" thickBot="1"/>
+    <row r="2" spans="1:36" ht="18.95" customHeight="1" thickBot="1">
+      <c r="K2" t="s" s="25">
+        <v>0</v>
+      </c>
+      <c r="L2" s="25"/>
+      <c r="M2" s="139">
+        <v>1</v>
+      </c>
+      <c r="N2" s="140"/>
+      <c r="O2" s="26"/>
+      <c r="P2" t="s" s="141">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="142"/>
+      <c r="R2" s="142"/>
+      <c r="S2" s="142"/>
+      <c r="T2" s="142"/>
+      <c r="U2" s="142"/>
+      <c r="V2" s="142"/>
+      <c r="W2" s="142"/>
+      <c r="X2" s="142"/>
+      <c r="Y2" s="142"/>
+      <c r="Z2" s="143"/>
+      <c r="AA2" t="s" s="144">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="145"/>
+      <c r="AC2" s="140"/>
+      <c r="AD2" t="s" s="139">
+        <v>13</v>
+      </c>
+      <c r="AE2" s="145"/>
+      <c r="AF2" s="140"/>
+      <c r="AG2" t="s" s="139">
+        <v>14</v>
+      </c>
+      <c r="AH2" s="145"/>
+      <c r="AI2" s="140"/>
+    </row>
+    <row r="3" spans="1:36" ht="18.95" customHeight="1">
+      <c r="B3" s="27"/>
+      <c r="C3" t="s" s="28">
+        <v>3</v>
+      </c>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="32"/>
+      <c r="K3" t="s" s="33">
+        <v>4</v>
+      </c>
+      <c r="O3" s="34"/>
+      <c r="P3" s="121"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="122"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="122"/>
+      <c r="U3" s="122"/>
+      <c r="V3" s="122"/>
+      <c r="W3" s="122"/>
+      <c r="X3" s="122"/>
+      <c r="Y3" s="122"/>
+      <c r="Z3" s="123"/>
+      <c r="AA3" s="124"/>
+      <c r="AB3" s="125"/>
+      <c r="AC3" s="126"/>
+      <c r="AD3" s="124"/>
+      <c r="AE3" s="125"/>
+      <c r="AF3" s="126"/>
+      <c r="AG3" s="124"/>
+      <c r="AH3" s="125"/>
+      <c r="AI3" s="126"/>
+    </row>
+    <row r="4" spans="1:36" ht="24" customHeight="1" thickBot="1">
+      <c r="B4" s="35"/>
+      <c r="C4" t="s" s="36">
+        <v>5</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="38"/>
+      <c r="K4" t="s" s="33">
+        <v>6</v>
+      </c>
+      <c r="O4" s="34"/>
+      <c r="P4" s="133"/>
+      <c r="Q4" s="134"/>
+      <c r="R4" s="134"/>
+      <c r="S4" s="134"/>
+      <c r="T4" s="134"/>
+      <c r="U4" s="134"/>
+      <c r="V4" s="134"/>
+      <c r="W4" s="134"/>
+      <c r="X4" s="134"/>
+      <c r="Y4" s="134"/>
+      <c r="Z4" s="135"/>
+      <c r="AA4" s="127"/>
+      <c r="AB4" s="128"/>
+      <c r="AC4" s="129"/>
+      <c r="AD4" s="127"/>
+      <c r="AE4" s="128"/>
+      <c r="AF4" s="129"/>
+      <c r="AG4" s="127"/>
+      <c r="AH4" s="128"/>
+      <c r="AI4" s="129"/>
+    </row>
+    <row r="5" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
+      <c r="C5" s="39"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="33"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="136"/>
+      <c r="Q5" s="137"/>
+      <c r="R5" s="137"/>
+      <c r="S5" s="137"/>
+      <c r="T5" s="137"/>
+      <c r="U5" s="137"/>
+      <c r="V5" s="137"/>
+      <c r="W5" s="137"/>
+      <c r="X5" s="137"/>
+      <c r="Y5" s="137"/>
+      <c r="Z5" s="138"/>
+      <c r="AA5" s="130"/>
+      <c r="AB5" s="131"/>
+      <c r="AC5" s="132"/>
+      <c r="AD5" s="130"/>
+      <c r="AE5" s="131"/>
+      <c r="AF5" s="132"/>
+      <c r="AG5" s="130"/>
+      <c r="AH5" s="131"/>
+      <c r="AI5" s="132"/>
+    </row>
+    <row r="6" spans="1:36" ht="21" customHeight="1">
+      <c r="AA6" t="s" s="146">
+        <v>7</v>
+      </c>
+      <c r="AB6" s="147"/>
+      <c r="AC6" s="147"/>
+      <c r="AD6" s="147"/>
+      <c r="AE6" s="147"/>
+      <c r="AF6" s="148"/>
+      <c r="AG6" s="41">
+        <v>1</v>
+      </c>
+      <c r="AH6" t="s" s="42">
+        <v>8</v>
+      </c>
+      <c r="AI6" s="43">
+        <v>18</v>
+      </c>
+      <c r="AJ6" s="44"/>
+    </row>
+    <row r="7" spans="1:36" ht="99.6" customHeight="1">
+      <c r="A7" s="45"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="48"/>
+      <c r="P7" t="s" s="49">
+        <v>9</v>
+      </c>
+      <c r="Q7" t="s" s="49">
+        <v>10</v>
+      </c>
+      <c r="R7" t="s" s="49">
+        <v>11</v>
+      </c>
+      <c r="S7" t="s" s="49">
+        <v>12</v>
+      </c>
+      <c r="T7" t="s" s="49">
+        <v>30</v>
+      </c>
+      <c r="U7" t="s" s="49">
+        <v>31</v>
+      </c>
+      <c r="V7" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="W7" t="s" s="49">
+        <v>33</v>
+      </c>
+      <c r="X7" t="s" s="49">
+        <v>34</v>
+      </c>
+      <c r="Y7" t="s" s="49">
+        <v>35</v>
+      </c>
+      <c r="Z7" t="s" s="49">
+        <v>36</v>
+      </c>
+      <c r="AA7" t="s" s="49">
+        <v>37</v>
+      </c>
+      <c r="AB7" t="s" s="49">
+        <v>38</v>
+      </c>
+      <c r="AC7" t="s" s="49">
+        <v>39</v>
+      </c>
+      <c r="AD7" t="s" s="49">
+        <v>40</v>
+      </c>
+      <c r="AE7" t="s" s="49">
+        <v>41</v>
+      </c>
+      <c r="AF7" t="s" s="49">
+        <v>42</v>
+      </c>
+      <c r="AG7" t="s" s="49">
+        <v>43</v>
+      </c>
+      <c r="AH7" s="50"/>
+      <c r="AI7" s="50"/>
+      <c r="AJ7" s="44"/>
+    </row>
+    <row r="8" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A8" s="51"/>
+      <c r="B8" t="s" s="149">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s" s="189">
+        <v>52</v>
+      </c>
+      <c r="D8" s="153"/>
+      <c r="E8" s="153"/>
+      <c r="F8" s="153"/>
+      <c r="G8" s="153"/>
+      <c r="H8" s="153"/>
+      <c r="I8" s="153"/>
+      <c r="J8" s="153"/>
+      <c r="K8" s="153"/>
+      <c r="L8" s="153"/>
+      <c r="M8" s="153"/>
+      <c r="N8" s="153"/>
+      <c r="O8" s="154"/>
+      <c r="P8" t="s" s="190">
+        <v>45</v>
+      </c>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="52"/>
+      <c r="AC8" s="53"/>
+      <c r="AD8" s="54"/>
+      <c r="AE8" s="52"/>
+      <c r="AF8" s="52"/>
+      <c r="AG8" s="52"/>
+      <c r="AH8" s="52"/>
+      <c r="AI8" s="55"/>
+      <c r="AJ8" s="56"/>
+    </row>
+    <row r="9" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A9" s="51"/>
+      <c r="B9" s="150"/>
+      <c r="C9" t="s" s="191">
+        <v>53</v>
+      </c>
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="119"/>
+      <c r="M9" s="119"/>
+      <c r="N9" s="119"/>
+      <c r="O9" s="120"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" t="s" s="192">
+        <v>45</v>
+      </c>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="58"/>
+      <c r="AC9" s="59"/>
+      <c r="AD9" s="60"/>
+      <c r="AE9" s="58"/>
+      <c r="AF9" s="58"/>
+      <c r="AG9" s="58"/>
+      <c r="AH9" s="58"/>
+      <c r="AI9" s="61"/>
+      <c r="AJ9" s="56"/>
+    </row>
+    <row r="10" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A10" s="51"/>
+      <c r="B10" s="150"/>
+      <c r="C10" t="s" s="193">
+        <v>54</v>
+      </c>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="119"/>
+      <c r="M10" s="119"/>
+      <c r="N10" s="119"/>
+      <c r="O10" s="120"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" t="s" s="194">
+        <v>45</v>
+      </c>
+      <c r="S10" s="6"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="62"/>
+      <c r="AC10" s="63"/>
+      <c r="AD10" s="62"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="64"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="65"/>
+      <c r="AJ10" s="56"/>
+    </row>
+    <row r="11" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A11" s="51"/>
+      <c r="B11" s="150"/>
+      <c r="C11" t="s" s="195">
+        <v>55</v>
+      </c>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="119"/>
+      <c r="L11" s="119"/>
+      <c r="M11" s="119"/>
+      <c r="N11" s="119"/>
+      <c r="O11" s="120"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" t="s" s="196">
+        <v>45</v>
+      </c>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="62"/>
+      <c r="Z11" s="62"/>
+      <c r="AA11" s="62"/>
+      <c r="AB11" s="62"/>
+      <c r="AC11" s="63"/>
+      <c r="AD11" s="62"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="64"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="65"/>
+      <c r="AJ11" s="56"/>
+    </row>
+    <row r="12" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A12" s="51"/>
+      <c r="B12" s="150"/>
+      <c r="C12" t="s" s="197">
+        <v>56</v>
+      </c>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="119"/>
+      <c r="K12" s="119"/>
+      <c r="L12" s="119"/>
+      <c r="M12" s="119"/>
+      <c r="N12" s="119"/>
+      <c r="O12" s="120"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" t="s" s="198">
+        <v>45</v>
+      </c>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="64"/>
+      <c r="AI12" s="65"/>
+      <c r="AJ12" s="56"/>
+    </row>
+    <row r="13" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A13" s="51"/>
+      <c r="B13" s="150"/>
+      <c r="C13" t="s" s="199">
+        <v>56</v>
+      </c>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="119"/>
+      <c r="L13" s="119"/>
+      <c r="M13" s="119"/>
+      <c r="N13" s="119"/>
+      <c r="O13" s="120"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" t="s" s="200">
+        <v>45</v>
+      </c>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="64"/>
+      <c r="AI13" s="65"/>
+      <c r="AJ13" s="56"/>
+    </row>
+    <row r="14" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A14" s="51"/>
+      <c r="B14" s="150"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="119"/>
+      <c r="K14" s="119"/>
+      <c r="L14" s="119"/>
+      <c r="M14" s="119"/>
+      <c r="N14" s="119"/>
+      <c r="O14" s="120"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="64"/>
+      <c r="AI14" s="65"/>
+      <c r="AJ14" s="56"/>
+    </row>
+    <row r="15" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A15" s="51"/>
+      <c r="B15" s="150"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="119"/>
+      <c r="J15" s="119"/>
+      <c r="K15" s="119"/>
+      <c r="L15" s="119"/>
+      <c r="M15" s="119"/>
+      <c r="N15" s="119"/>
+      <c r="O15" s="120"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="64"/>
+      <c r="AI15" s="65"/>
+      <c r="AJ15" s="56"/>
+    </row>
+    <row r="16" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A16" s="51"/>
+      <c r="B16" s="150"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="119"/>
+      <c r="J16" s="119"/>
+      <c r="K16" s="119"/>
+      <c r="L16" s="119"/>
+      <c r="M16" s="119"/>
+      <c r="N16" s="119"/>
+      <c r="O16" s="120"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="64"/>
+      <c r="AI16" s="65"/>
+      <c r="AJ16" s="56"/>
+    </row>
+    <row r="17" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A17" s="51"/>
+      <c r="B17" s="150"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="119"/>
+      <c r="I17" s="119"/>
+      <c r="J17" s="119"/>
+      <c r="K17" s="119"/>
+      <c r="L17" s="119"/>
+      <c r="M17" s="119"/>
+      <c r="N17" s="119"/>
+      <c r="O17" s="120"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="64"/>
+      <c r="AI17" s="65"/>
+      <c r="AJ17" s="56"/>
+    </row>
+    <row r="18" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A18" s="51"/>
+      <c r="B18" s="150"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="119"/>
+      <c r="J18" s="119"/>
+      <c r="K18" s="119"/>
+      <c r="L18" s="119"/>
+      <c r="M18" s="119"/>
+      <c r="N18" s="119"/>
+      <c r="O18" s="120"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="64"/>
+      <c r="AI18" s="65"/>
+      <c r="AJ18" s="56"/>
+    </row>
+    <row r="19" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A19" s="51"/>
+      <c r="B19" s="150"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="119"/>
+      <c r="J19" s="119"/>
+      <c r="K19" s="119"/>
+      <c r="L19" s="119"/>
+      <c r="M19" s="119"/>
+      <c r="N19" s="119"/>
+      <c r="O19" s="120"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="64"/>
+      <c r="AI19" s="65"/>
+      <c r="AJ19" s="56"/>
+    </row>
+    <row r="20" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A20" s="51"/>
+      <c r="B20" s="150"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="119"/>
+      <c r="J20" s="119"/>
+      <c r="K20" s="119"/>
+      <c r="L20" s="119"/>
+      <c r="M20" s="119"/>
+      <c r="N20" s="119"/>
+      <c r="O20" s="120"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="64"/>
+      <c r="AI20" s="65"/>
+      <c r="AJ20" s="56"/>
+    </row>
+    <row r="21" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A21" s="51"/>
+      <c r="B21" s="150"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="119"/>
+      <c r="J21" s="119"/>
+      <c r="K21" s="119"/>
+      <c r="L21" s="119"/>
+      <c r="M21" s="119"/>
+      <c r="N21" s="119"/>
+      <c r="O21" s="120"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="64"/>
+      <c r="AI21" s="65"/>
+      <c r="AJ21" s="56"/>
+    </row>
+    <row r="22" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A22" s="51"/>
+      <c r="B22" s="150"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="119"/>
+      <c r="J22" s="119"/>
+      <c r="K22" s="119"/>
+      <c r="L22" s="119"/>
+      <c r="M22" s="119"/>
+      <c r="N22" s="119"/>
+      <c r="O22" s="120"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="64"/>
+      <c r="AI22" s="65"/>
+      <c r="AJ22" s="56"/>
+    </row>
+    <row r="23" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A23" s="51"/>
+      <c r="B23" s="150"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="119"/>
+      <c r="H23" s="119"/>
+      <c r="I23" s="119"/>
+      <c r="J23" s="119"/>
+      <c r="K23" s="119"/>
+      <c r="L23" s="119"/>
+      <c r="M23" s="119"/>
+      <c r="N23" s="119"/>
+      <c r="O23" s="120"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="64"/>
+      <c r="AI23" s="65"/>
+      <c r="AJ23" s="56"/>
+    </row>
+    <row r="24" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A24" s="51"/>
+      <c r="B24" s="150"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="119"/>
+      <c r="H24" s="119"/>
+      <c r="I24" s="119"/>
+      <c r="J24" s="119"/>
+      <c r="K24" s="119"/>
+      <c r="L24" s="119"/>
+      <c r="M24" s="119"/>
+      <c r="N24" s="119"/>
+      <c r="O24" s="120"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="6"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="64"/>
+      <c r="AI24" s="65"/>
+      <c r="AJ24" s="56"/>
+    </row>
+    <row r="25" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A25" s="51"/>
+      <c r="B25" s="150"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="119"/>
+      <c r="H25" s="119"/>
+      <c r="I25" s="119"/>
+      <c r="J25" s="119"/>
+      <c r="K25" s="119"/>
+      <c r="L25" s="119"/>
+      <c r="M25" s="119"/>
+      <c r="N25" s="119"/>
+      <c r="O25" s="120"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="6"/>
+      <c r="AE25" s="6"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="64"/>
+      <c r="AI25" s="65"/>
+      <c r="AJ25" s="56"/>
+    </row>
+    <row r="26" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A26" s="51"/>
+      <c r="B26" s="150"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="67"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="16"/>
+      <c r="AC26" s="17"/>
+      <c r="AD26" s="67"/>
+      <c r="AE26" s="16"/>
+      <c r="AF26" s="16"/>
+      <c r="AG26" s="16"/>
+      <c r="AH26" s="68"/>
+      <c r="AI26" s="69"/>
+      <c r="AJ26" s="56"/>
+    </row>
+    <row r="27" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A27" s="51"/>
+      <c r="B27" t="s" s="149">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s" s="201">
+        <v>51</v>
+      </c>
+      <c r="D27" s="163"/>
+      <c r="E27" s="163"/>
+      <c r="F27" s="163"/>
+      <c r="G27" s="163"/>
+      <c r="H27" s="163"/>
+      <c r="I27" s="163"/>
+      <c r="J27" s="163"/>
+      <c r="K27" s="163"/>
+      <c r="L27" s="163"/>
+      <c r="M27" s="163"/>
+      <c r="N27" s="163"/>
+      <c r="O27" s="164"/>
+      <c r="P27" t="s" s="202">
+        <v>45</v>
+      </c>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="53"/>
+      <c r="AD27" s="54"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="52"/>
+      <c r="AI27" s="55"/>
+      <c r="AJ27" s="56"/>
+    </row>
+    <row r="28" spans="1:36" s="57" customFormat="1">
+      <c r="A28" s="51"/>
+      <c r="B28" s="150"/>
+      <c r="C28" t="s" s="203">
+        <v>51</v>
+      </c>
+      <c r="D28" s="116"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="116"/>
+      <c r="I28" s="116"/>
+      <c r="J28" s="116"/>
+      <c r="K28" s="116"/>
+      <c r="L28" s="116"/>
+      <c r="M28" s="116"/>
+      <c r="N28" s="116"/>
+      <c r="O28" s="117"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" t="s" s="204">
+        <v>45</v>
+      </c>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="7"/>
+      <c r="AC28" s="7"/>
+      <c r="AD28" s="7"/>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="62"/>
+      <c r="AG28" s="8"/>
+      <c r="AH28" s="64"/>
+      <c r="AI28" s="65"/>
+      <c r="AJ28" s="56"/>
+    </row>
+    <row r="29" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A29" s="51"/>
+      <c r="B29" s="150"/>
+      <c r="C29" t="s" s="205">
+        <v>51</v>
+      </c>
+      <c r="D29" s="116"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="116"/>
+      <c r="H29" s="116"/>
+      <c r="I29" s="116"/>
+      <c r="J29" s="116"/>
+      <c r="K29" s="116"/>
+      <c r="L29" s="116"/>
+      <c r="M29" s="116"/>
+      <c r="N29" s="116"/>
+      <c r="O29" s="117"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" t="s" s="206">
+        <v>45</v>
+      </c>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="62"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7"/>
+      <c r="AC29" s="7"/>
+      <c r="AD29" s="7"/>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="62"/>
+      <c r="AG29" s="18"/>
+      <c r="AH29" s="70"/>
+      <c r="AI29" s="71"/>
+      <c r="AJ29" s="56"/>
+    </row>
+    <row r="30" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A30" s="51"/>
+      <c r="B30" s="150"/>
+      <c r="C30" t="s" s="207">
+        <v>51</v>
+      </c>
+      <c r="D30" s="116"/>
+      <c r="E30" s="116"/>
+      <c r="F30" s="116"/>
+      <c r="G30" s="116"/>
+      <c r="H30" s="116"/>
+      <c r="I30" s="116"/>
+      <c r="J30" s="116"/>
+      <c r="K30" s="116"/>
+      <c r="L30" s="116"/>
+      <c r="M30" s="116"/>
+      <c r="N30" s="116"/>
+      <c r="O30" s="117"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="6"/>
+      <c r="S30" t="s" s="208">
+        <v>45</v>
+      </c>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="7"/>
+      <c r="AF30" s="62"/>
+      <c r="AG30" s="8"/>
+      <c r="AH30" s="64"/>
+      <c r="AI30" s="65"/>
+      <c r="AJ30" s="56"/>
+    </row>
+    <row r="31" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A31" s="51"/>
+      <c r="B31" s="150"/>
+      <c r="C31" t="s" s="209">
+        <v>51</v>
+      </c>
+      <c r="D31" s="116"/>
+      <c r="E31" s="116"/>
+      <c r="F31" s="116"/>
+      <c r="G31" s="116"/>
+      <c r="H31" s="116"/>
+      <c r="I31" s="116"/>
+      <c r="J31" s="116"/>
+      <c r="K31" s="116"/>
+      <c r="L31" s="116"/>
+      <c r="M31" s="116"/>
+      <c r="N31" s="116"/>
+      <c r="O31" s="117"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="6"/>
+      <c r="T31" t="s" s="210">
+        <v>45</v>
+      </c>
+      <c r="U31" s="21"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="22"/>
+      <c r="AD31" s="72"/>
+      <c r="AE31" s="8"/>
+      <c r="AF31" s="8"/>
+      <c r="AG31" s="8"/>
+      <c r="AH31" s="64"/>
+      <c r="AI31" s="65"/>
+      <c r="AJ31" s="56"/>
+    </row>
+    <row r="32" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A32" s="51"/>
+      <c r="B32" s="150"/>
+      <c r="C32" t="s" s="211">
+        <v>51</v>
+      </c>
+      <c r="D32" s="116"/>
+      <c r="E32" s="116"/>
+      <c r="F32" s="116"/>
+      <c r="G32" s="116"/>
+      <c r="H32" s="116"/>
+      <c r="I32" s="116"/>
+      <c r="J32" s="116"/>
+      <c r="K32" s="116"/>
+      <c r="L32" s="116"/>
+      <c r="M32" s="116"/>
+      <c r="N32" s="116"/>
+      <c r="O32" s="117"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="21"/>
+      <c r="U32" t="s" s="212">
+        <v>45</v>
+      </c>
+      <c r="V32" s="21"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="22"/>
+      <c r="AD32" s="72"/>
+      <c r="AE32" s="8"/>
+      <c r="AF32" s="8"/>
+      <c r="AG32" s="8"/>
+      <c r="AH32" s="64"/>
+      <c r="AI32" s="65"/>
+      <c r="AJ32" s="56"/>
+    </row>
+    <row r="33" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A33" s="51"/>
+      <c r="B33" s="150"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="116"/>
+      <c r="E33" s="116"/>
+      <c r="F33" s="116"/>
+      <c r="G33" s="116"/>
+      <c r="H33" s="116"/>
+      <c r="I33" s="116"/>
+      <c r="J33" s="116"/>
+      <c r="K33" s="116"/>
+      <c r="L33" s="116"/>
+      <c r="M33" s="116"/>
+      <c r="N33" s="116"/>
+      <c r="O33" s="117"/>
+      <c r="P33" s="112"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="18"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="18"/>
+      <c r="X33" s="18"/>
+      <c r="Y33" s="18"/>
+      <c r="Z33" s="18"/>
+      <c r="AA33" s="18"/>
+      <c r="AB33" s="18"/>
+      <c r="AC33" s="113"/>
+      <c r="AD33" s="114"/>
+      <c r="AE33" s="18"/>
+      <c r="AF33" s="18"/>
+      <c r="AG33" s="18"/>
+      <c r="AH33" s="70"/>
+      <c r="AI33" s="71"/>
+      <c r="AJ33" s="56"/>
+    </row>
+    <row r="34" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A34" s="51"/>
+      <c r="B34" s="150"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="116"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="116"/>
+      <c r="K34" s="116"/>
+      <c r="L34" s="116"/>
+      <c r="M34" s="116"/>
+      <c r="N34" s="116"/>
+      <c r="O34" s="117"/>
+      <c r="P34" s="112"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="21"/>
+      <c r="W34" s="18"/>
+      <c r="X34" s="18"/>
+      <c r="Y34" s="18"/>
+      <c r="Z34" s="18"/>
+      <c r="AA34" s="18"/>
+      <c r="AB34" s="18"/>
+      <c r="AC34" s="113"/>
+      <c r="AD34" s="114"/>
+      <c r="AE34" s="18"/>
+      <c r="AF34" s="18"/>
+      <c r="AG34" s="18"/>
+      <c r="AH34" s="70"/>
+      <c r="AI34" s="71"/>
+      <c r="AJ34" s="56"/>
+    </row>
+    <row r="35" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A35" s="51"/>
+      <c r="B35" s="150"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="116"/>
+      <c r="G35" s="116"/>
+      <c r="H35" s="116"/>
+      <c r="I35" s="116"/>
+      <c r="J35" s="116"/>
+      <c r="K35" s="116"/>
+      <c r="L35" s="116"/>
+      <c r="M35" s="116"/>
+      <c r="N35" s="116"/>
+      <c r="O35" s="117"/>
+      <c r="P35" s="112"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="18"/>
+      <c r="V35" s="21"/>
+      <c r="W35" s="18"/>
+      <c r="X35" s="18"/>
+      <c r="Y35" s="18"/>
+      <c r="Z35" s="18"/>
+      <c r="AA35" s="18"/>
+      <c r="AB35" s="18"/>
+      <c r="AC35" s="113"/>
+      <c r="AD35" s="114"/>
+      <c r="AE35" s="18"/>
+      <c r="AF35" s="18"/>
+      <c r="AG35" s="18"/>
+      <c r="AH35" s="70"/>
+      <c r="AI35" s="71"/>
+      <c r="AJ35" s="56"/>
+    </row>
+    <row r="36" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A36" s="51"/>
+      <c r="B36" s="150"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="116"/>
+      <c r="E36" s="116"/>
+      <c r="F36" s="116"/>
+      <c r="G36" s="116"/>
+      <c r="H36" s="116"/>
+      <c r="I36" s="116"/>
+      <c r="J36" s="116"/>
+      <c r="K36" s="116"/>
+      <c r="L36" s="116"/>
+      <c r="M36" s="116"/>
+      <c r="N36" s="116"/>
+      <c r="O36" s="117"/>
+      <c r="P36" s="112"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="21"/>
+      <c r="U36" s="18"/>
+      <c r="V36" s="21"/>
+      <c r="W36" s="18"/>
+      <c r="X36" s="18"/>
+      <c r="Y36" s="18"/>
+      <c r="Z36" s="18"/>
+      <c r="AA36" s="18"/>
+      <c r="AB36" s="18"/>
+      <c r="AC36" s="113"/>
+      <c r="AD36" s="114"/>
+      <c r="AE36" s="18"/>
+      <c r="AF36" s="18"/>
+      <c r="AG36" s="18"/>
+      <c r="AH36" s="70"/>
+      <c r="AI36" s="71"/>
+      <c r="AJ36" s="56"/>
+    </row>
+    <row r="37" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A37" s="51"/>
+      <c r="B37" s="150"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="116"/>
+      <c r="F37" s="116"/>
+      <c r="G37" s="116"/>
+      <c r="H37" s="116"/>
+      <c r="I37" s="116"/>
+      <c r="J37" s="116"/>
+      <c r="K37" s="116"/>
+      <c r="L37" s="116"/>
+      <c r="M37" s="116"/>
+      <c r="N37" s="116"/>
+      <c r="O37" s="117"/>
+      <c r="P37" s="112"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="21"/>
+      <c r="U37" s="18"/>
+      <c r="V37" s="21"/>
+      <c r="W37" s="18"/>
+      <c r="X37" s="18"/>
+      <c r="Y37" s="18"/>
+      <c r="Z37" s="18"/>
+      <c r="AA37" s="18"/>
+      <c r="AB37" s="18"/>
+      <c r="AC37" s="113"/>
+      <c r="AD37" s="114"/>
+      <c r="AE37" s="18"/>
+      <c r="AF37" s="18"/>
+      <c r="AG37" s="18"/>
+      <c r="AH37" s="70"/>
+      <c r="AI37" s="71"/>
+      <c r="AJ37" s="56"/>
+    </row>
+    <row r="38" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A38" s="51"/>
+      <c r="B38" s="150"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="116"/>
+      <c r="E38" s="116"/>
+      <c r="F38" s="116"/>
+      <c r="G38" s="116"/>
+      <c r="H38" s="116"/>
+      <c r="I38" s="116"/>
+      <c r="J38" s="116"/>
+      <c r="K38" s="116"/>
+      <c r="L38" s="116"/>
+      <c r="M38" s="116"/>
+      <c r="N38" s="116"/>
+      <c r="O38" s="117"/>
+      <c r="P38" s="112"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="21"/>
+      <c r="T38" s="21"/>
+      <c r="U38" s="18"/>
+      <c r="V38" s="21"/>
+      <c r="W38" s="18"/>
+      <c r="X38" s="18"/>
+      <c r="Y38" s="18"/>
+      <c r="Z38" s="18"/>
+      <c r="AA38" s="18"/>
+      <c r="AB38" s="18"/>
+      <c r="AC38" s="113"/>
+      <c r="AD38" s="114"/>
+      <c r="AE38" s="18"/>
+      <c r="AF38" s="18"/>
+      <c r="AG38" s="18"/>
+      <c r="AH38" s="70"/>
+      <c r="AI38" s="71"/>
+      <c r="AJ38" s="56"/>
+    </row>
+    <row r="39" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A39" s="51"/>
+      <c r="B39" s="150"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="116"/>
+      <c r="E39" s="116"/>
+      <c r="F39" s="116"/>
+      <c r="G39" s="116"/>
+      <c r="H39" s="116"/>
+      <c r="I39" s="116"/>
+      <c r="J39" s="116"/>
+      <c r="K39" s="116"/>
+      <c r="L39" s="116"/>
+      <c r="M39" s="116"/>
+      <c r="N39" s="116"/>
+      <c r="O39" s="117"/>
+      <c r="P39" s="112"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="21"/>
+      <c r="W39" s="18"/>
+      <c r="X39" s="18"/>
+      <c r="Y39" s="18"/>
+      <c r="Z39" s="18"/>
+      <c r="AA39" s="18"/>
+      <c r="AB39" s="18"/>
+      <c r="AC39" s="113"/>
+      <c r="AD39" s="114"/>
+      <c r="AE39" s="18"/>
+      <c r="AF39" s="18"/>
+      <c r="AG39" s="18"/>
+      <c r="AH39" s="70"/>
+      <c r="AI39" s="71"/>
+      <c r="AJ39" s="56"/>
+    </row>
+    <row r="40" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A40" s="51"/>
+      <c r="B40" s="151"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="74"/>
+      <c r="K40" s="74"/>
+      <c r="L40" s="74"/>
+      <c r="M40" s="74"/>
+      <c r="N40" s="74"/>
+      <c r="O40" s="75"/>
+      <c r="P40" s="76"/>
+      <c r="Q40" s="68"/>
+      <c r="R40" s="68"/>
+      <c r="S40" s="68"/>
+      <c r="T40" s="68"/>
+      <c r="U40" s="68"/>
+      <c r="V40" s="68"/>
+      <c r="W40" s="68"/>
+      <c r="X40" s="68"/>
+      <c r="Y40" s="68"/>
+      <c r="Z40" s="68"/>
+      <c r="AA40" s="68"/>
+      <c r="AB40" s="68"/>
+      <c r="AC40" s="77"/>
+      <c r="AD40" s="68"/>
+      <c r="AE40" s="68"/>
+      <c r="AF40" s="68"/>
+      <c r="AG40" s="68"/>
+      <c r="AH40" s="68"/>
+      <c r="AI40" s="69"/>
+      <c r="AJ40" s="56"/>
+    </row>
+    <row r="41" spans="1:36" ht="51" customHeight="1">
+      <c r="A41" s="45"/>
+      <c r="B41" s="78"/>
+      <c r="C41" t="s" s="79">
+        <v>15</v>
+      </c>
+      <c r="D41" s="79"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="79"/>
+      <c r="H41" s="79"/>
+      <c r="I41" s="79"/>
+      <c r="K41" s="79"/>
+      <c r="L41" s="79"/>
+      <c r="M41" s="79"/>
+      <c r="N41" s="79"/>
+      <c r="O41" s="80"/>
+      <c r="P41" s="81"/>
+      <c r="Q41" s="82"/>
+      <c r="R41" s="82"/>
+      <c r="S41" s="82"/>
+      <c r="T41" s="82"/>
+      <c r="U41" s="82"/>
+      <c r="V41" s="82"/>
+      <c r="W41" s="82"/>
+      <c r="X41" s="82"/>
+      <c r="Y41" s="82"/>
+      <c r="Z41" s="82"/>
+      <c r="AA41" s="82"/>
+      <c r="AB41" s="82"/>
+      <c r="AC41" s="83"/>
+      <c r="AD41" s="82"/>
+      <c r="AE41" s="82"/>
+      <c r="AF41" s="82"/>
+      <c r="AG41" s="82"/>
+      <c r="AH41" s="82"/>
+      <c r="AI41" s="84"/>
+      <c r="AJ41" s="44"/>
+    </row>
+    <row r="42" spans="1:36" ht="17.100000000000001" customHeight="1">
+      <c r="A42" s="45"/>
+      <c r="B42" s="85"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="86"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="86"/>
+      <c r="H42" s="86"/>
+      <c r="I42" s="86"/>
+      <c r="J42" s="86"/>
+      <c r="K42" s="86"/>
+      <c r="L42" s="86"/>
+      <c r="M42" s="86"/>
+      <c r="N42" s="87"/>
+      <c r="O42" t="s" s="88">
+        <v>18</v>
+      </c>
+      <c r="P42" s="89"/>
+      <c r="Q42" s="90"/>
+      <c r="R42" s="90"/>
+      <c r="S42" s="90"/>
+      <c r="T42" s="90"/>
+      <c r="U42" s="90"/>
+      <c r="V42" s="90"/>
+      <c r="W42" s="90"/>
+      <c r="X42" s="90"/>
+      <c r="Y42" s="90"/>
+      <c r="Z42" s="90"/>
+      <c r="AA42" s="90"/>
+      <c r="AB42" s="91"/>
+      <c r="AC42" s="92"/>
+      <c r="AD42" s="91"/>
+      <c r="AE42" s="91"/>
+      <c r="AF42" s="91"/>
+      <c r="AG42" s="91"/>
+      <c r="AH42" s="91"/>
+      <c r="AI42" s="93"/>
+      <c r="AJ42" s="44"/>
+    </row>
+    <row r="43" spans="1:36" ht="26.25" customHeight="1">
+      <c r="A43" s="45"/>
+      <c r="B43" t="s" s="94">
+        <v>19</v>
+      </c>
+      <c r="C43" s="95"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="95"/>
+      <c r="G43" s="95"/>
+      <c r="H43" s="95"/>
+      <c r="I43" s="95"/>
+      <c r="J43" s="95"/>
+      <c r="K43" s="95"/>
+      <c r="L43" s="95"/>
+      <c r="M43" s="95"/>
+      <c r="N43" s="96"/>
+      <c r="O43" t="s" s="88">
+        <v>20</v>
+      </c>
+      <c r="P43" s="97"/>
+      <c r="Q43" s="97"/>
+      <c r="R43" s="97"/>
+      <c r="S43" s="97"/>
+      <c r="T43" s="97"/>
+      <c r="U43" s="97"/>
+      <c r="V43" s="97"/>
+      <c r="W43" s="98"/>
+      <c r="X43" s="98"/>
+      <c r="Y43" s="98"/>
+      <c r="Z43" s="98"/>
+      <c r="AA43" s="98"/>
+      <c r="AB43" s="98"/>
+      <c r="AC43" s="99"/>
+      <c r="AD43" s="98"/>
+      <c r="AE43" s="98"/>
+      <c r="AF43" s="98"/>
+      <c r="AG43" s="98"/>
+      <c r="AH43" s="98"/>
+      <c r="AI43" s="98"/>
+      <c r="AJ43" s="44"/>
+    </row>
+    <row r="44" spans="1:36" ht="23.1" customHeight="1">
+      <c r="A44" s="45"/>
+      <c r="B44" s="47"/>
+      <c r="C44" t="s" s="47">
+        <v>21</v>
+      </c>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="100"/>
+      <c r="H44" s="100"/>
+      <c r="I44" s="100"/>
+      <c r="J44" s="100"/>
+      <c r="K44" s="100"/>
+      <c r="L44" s="100"/>
+      <c r="M44" s="100"/>
+      <c r="N44" s="100"/>
+      <c r="O44" s="101"/>
+      <c r="P44" t="s" s="102">
+        <v>22</v>
+      </c>
+      <c r="Q44" t="s" s="102">
+        <v>22</v>
+      </c>
+      <c r="R44" t="s" s="102">
+        <v>22</v>
+      </c>
+      <c r="S44" t="s" s="102">
+        <v>22</v>
+      </c>
+      <c r="T44" s="102"/>
+      <c r="U44" s="102"/>
+      <c r="V44" s="102"/>
+      <c r="W44" s="102"/>
+      <c r="X44" s="102"/>
+      <c r="Y44" s="102"/>
+      <c r="Z44" s="102"/>
+      <c r="AA44" s="102"/>
+      <c r="AB44" s="102"/>
+      <c r="AC44" s="102"/>
+      <c r="AD44" s="102"/>
+      <c r="AE44" s="102"/>
+      <c r="AF44" s="102"/>
+      <c r="AG44" s="102"/>
+      <c r="AH44" s="102"/>
+      <c r="AI44" s="102"/>
+      <c r="AJ44" s="44"/>
+    </row>
+    <row r="45" spans="1:36" ht="19.5" customHeight="1">
+      <c r="A45" s="45"/>
+      <c r="B45" t="s" s="96">
+        <v>23</v>
+      </c>
+      <c r="C45" s="96"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="96"/>
+      <c r="F45" s="96"/>
+      <c r="G45" s="96"/>
+      <c r="H45" s="96"/>
+      <c r="I45" s="96"/>
+      <c r="J45" s="96"/>
+      <c r="K45" s="96"/>
+      <c r="L45" s="96"/>
+      <c r="M45" s="96"/>
+      <c r="N45" s="96"/>
+      <c r="O45" s="103"/>
+      <c r="P45" s="57"/>
+      <c r="Q45" s="57"/>
+      <c r="R45" s="57"/>
+      <c r="S45" s="57"/>
+      <c r="T45" s="57"/>
+      <c r="U45" s="57"/>
+      <c r="V45" s="57"/>
+      <c r="W45" s="57"/>
+      <c r="X45" s="57"/>
+      <c r="Y45" t="s" s="155">
+        <v>24</v>
+      </c>
+      <c r="Z45" s="155"/>
+      <c r="AA45" s="155"/>
+      <c r="AB45" s="156"/>
+      <c r="AC45" s="156"/>
+      <c r="AD45" s="156"/>
+      <c r="AE45" s="156"/>
+      <c r="AF45" s="157"/>
+      <c r="AG45" s="157"/>
+      <c r="AH45" s="157"/>
+      <c r="AI45" s="157"/>
+      <c r="AJ45" s="44"/>
+    </row>
+    <row r="46" spans="1:36" ht="19.5" customHeight="1">
+      <c r="A46" s="45"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="34"/>
+      <c r="N46" s="34"/>
+      <c r="O46" s="104"/>
+      <c r="P46" s="105"/>
+      <c r="Q46" s="96"/>
+      <c r="R46" s="96"/>
+      <c r="S46" s="96"/>
+      <c r="T46" s="96"/>
+      <c r="U46" s="96"/>
+      <c r="V46" s="96"/>
+      <c r="W46" s="106"/>
+      <c r="X46" s="106"/>
+      <c r="Y46" t="s" s="155">
+        <v>25</v>
+      </c>
+      <c r="Z46" s="155"/>
+      <c r="AA46" s="155"/>
+      <c r="AB46" s="156"/>
+      <c r="AC46" s="156"/>
+      <c r="AD46" s="156"/>
+      <c r="AE46" s="156"/>
+      <c r="AF46" s="157"/>
+      <c r="AG46" s="157"/>
+      <c r="AH46" s="157"/>
+      <c r="AI46" s="157"/>
+      <c r="AJ46" s="44"/>
+    </row>
+    <row r="47" spans="1:36" ht="19.5" customHeight="1">
+      <c r="A47" s="45"/>
+      <c r="B47" s="107"/>
+      <c r="C47" s="108"/>
+      <c r="D47" s="108"/>
+      <c r="E47" s="108"/>
+      <c r="F47" s="108"/>
+      <c r="G47" s="108"/>
+      <c r="H47" s="108"/>
+      <c r="I47" s="108"/>
+      <c r="J47" s="108"/>
+      <c r="K47" s="108"/>
+      <c r="L47" s="108"/>
+      <c r="M47" s="108"/>
+      <c r="N47" s="108"/>
+      <c r="O47" s="109"/>
+      <c r="P47" s="107"/>
+      <c r="Q47" s="108"/>
+      <c r="R47" s="108"/>
+      <c r="S47" s="108"/>
+      <c r="T47" s="108"/>
+      <c r="U47" s="108"/>
+      <c r="V47" s="108"/>
+      <c r="W47" s="110"/>
+      <c r="X47" s="110"/>
+      <c r="Y47" t="s" s="155">
+        <v>26</v>
+      </c>
+      <c r="Z47" s="155"/>
+      <c r="AA47" s="155"/>
+      <c r="AB47" s="146"/>
+      <c r="AC47" s="147"/>
+      <c r="AD47" s="147"/>
+      <c r="AE47" s="148"/>
+      <c r="AF47" s="157"/>
+      <c r="AG47" s="157"/>
+      <c r="AH47" s="157"/>
+      <c r="AI47" s="157"/>
+      <c r="AJ47" s="44"/>
+    </row>
+    <row r="48" spans="1:36" ht="17.100000000000001" customHeight="1">
+      <c r="A48" s="45"/>
+      <c r="B48" s="107"/>
+      <c r="C48" t="s" s="108">
+        <v>27</v>
+      </c>
+      <c r="D48" s="108"/>
+      <c r="E48" s="108"/>
+      <c r="F48" s="108"/>
+      <c r="G48" s="108"/>
+      <c r="H48" s="108"/>
+      <c r="I48" s="108"/>
+      <c r="J48" s="108"/>
+      <c r="K48" s="108"/>
+      <c r="L48" s="108"/>
+      <c r="M48" s="108"/>
+      <c r="N48" s="108"/>
+      <c r="O48" s="108"/>
+      <c r="P48" s="108"/>
+      <c r="Q48" s="108"/>
+      <c r="R48" s="108"/>
+      <c r="S48" s="108"/>
+      <c r="T48" s="108"/>
+      <c r="U48" s="109"/>
+      <c r="V48" t="s" s="111">
+        <v>28</v>
+      </c>
+      <c r="W48" s="47"/>
+      <c r="X48" s="111"/>
+      <c r="Y48" s="100"/>
+      <c r="Z48" s="100"/>
+      <c r="AA48" s="101"/>
+      <c r="AB48" s="158">
+        <f>AG6</f>
+      </c>
+      <c r="AC48" s="159"/>
+      <c r="AD48" s="159"/>
+      <c r="AE48" t="s" s="147">
+        <v>29</v>
+      </c>
+      <c r="AF48" s="147"/>
+      <c r="AG48" s="160">
+        <f>AI6</f>
+      </c>
+      <c r="AH48" s="160"/>
+      <c r="AI48" s="161"/>
+      <c r="AJ48" s="44"/>
+    </row>
+    <row r="49" ht="6" customHeight="1"/>
+    <row r="50" ht="17.100000000000001" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="57">
+    <mergeCell ref="C38:O38"/>
+    <mergeCell ref="C39:O39"/>
+    <mergeCell ref="C33:O33"/>
+    <mergeCell ref="C34:O34"/>
+    <mergeCell ref="C35:O35"/>
+    <mergeCell ref="C36:O36"/>
+    <mergeCell ref="C37:O37"/>
+    <mergeCell ref="Y47:AA47"/>
+    <mergeCell ref="AB47:AE47"/>
+    <mergeCell ref="AF47:AI47"/>
+    <mergeCell ref="AB48:AD48"/>
+    <mergeCell ref="AE48:AF48"/>
+    <mergeCell ref="AG48:AI48"/>
+    <mergeCell ref="Y45:AA45"/>
+    <mergeCell ref="AB45:AE45"/>
+    <mergeCell ref="AF45:AI45"/>
+    <mergeCell ref="Y46:AA46"/>
+    <mergeCell ref="AB46:AE46"/>
+    <mergeCell ref="AF46:AI46"/>
+    <mergeCell ref="AA6:AF6"/>
+    <mergeCell ref="B8:B26"/>
+    <mergeCell ref="B27:B40"/>
+    <mergeCell ref="C8:O8"/>
+    <mergeCell ref="C9:O9"/>
+    <mergeCell ref="C10:O10"/>
+    <mergeCell ref="C11:O11"/>
+    <mergeCell ref="C12:O12"/>
+    <mergeCell ref="C13:O13"/>
+    <mergeCell ref="C14:O14"/>
+    <mergeCell ref="C15:O15"/>
+    <mergeCell ref="C16:O16"/>
+    <mergeCell ref="C17:O17"/>
+    <mergeCell ref="C18:O18"/>
+    <mergeCell ref="C19:O19"/>
+    <mergeCell ref="C20:O20"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:Z2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="P3:Z3"/>
+    <mergeCell ref="AA3:AC5"/>
+    <mergeCell ref="AD3:AF5"/>
+    <mergeCell ref="AG3:AI5"/>
+    <mergeCell ref="P4:Z4"/>
+    <mergeCell ref="P5:Z5"/>
+    <mergeCell ref="C21:O21"/>
+    <mergeCell ref="C22:O22"/>
+    <mergeCell ref="C23:O23"/>
+    <mergeCell ref="C24:O24"/>
+    <mergeCell ref="C25:O25"/>
+    <mergeCell ref="C32:O32"/>
+    <mergeCell ref="C27:O27"/>
+    <mergeCell ref="C28:O28"/>
+    <mergeCell ref="C29:O29"/>
+    <mergeCell ref="C30:O30"/>
+    <mergeCell ref="C31:O31"/>
+  </mergeCells>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <printOptions gridLinesSet="0"/>
+  <pageMargins left="0.39370078740157483" right="0" top="0.78740157480314965" bottom="0.39370078740157483" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;R〔規定番号〕ＳーＰ０４(Ｒｅｖ１.1)</oddHeader>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961F266A-B1EB-4F19-84A2-CD1F09B9F4D9}">
   <sheetPr codeName="Sheet1"/>
   <sheetViews>

--- a/backend/out.xlsx
+++ b/backend/out.xlsx
@@ -16,6 +16,9 @@
     <sheet name="M1" sheetId="3" r:id="rId1"/>
     <sheet name="M2" sheetId="4" r:id="rId15"/>
     <sheet name="M3" sheetId="5" r:id="rId16"/>
+    <sheet name="M4" sheetId="6" r:id="rId17"/>
+    <sheet name="M5" sheetId="7" r:id="rId18"/>
+    <sheet name="M6" sheetId="8" r:id="rId19"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -852,6 +855,51 @@
     <t xml:space="preserve">Information filled by users should remain intact when there is error message on page submit. User should be able to submit the form again by correcting the errors</t>
   </si>
   <si>
+    <t xml:space="preserve">Check if proper field labels are used in error messages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dropdown field values should be displayed in defined sort order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tab and Shift+Tab order should work properly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default radio options should be pre-selected on page load</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Field specific and page level help messages should be available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if correct fields are highlighted in case of errors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if dropdown list options are readable and not truncated due to field size limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All buttons on page should be accessible by keyboard shortcuts and user should be able to perform all operations using keyboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check all pages for broken images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check all pages for broken links</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All pages should have title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirmation messages should be displayed before performing any update or delete operation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hour glass should be displayed when application is busy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page text should be left justified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to select only one radio option and any combination for check boxes.</t>
+  </si>
+  <si>
     <t xml:space="preserve"/>
   </si>
 </sst>
@@ -1273,6 +1321,444 @@
       <family val="1"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills>
     <fill>
@@ -1365,6 +1851,123 @@
     <fill/>
     <fill/>
     <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
   </fills>
   <borders>
     <border>
@@ -2068,6 +2671,1014 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3467,6 +5078,294 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="66" fillId="51" borderId="105" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="52" borderId="106" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="53" borderId="107" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="54" borderId="108" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="55" borderId="109" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="56" borderId="110" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="57" borderId="111" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="58" borderId="112" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="59" borderId="113" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="60" borderId="114" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="61" borderId="115" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="62" borderId="116" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="63" borderId="117" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="64" borderId="118" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="65" borderId="119" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="66" borderId="120" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="67" borderId="121" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="68" borderId="122" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="69" borderId="123" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="70" borderId="124" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="71" borderId="125" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="72" borderId="126" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="73" borderId="127" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="74" borderId="128" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="75" borderId="129" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="76" borderId="130" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="77" borderId="131" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="78" borderId="132" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="79" borderId="133" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="80" borderId="134" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="81" borderId="135" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="82" borderId="136" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="83" borderId="137" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="84" borderId="138" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="85" borderId="139" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="86" borderId="140" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="87" borderId="141" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="88" borderId="142" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="89" borderId="143" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="90" borderId="144" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="91" borderId="145" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="92" borderId="146" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="93" borderId="147" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="94" borderId="148" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="95" borderId="149" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="96" borderId="150" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="97" borderId="151" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="98" borderId="152" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="99" borderId="153" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="100" borderId="154" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="101" borderId="155" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="102" borderId="156" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="103" borderId="157" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="104" borderId="158" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="105" borderId="159" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="106" borderId="160" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="107" borderId="161" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="108" borderId="162" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="109" borderId="163" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="110" borderId="164" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="111" borderId="165" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="112" borderId="166" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="113" borderId="167" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="114" borderId="168" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="115" borderId="169" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="116" borderId="170" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="117" borderId="171" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="118" borderId="172" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="119" borderId="173" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="120" borderId="174" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="121" borderId="175" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="122" borderId="176" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17391,7 +19290,7 @@
       <c r="A13" s="51"/>
       <c r="B13" s="150"/>
       <c r="C13" t="s" s="199">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D13" s="119"/>
       <c r="E13" s="119"/>
@@ -18894,6 +20793,5940 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961F266A-B1EB-4F19-84A2-CD1F09B9F4D9}">
+  <sheetPr codeName="Sheet1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:O30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.875" style="23" customWidth="1"/>
+    <col min="2" max="14" width="3.625" style="23" customWidth="1"/>
+    <col min="15" max="15" width="20.375" style="23" customWidth="1"/>
+    <col min="16" max="28" width="3.625" style="23" customWidth="1"/>
+    <col min="29" max="29" width="3.625" style="24" customWidth="1"/>
+    <col min="30" max="35" width="3.625" style="23" customWidth="1"/>
+    <col min="36" max="36" width="1.875" style="23" customWidth="1"/>
+    <col min="37" max="16384" width="9.875" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" ht="6" customHeight="1" thickBot="1"/>
+    <row r="2" spans="1:36" ht="18.95" customHeight="1" thickBot="1">
+      <c r="K2" t="s" s="25">
+        <v>0</v>
+      </c>
+      <c r="L2" s="25"/>
+      <c r="M2" s="139">
+        <v>1</v>
+      </c>
+      <c r="N2" s="140"/>
+      <c r="O2" s="26"/>
+      <c r="P2" t="s" s="141">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="142"/>
+      <c r="R2" s="142"/>
+      <c r="S2" s="142"/>
+      <c r="T2" s="142"/>
+      <c r="U2" s="142"/>
+      <c r="V2" s="142"/>
+      <c r="W2" s="142"/>
+      <c r="X2" s="142"/>
+      <c r="Y2" s="142"/>
+      <c r="Z2" s="143"/>
+      <c r="AA2" t="s" s="144">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="145"/>
+      <c r="AC2" s="140"/>
+      <c r="AD2" t="s" s="139">
+        <v>13</v>
+      </c>
+      <c r="AE2" s="145"/>
+      <c r="AF2" s="140"/>
+      <c r="AG2" t="s" s="139">
+        <v>14</v>
+      </c>
+      <c r="AH2" s="145"/>
+      <c r="AI2" s="140"/>
+    </row>
+    <row r="3" spans="1:36" ht="18.95" customHeight="1">
+      <c r="B3" s="27"/>
+      <c r="C3" t="s" s="28">
+        <v>3</v>
+      </c>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="32"/>
+      <c r="K3" t="s" s="33">
+        <v>4</v>
+      </c>
+      <c r="O3" s="34"/>
+      <c r="P3" s="121"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="122"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="122"/>
+      <c r="U3" s="122"/>
+      <c r="V3" s="122"/>
+      <c r="W3" s="122"/>
+      <c r="X3" s="122"/>
+      <c r="Y3" s="122"/>
+      <c r="Z3" s="123"/>
+      <c r="AA3" s="124"/>
+      <c r="AB3" s="125"/>
+      <c r="AC3" s="126"/>
+      <c r="AD3" s="124"/>
+      <c r="AE3" s="125"/>
+      <c r="AF3" s="126"/>
+      <c r="AG3" s="124"/>
+      <c r="AH3" s="125"/>
+      <c r="AI3" s="126"/>
+    </row>
+    <row r="4" spans="1:36" ht="24" customHeight="1" thickBot="1">
+      <c r="B4" s="35"/>
+      <c r="C4" t="s" s="36">
+        <v>5</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="38"/>
+      <c r="K4" t="s" s="33">
+        <v>6</v>
+      </c>
+      <c r="O4" s="34"/>
+      <c r="P4" s="133"/>
+      <c r="Q4" s="134"/>
+      <c r="R4" s="134"/>
+      <c r="S4" s="134"/>
+      <c r="T4" s="134"/>
+      <c r="U4" s="134"/>
+      <c r="V4" s="134"/>
+      <c r="W4" s="134"/>
+      <c r="X4" s="134"/>
+      <c r="Y4" s="134"/>
+      <c r="Z4" s="135"/>
+      <c r="AA4" s="127"/>
+      <c r="AB4" s="128"/>
+      <c r="AC4" s="129"/>
+      <c r="AD4" s="127"/>
+      <c r="AE4" s="128"/>
+      <c r="AF4" s="129"/>
+      <c r="AG4" s="127"/>
+      <c r="AH4" s="128"/>
+      <c r="AI4" s="129"/>
+    </row>
+    <row r="5" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
+      <c r="C5" s="39"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="33"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="136"/>
+      <c r="Q5" s="137"/>
+      <c r="R5" s="137"/>
+      <c r="S5" s="137"/>
+      <c r="T5" s="137"/>
+      <c r="U5" s="137"/>
+      <c r="V5" s="137"/>
+      <c r="W5" s="137"/>
+      <c r="X5" s="137"/>
+      <c r="Y5" s="137"/>
+      <c r="Z5" s="138"/>
+      <c r="AA5" s="130"/>
+      <c r="AB5" s="131"/>
+      <c r="AC5" s="132"/>
+      <c r="AD5" s="130"/>
+      <c r="AE5" s="131"/>
+      <c r="AF5" s="132"/>
+      <c r="AG5" s="130"/>
+      <c r="AH5" s="131"/>
+      <c r="AI5" s="132"/>
+    </row>
+    <row r="6" spans="1:36" ht="21" customHeight="1">
+      <c r="AA6" t="s" s="146">
+        <v>7</v>
+      </c>
+      <c r="AB6" s="147"/>
+      <c r="AC6" s="147"/>
+      <c r="AD6" s="147"/>
+      <c r="AE6" s="147"/>
+      <c r="AF6" s="148"/>
+      <c r="AG6" s="41">
+        <v>1</v>
+      </c>
+      <c r="AH6" t="s" s="42">
+        <v>8</v>
+      </c>
+      <c r="AI6" s="43">
+        <v>18</v>
+      </c>
+      <c r="AJ6" s="44"/>
+    </row>
+    <row r="7" spans="1:36" ht="99.6" customHeight="1">
+      <c r="A7" s="45"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="48"/>
+      <c r="P7" t="s" s="49">
+        <v>9</v>
+      </c>
+      <c r="Q7" t="s" s="49">
+        <v>10</v>
+      </c>
+      <c r="R7" t="s" s="49">
+        <v>11</v>
+      </c>
+      <c r="S7" t="s" s="49">
+        <v>12</v>
+      </c>
+      <c r="T7" t="s" s="49">
+        <v>30</v>
+      </c>
+      <c r="U7" t="s" s="49">
+        <v>31</v>
+      </c>
+      <c r="V7" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="W7" t="s" s="49">
+        <v>33</v>
+      </c>
+      <c r="X7" t="s" s="49">
+        <v>34</v>
+      </c>
+      <c r="Y7" t="s" s="49">
+        <v>35</v>
+      </c>
+      <c r="Z7" t="s" s="49">
+        <v>36</v>
+      </c>
+      <c r="AA7" t="s" s="49">
+        <v>37</v>
+      </c>
+      <c r="AB7" t="s" s="49">
+        <v>38</v>
+      </c>
+      <c r="AC7" t="s" s="49">
+        <v>39</v>
+      </c>
+      <c r="AD7" t="s" s="49">
+        <v>40</v>
+      </c>
+      <c r="AE7" t="s" s="49">
+        <v>41</v>
+      </c>
+      <c r="AF7" t="s" s="49">
+        <v>42</v>
+      </c>
+      <c r="AG7" t="s" s="49">
+        <v>43</v>
+      </c>
+      <c r="AH7" s="50"/>
+      <c r="AI7" s="50"/>
+      <c r="AJ7" s="44"/>
+    </row>
+    <row r="8" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A8" s="51"/>
+      <c r="B8" t="s" s="149">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s" s="213">
+        <v>58</v>
+      </c>
+      <c r="D8" s="153"/>
+      <c r="E8" s="153"/>
+      <c r="F8" s="153"/>
+      <c r="G8" s="153"/>
+      <c r="H8" s="153"/>
+      <c r="I8" s="153"/>
+      <c r="J8" s="153"/>
+      <c r="K8" s="153"/>
+      <c r="L8" s="153"/>
+      <c r="M8" s="153"/>
+      <c r="N8" s="153"/>
+      <c r="O8" s="154"/>
+      <c r="P8" t="s" s="214">
+        <v>45</v>
+      </c>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="52"/>
+      <c r="AC8" s="53"/>
+      <c r="AD8" s="54"/>
+      <c r="AE8" s="52"/>
+      <c r="AF8" s="52"/>
+      <c r="AG8" s="52"/>
+      <c r="AH8" s="52"/>
+      <c r="AI8" s="55"/>
+      <c r="AJ8" s="56"/>
+    </row>
+    <row r="9" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A9" s="51"/>
+      <c r="B9" s="150"/>
+      <c r="C9" t="s" s="215">
+        <v>59</v>
+      </c>
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="119"/>
+      <c r="M9" s="119"/>
+      <c r="N9" s="119"/>
+      <c r="O9" s="120"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" t="s" s="216">
+        <v>45</v>
+      </c>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="58"/>
+      <c r="AC9" s="59"/>
+      <c r="AD9" s="60"/>
+      <c r="AE9" s="58"/>
+      <c r="AF9" s="58"/>
+      <c r="AG9" s="58"/>
+      <c r="AH9" s="58"/>
+      <c r="AI9" s="61"/>
+      <c r="AJ9" s="56"/>
+    </row>
+    <row r="10" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A10" s="51"/>
+      <c r="B10" s="150"/>
+      <c r="C10" t="s" s="217">
+        <v>60</v>
+      </c>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="119"/>
+      <c r="M10" s="119"/>
+      <c r="N10" s="119"/>
+      <c r="O10" s="120"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" t="s" s="218">
+        <v>45</v>
+      </c>
+      <c r="S10" s="6"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="62"/>
+      <c r="AC10" s="63"/>
+      <c r="AD10" s="62"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="64"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="65"/>
+      <c r="AJ10" s="56"/>
+    </row>
+    <row r="11" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A11" s="51"/>
+      <c r="B11" s="150"/>
+      <c r="C11" t="s" s="219">
+        <v>61</v>
+      </c>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="119"/>
+      <c r="L11" s="119"/>
+      <c r="M11" s="119"/>
+      <c r="N11" s="119"/>
+      <c r="O11" s="120"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" t="s" s="220">
+        <v>45</v>
+      </c>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="62"/>
+      <c r="Z11" s="62"/>
+      <c r="AA11" s="62"/>
+      <c r="AB11" s="62"/>
+      <c r="AC11" s="63"/>
+      <c r="AD11" s="62"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="64"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="65"/>
+      <c r="AJ11" s="56"/>
+    </row>
+    <row r="12" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A12" s="51"/>
+      <c r="B12" s="150"/>
+      <c r="C12" t="s" s="221">
+        <v>62</v>
+      </c>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="119"/>
+      <c r="K12" s="119"/>
+      <c r="L12" s="119"/>
+      <c r="M12" s="119"/>
+      <c r="N12" s="119"/>
+      <c r="O12" s="120"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" t="s" s="222">
+        <v>45</v>
+      </c>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="64"/>
+      <c r="AI12" s="65"/>
+      <c r="AJ12" s="56"/>
+    </row>
+    <row r="13" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A13" s="51"/>
+      <c r="B13" s="150"/>
+      <c r="C13" t="s" s="223">
+        <v>63</v>
+      </c>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="119"/>
+      <c r="L13" s="119"/>
+      <c r="M13" s="119"/>
+      <c r="N13" s="119"/>
+      <c r="O13" s="120"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" t="s" s="224">
+        <v>45</v>
+      </c>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="64"/>
+      <c r="AI13" s="65"/>
+      <c r="AJ13" s="56"/>
+    </row>
+    <row r="14" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A14" s="51"/>
+      <c r="B14" s="150"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="119"/>
+      <c r="K14" s="119"/>
+      <c r="L14" s="119"/>
+      <c r="M14" s="119"/>
+      <c r="N14" s="119"/>
+      <c r="O14" s="120"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="64"/>
+      <c r="AI14" s="65"/>
+      <c r="AJ14" s="56"/>
+    </row>
+    <row r="15" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A15" s="51"/>
+      <c r="B15" s="150"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="119"/>
+      <c r="J15" s="119"/>
+      <c r="K15" s="119"/>
+      <c r="L15" s="119"/>
+      <c r="M15" s="119"/>
+      <c r="N15" s="119"/>
+      <c r="O15" s="120"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="64"/>
+      <c r="AI15" s="65"/>
+      <c r="AJ15" s="56"/>
+    </row>
+    <row r="16" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A16" s="51"/>
+      <c r="B16" s="150"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="119"/>
+      <c r="J16" s="119"/>
+      <c r="K16" s="119"/>
+      <c r="L16" s="119"/>
+      <c r="M16" s="119"/>
+      <c r="N16" s="119"/>
+      <c r="O16" s="120"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="64"/>
+      <c r="AI16" s="65"/>
+      <c r="AJ16" s="56"/>
+    </row>
+    <row r="17" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A17" s="51"/>
+      <c r="B17" s="150"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="119"/>
+      <c r="I17" s="119"/>
+      <c r="J17" s="119"/>
+      <c r="K17" s="119"/>
+      <c r="L17" s="119"/>
+      <c r="M17" s="119"/>
+      <c r="N17" s="119"/>
+      <c r="O17" s="120"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="64"/>
+      <c r="AI17" s="65"/>
+      <c r="AJ17" s="56"/>
+    </row>
+    <row r="18" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A18" s="51"/>
+      <c r="B18" s="150"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="119"/>
+      <c r="J18" s="119"/>
+      <c r="K18" s="119"/>
+      <c r="L18" s="119"/>
+      <c r="M18" s="119"/>
+      <c r="N18" s="119"/>
+      <c r="O18" s="120"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="64"/>
+      <c r="AI18" s="65"/>
+      <c r="AJ18" s="56"/>
+    </row>
+    <row r="19" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A19" s="51"/>
+      <c r="B19" s="150"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="119"/>
+      <c r="J19" s="119"/>
+      <c r="K19" s="119"/>
+      <c r="L19" s="119"/>
+      <c r="M19" s="119"/>
+      <c r="N19" s="119"/>
+      <c r="O19" s="120"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="64"/>
+      <c r="AI19" s="65"/>
+      <c r="AJ19" s="56"/>
+    </row>
+    <row r="20" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A20" s="51"/>
+      <c r="B20" s="150"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="119"/>
+      <c r="J20" s="119"/>
+      <c r="K20" s="119"/>
+      <c r="L20" s="119"/>
+      <c r="M20" s="119"/>
+      <c r="N20" s="119"/>
+      <c r="O20" s="120"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="64"/>
+      <c r="AI20" s="65"/>
+      <c r="AJ20" s="56"/>
+    </row>
+    <row r="21" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A21" s="51"/>
+      <c r="B21" s="150"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="119"/>
+      <c r="J21" s="119"/>
+      <c r="K21" s="119"/>
+      <c r="L21" s="119"/>
+      <c r="M21" s="119"/>
+      <c r="N21" s="119"/>
+      <c r="O21" s="120"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="64"/>
+      <c r="AI21" s="65"/>
+      <c r="AJ21" s="56"/>
+    </row>
+    <row r="22" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A22" s="51"/>
+      <c r="B22" s="150"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="119"/>
+      <c r="J22" s="119"/>
+      <c r="K22" s="119"/>
+      <c r="L22" s="119"/>
+      <c r="M22" s="119"/>
+      <c r="N22" s="119"/>
+      <c r="O22" s="120"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="64"/>
+      <c r="AI22" s="65"/>
+      <c r="AJ22" s="56"/>
+    </row>
+    <row r="23" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A23" s="51"/>
+      <c r="B23" s="150"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="119"/>
+      <c r="H23" s="119"/>
+      <c r="I23" s="119"/>
+      <c r="J23" s="119"/>
+      <c r="K23" s="119"/>
+      <c r="L23" s="119"/>
+      <c r="M23" s="119"/>
+      <c r="N23" s="119"/>
+      <c r="O23" s="120"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="64"/>
+      <c r="AI23" s="65"/>
+      <c r="AJ23" s="56"/>
+    </row>
+    <row r="24" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A24" s="51"/>
+      <c r="B24" s="150"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="119"/>
+      <c r="H24" s="119"/>
+      <c r="I24" s="119"/>
+      <c r="J24" s="119"/>
+      <c r="K24" s="119"/>
+      <c r="L24" s="119"/>
+      <c r="M24" s="119"/>
+      <c r="N24" s="119"/>
+      <c r="O24" s="120"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="6"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="64"/>
+      <c r="AI24" s="65"/>
+      <c r="AJ24" s="56"/>
+    </row>
+    <row r="25" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A25" s="51"/>
+      <c r="B25" s="150"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="119"/>
+      <c r="H25" s="119"/>
+      <c r="I25" s="119"/>
+      <c r="J25" s="119"/>
+      <c r="K25" s="119"/>
+      <c r="L25" s="119"/>
+      <c r="M25" s="119"/>
+      <c r="N25" s="119"/>
+      <c r="O25" s="120"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="6"/>
+      <c r="AE25" s="6"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="64"/>
+      <c r="AI25" s="65"/>
+      <c r="AJ25" s="56"/>
+    </row>
+    <row r="26" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A26" s="51"/>
+      <c r="B26" s="150"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="67"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="16"/>
+      <c r="AC26" s="17"/>
+      <c r="AD26" s="67"/>
+      <c r="AE26" s="16"/>
+      <c r="AF26" s="16"/>
+      <c r="AG26" s="16"/>
+      <c r="AH26" s="68"/>
+      <c r="AI26" s="69"/>
+      <c r="AJ26" s="56"/>
+    </row>
+    <row r="27" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A27" s="51"/>
+      <c r="B27" t="s" s="149">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s" s="225">
+        <v>51</v>
+      </c>
+      <c r="D27" s="163"/>
+      <c r="E27" s="163"/>
+      <c r="F27" s="163"/>
+      <c r="G27" s="163"/>
+      <c r="H27" s="163"/>
+      <c r="I27" s="163"/>
+      <c r="J27" s="163"/>
+      <c r="K27" s="163"/>
+      <c r="L27" s="163"/>
+      <c r="M27" s="163"/>
+      <c r="N27" s="163"/>
+      <c r="O27" s="164"/>
+      <c r="P27" t="s" s="226">
+        <v>45</v>
+      </c>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="53"/>
+      <c r="AD27" s="54"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="52"/>
+      <c r="AI27" s="55"/>
+      <c r="AJ27" s="56"/>
+    </row>
+    <row r="28" spans="1:36" s="57" customFormat="1">
+      <c r="A28" s="51"/>
+      <c r="B28" s="150"/>
+      <c r="C28" t="s" s="227">
+        <v>51</v>
+      </c>
+      <c r="D28" s="116"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="116"/>
+      <c r="I28" s="116"/>
+      <c r="J28" s="116"/>
+      <c r="K28" s="116"/>
+      <c r="L28" s="116"/>
+      <c r="M28" s="116"/>
+      <c r="N28" s="116"/>
+      <c r="O28" s="117"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" t="s" s="228">
+        <v>45</v>
+      </c>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="7"/>
+      <c r="AC28" s="7"/>
+      <c r="AD28" s="7"/>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="62"/>
+      <c r="AG28" s="8"/>
+      <c r="AH28" s="64"/>
+      <c r="AI28" s="65"/>
+      <c r="AJ28" s="56"/>
+    </row>
+    <row r="29" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A29" s="51"/>
+      <c r="B29" s="150"/>
+      <c r="C29" t="s" s="229">
+        <v>51</v>
+      </c>
+      <c r="D29" s="116"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="116"/>
+      <c r="H29" s="116"/>
+      <c r="I29" s="116"/>
+      <c r="J29" s="116"/>
+      <c r="K29" s="116"/>
+      <c r="L29" s="116"/>
+      <c r="M29" s="116"/>
+      <c r="N29" s="116"/>
+      <c r="O29" s="117"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" t="s" s="230">
+        <v>45</v>
+      </c>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="62"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7"/>
+      <c r="AC29" s="7"/>
+      <c r="AD29" s="7"/>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="62"/>
+      <c r="AG29" s="18"/>
+      <c r="AH29" s="70"/>
+      <c r="AI29" s="71"/>
+      <c r="AJ29" s="56"/>
+    </row>
+    <row r="30" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A30" s="51"/>
+      <c r="B30" s="150"/>
+      <c r="C30" t="s" s="231">
+        <v>51</v>
+      </c>
+      <c r="D30" s="116"/>
+      <c r="E30" s="116"/>
+      <c r="F30" s="116"/>
+      <c r="G30" s="116"/>
+      <c r="H30" s="116"/>
+      <c r="I30" s="116"/>
+      <c r="J30" s="116"/>
+      <c r="K30" s="116"/>
+      <c r="L30" s="116"/>
+      <c r="M30" s="116"/>
+      <c r="N30" s="116"/>
+      <c r="O30" s="117"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="6"/>
+      <c r="S30" t="s" s="232">
+        <v>45</v>
+      </c>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="7"/>
+      <c r="AF30" s="62"/>
+      <c r="AG30" s="8"/>
+      <c r="AH30" s="64"/>
+      <c r="AI30" s="65"/>
+      <c r="AJ30" s="56"/>
+    </row>
+    <row r="31" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A31" s="51"/>
+      <c r="B31" s="150"/>
+      <c r="C31" t="s" s="233">
+        <v>51</v>
+      </c>
+      <c r="D31" s="116"/>
+      <c r="E31" s="116"/>
+      <c r="F31" s="116"/>
+      <c r="G31" s="116"/>
+      <c r="H31" s="116"/>
+      <c r="I31" s="116"/>
+      <c r="J31" s="116"/>
+      <c r="K31" s="116"/>
+      <c r="L31" s="116"/>
+      <c r="M31" s="116"/>
+      <c r="N31" s="116"/>
+      <c r="O31" s="117"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="6"/>
+      <c r="T31" t="s" s="234">
+        <v>45</v>
+      </c>
+      <c r="U31" s="21"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="22"/>
+      <c r="AD31" s="72"/>
+      <c r="AE31" s="8"/>
+      <c r="AF31" s="8"/>
+      <c r="AG31" s="8"/>
+      <c r="AH31" s="64"/>
+      <c r="AI31" s="65"/>
+      <c r="AJ31" s="56"/>
+    </row>
+    <row r="32" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A32" s="51"/>
+      <c r="B32" s="150"/>
+      <c r="C32" t="s" s="235">
+        <v>51</v>
+      </c>
+      <c r="D32" s="116"/>
+      <c r="E32" s="116"/>
+      <c r="F32" s="116"/>
+      <c r="G32" s="116"/>
+      <c r="H32" s="116"/>
+      <c r="I32" s="116"/>
+      <c r="J32" s="116"/>
+      <c r="K32" s="116"/>
+      <c r="L32" s="116"/>
+      <c r="M32" s="116"/>
+      <c r="N32" s="116"/>
+      <c r="O32" s="117"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="21"/>
+      <c r="U32" t="s" s="236">
+        <v>45</v>
+      </c>
+      <c r="V32" s="21"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="22"/>
+      <c r="AD32" s="72"/>
+      <c r="AE32" s="8"/>
+      <c r="AF32" s="8"/>
+      <c r="AG32" s="8"/>
+      <c r="AH32" s="64"/>
+      <c r="AI32" s="65"/>
+      <c r="AJ32" s="56"/>
+    </row>
+    <row r="33" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A33" s="51"/>
+      <c r="B33" s="150"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="116"/>
+      <c r="E33" s="116"/>
+      <c r="F33" s="116"/>
+      <c r="G33" s="116"/>
+      <c r="H33" s="116"/>
+      <c r="I33" s="116"/>
+      <c r="J33" s="116"/>
+      <c r="K33" s="116"/>
+      <c r="L33" s="116"/>
+      <c r="M33" s="116"/>
+      <c r="N33" s="116"/>
+      <c r="O33" s="117"/>
+      <c r="P33" s="112"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="18"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="18"/>
+      <c r="X33" s="18"/>
+      <c r="Y33" s="18"/>
+      <c r="Z33" s="18"/>
+      <c r="AA33" s="18"/>
+      <c r="AB33" s="18"/>
+      <c r="AC33" s="113"/>
+      <c r="AD33" s="114"/>
+      <c r="AE33" s="18"/>
+      <c r="AF33" s="18"/>
+      <c r="AG33" s="18"/>
+      <c r="AH33" s="70"/>
+      <c r="AI33" s="71"/>
+      <c r="AJ33" s="56"/>
+    </row>
+    <row r="34" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A34" s="51"/>
+      <c r="B34" s="150"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="116"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="116"/>
+      <c r="K34" s="116"/>
+      <c r="L34" s="116"/>
+      <c r="M34" s="116"/>
+      <c r="N34" s="116"/>
+      <c r="O34" s="117"/>
+      <c r="P34" s="112"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="21"/>
+      <c r="W34" s="18"/>
+      <c r="X34" s="18"/>
+      <c r="Y34" s="18"/>
+      <c r="Z34" s="18"/>
+      <c r="AA34" s="18"/>
+      <c r="AB34" s="18"/>
+      <c r="AC34" s="113"/>
+      <c r="AD34" s="114"/>
+      <c r="AE34" s="18"/>
+      <c r="AF34" s="18"/>
+      <c r="AG34" s="18"/>
+      <c r="AH34" s="70"/>
+      <c r="AI34" s="71"/>
+      <c r="AJ34" s="56"/>
+    </row>
+    <row r="35" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A35" s="51"/>
+      <c r="B35" s="150"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="116"/>
+      <c r="G35" s="116"/>
+      <c r="H35" s="116"/>
+      <c r="I35" s="116"/>
+      <c r="J35" s="116"/>
+      <c r="K35" s="116"/>
+      <c r="L35" s="116"/>
+      <c r="M35" s="116"/>
+      <c r="N35" s="116"/>
+      <c r="O35" s="117"/>
+      <c r="P35" s="112"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="18"/>
+      <c r="V35" s="21"/>
+      <c r="W35" s="18"/>
+      <c r="X35" s="18"/>
+      <c r="Y35" s="18"/>
+      <c r="Z35" s="18"/>
+      <c r="AA35" s="18"/>
+      <c r="AB35" s="18"/>
+      <c r="AC35" s="113"/>
+      <c r="AD35" s="114"/>
+      <c r="AE35" s="18"/>
+      <c r="AF35" s="18"/>
+      <c r="AG35" s="18"/>
+      <c r="AH35" s="70"/>
+      <c r="AI35" s="71"/>
+      <c r="AJ35" s="56"/>
+    </row>
+    <row r="36" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A36" s="51"/>
+      <c r="B36" s="150"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="116"/>
+      <c r="E36" s="116"/>
+      <c r="F36" s="116"/>
+      <c r="G36" s="116"/>
+      <c r="H36" s="116"/>
+      <c r="I36" s="116"/>
+      <c r="J36" s="116"/>
+      <c r="K36" s="116"/>
+      <c r="L36" s="116"/>
+      <c r="M36" s="116"/>
+      <c r="N36" s="116"/>
+      <c r="O36" s="117"/>
+      <c r="P36" s="112"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="21"/>
+      <c r="U36" s="18"/>
+      <c r="V36" s="21"/>
+      <c r="W36" s="18"/>
+      <c r="X36" s="18"/>
+      <c r="Y36" s="18"/>
+      <c r="Z36" s="18"/>
+      <c r="AA36" s="18"/>
+      <c r="AB36" s="18"/>
+      <c r="AC36" s="113"/>
+      <c r="AD36" s="114"/>
+      <c r="AE36" s="18"/>
+      <c r="AF36" s="18"/>
+      <c r="AG36" s="18"/>
+      <c r="AH36" s="70"/>
+      <c r="AI36" s="71"/>
+      <c r="AJ36" s="56"/>
+    </row>
+    <row r="37" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A37" s="51"/>
+      <c r="B37" s="150"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="116"/>
+      <c r="F37" s="116"/>
+      <c r="G37" s="116"/>
+      <c r="H37" s="116"/>
+      <c r="I37" s="116"/>
+      <c r="J37" s="116"/>
+      <c r="K37" s="116"/>
+      <c r="L37" s="116"/>
+      <c r="M37" s="116"/>
+      <c r="N37" s="116"/>
+      <c r="O37" s="117"/>
+      <c r="P37" s="112"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="21"/>
+      <c r="U37" s="18"/>
+      <c r="V37" s="21"/>
+      <c r="W37" s="18"/>
+      <c r="X37" s="18"/>
+      <c r="Y37" s="18"/>
+      <c r="Z37" s="18"/>
+      <c r="AA37" s="18"/>
+      <c r="AB37" s="18"/>
+      <c r="AC37" s="113"/>
+      <c r="AD37" s="114"/>
+      <c r="AE37" s="18"/>
+      <c r="AF37" s="18"/>
+      <c r="AG37" s="18"/>
+      <c r="AH37" s="70"/>
+      <c r="AI37" s="71"/>
+      <c r="AJ37" s="56"/>
+    </row>
+    <row r="38" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A38" s="51"/>
+      <c r="B38" s="150"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="116"/>
+      <c r="E38" s="116"/>
+      <c r="F38" s="116"/>
+      <c r="G38" s="116"/>
+      <c r="H38" s="116"/>
+      <c r="I38" s="116"/>
+      <c r="J38" s="116"/>
+      <c r="K38" s="116"/>
+      <c r="L38" s="116"/>
+      <c r="M38" s="116"/>
+      <c r="N38" s="116"/>
+      <c r="O38" s="117"/>
+      <c r="P38" s="112"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="21"/>
+      <c r="T38" s="21"/>
+      <c r="U38" s="18"/>
+      <c r="V38" s="21"/>
+      <c r="W38" s="18"/>
+      <c r="X38" s="18"/>
+      <c r="Y38" s="18"/>
+      <c r="Z38" s="18"/>
+      <c r="AA38" s="18"/>
+      <c r="AB38" s="18"/>
+      <c r="AC38" s="113"/>
+      <c r="AD38" s="114"/>
+      <c r="AE38" s="18"/>
+      <c r="AF38" s="18"/>
+      <c r="AG38" s="18"/>
+      <c r="AH38" s="70"/>
+      <c r="AI38" s="71"/>
+      <c r="AJ38" s="56"/>
+    </row>
+    <row r="39" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A39" s="51"/>
+      <c r="B39" s="150"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="116"/>
+      <c r="E39" s="116"/>
+      <c r="F39" s="116"/>
+      <c r="G39" s="116"/>
+      <c r="H39" s="116"/>
+      <c r="I39" s="116"/>
+      <c r="J39" s="116"/>
+      <c r="K39" s="116"/>
+      <c r="L39" s="116"/>
+      <c r="M39" s="116"/>
+      <c r="N39" s="116"/>
+      <c r="O39" s="117"/>
+      <c r="P39" s="112"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="21"/>
+      <c r="W39" s="18"/>
+      <c r="X39" s="18"/>
+      <c r="Y39" s="18"/>
+      <c r="Z39" s="18"/>
+      <c r="AA39" s="18"/>
+      <c r="AB39" s="18"/>
+      <c r="AC39" s="113"/>
+      <c r="AD39" s="114"/>
+      <c r="AE39" s="18"/>
+      <c r="AF39" s="18"/>
+      <c r="AG39" s="18"/>
+      <c r="AH39" s="70"/>
+      <c r="AI39" s="71"/>
+      <c r="AJ39" s="56"/>
+    </row>
+    <row r="40" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A40" s="51"/>
+      <c r="B40" s="151"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="74"/>
+      <c r="K40" s="74"/>
+      <c r="L40" s="74"/>
+      <c r="M40" s="74"/>
+      <c r="N40" s="74"/>
+      <c r="O40" s="75"/>
+      <c r="P40" s="76"/>
+      <c r="Q40" s="68"/>
+      <c r="R40" s="68"/>
+      <c r="S40" s="68"/>
+      <c r="T40" s="68"/>
+      <c r="U40" s="68"/>
+      <c r="V40" s="68"/>
+      <c r="W40" s="68"/>
+      <c r="X40" s="68"/>
+      <c r="Y40" s="68"/>
+      <c r="Z40" s="68"/>
+      <c r="AA40" s="68"/>
+      <c r="AB40" s="68"/>
+      <c r="AC40" s="77"/>
+      <c r="AD40" s="68"/>
+      <c r="AE40" s="68"/>
+      <c r="AF40" s="68"/>
+      <c r="AG40" s="68"/>
+      <c r="AH40" s="68"/>
+      <c r="AI40" s="69"/>
+      <c r="AJ40" s="56"/>
+    </row>
+    <row r="41" spans="1:36" ht="51" customHeight="1">
+      <c r="A41" s="45"/>
+      <c r="B41" s="78"/>
+      <c r="C41" t="s" s="79">
+        <v>15</v>
+      </c>
+      <c r="D41" s="79"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="79"/>
+      <c r="H41" s="79"/>
+      <c r="I41" s="79"/>
+      <c r="K41" s="79"/>
+      <c r="L41" s="79"/>
+      <c r="M41" s="79"/>
+      <c r="N41" s="79"/>
+      <c r="O41" s="80"/>
+      <c r="P41" s="81"/>
+      <c r="Q41" s="82"/>
+      <c r="R41" s="82"/>
+      <c r="S41" s="82"/>
+      <c r="T41" s="82"/>
+      <c r="U41" s="82"/>
+      <c r="V41" s="82"/>
+      <c r="W41" s="82"/>
+      <c r="X41" s="82"/>
+      <c r="Y41" s="82"/>
+      <c r="Z41" s="82"/>
+      <c r="AA41" s="82"/>
+      <c r="AB41" s="82"/>
+      <c r="AC41" s="83"/>
+      <c r="AD41" s="82"/>
+      <c r="AE41" s="82"/>
+      <c r="AF41" s="82"/>
+      <c r="AG41" s="82"/>
+      <c r="AH41" s="82"/>
+      <c r="AI41" s="84"/>
+      <c r="AJ41" s="44"/>
+    </row>
+    <row r="42" spans="1:36" ht="17.100000000000001" customHeight="1">
+      <c r="A42" s="45"/>
+      <c r="B42" s="85"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="86"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="86"/>
+      <c r="H42" s="86"/>
+      <c r="I42" s="86"/>
+      <c r="J42" s="86"/>
+      <c r="K42" s="86"/>
+      <c r="L42" s="86"/>
+      <c r="M42" s="86"/>
+      <c r="N42" s="87"/>
+      <c r="O42" t="s" s="88">
+        <v>18</v>
+      </c>
+      <c r="P42" s="89"/>
+      <c r="Q42" s="90"/>
+      <c r="R42" s="90"/>
+      <c r="S42" s="90"/>
+      <c r="T42" s="90"/>
+      <c r="U42" s="90"/>
+      <c r="V42" s="90"/>
+      <c r="W42" s="90"/>
+      <c r="X42" s="90"/>
+      <c r="Y42" s="90"/>
+      <c r="Z42" s="90"/>
+      <c r="AA42" s="90"/>
+      <c r="AB42" s="91"/>
+      <c r="AC42" s="92"/>
+      <c r="AD42" s="91"/>
+      <c r="AE42" s="91"/>
+      <c r="AF42" s="91"/>
+      <c r="AG42" s="91"/>
+      <c r="AH42" s="91"/>
+      <c r="AI42" s="93"/>
+      <c r="AJ42" s="44"/>
+    </row>
+    <row r="43" spans="1:36" ht="26.25" customHeight="1">
+      <c r="A43" s="45"/>
+      <c r="B43" t="s" s="94">
+        <v>19</v>
+      </c>
+      <c r="C43" s="95"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="95"/>
+      <c r="G43" s="95"/>
+      <c r="H43" s="95"/>
+      <c r="I43" s="95"/>
+      <c r="J43" s="95"/>
+      <c r="K43" s="95"/>
+      <c r="L43" s="95"/>
+      <c r="M43" s="95"/>
+      <c r="N43" s="96"/>
+      <c r="O43" t="s" s="88">
+        <v>20</v>
+      </c>
+      <c r="P43" s="97"/>
+      <c r="Q43" s="97"/>
+      <c r="R43" s="97"/>
+      <c r="S43" s="97"/>
+      <c r="T43" s="97"/>
+      <c r="U43" s="97"/>
+      <c r="V43" s="97"/>
+      <c r="W43" s="98"/>
+      <c r="X43" s="98"/>
+      <c r="Y43" s="98"/>
+      <c r="Z43" s="98"/>
+      <c r="AA43" s="98"/>
+      <c r="AB43" s="98"/>
+      <c r="AC43" s="99"/>
+      <c r="AD43" s="98"/>
+      <c r="AE43" s="98"/>
+      <c r="AF43" s="98"/>
+      <c r="AG43" s="98"/>
+      <c r="AH43" s="98"/>
+      <c r="AI43" s="98"/>
+      <c r="AJ43" s="44"/>
+    </row>
+    <row r="44" spans="1:36" ht="23.1" customHeight="1">
+      <c r="A44" s="45"/>
+      <c r="B44" s="47"/>
+      <c r="C44" t="s" s="47">
+        <v>21</v>
+      </c>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="100"/>
+      <c r="H44" s="100"/>
+      <c r="I44" s="100"/>
+      <c r="J44" s="100"/>
+      <c r="K44" s="100"/>
+      <c r="L44" s="100"/>
+      <c r="M44" s="100"/>
+      <c r="N44" s="100"/>
+      <c r="O44" s="101"/>
+      <c r="P44" t="s" s="102">
+        <v>22</v>
+      </c>
+      <c r="Q44" t="s" s="102">
+        <v>22</v>
+      </c>
+      <c r="R44" t="s" s="102">
+        <v>22</v>
+      </c>
+      <c r="S44" t="s" s="102">
+        <v>22</v>
+      </c>
+      <c r="T44" s="102"/>
+      <c r="U44" s="102"/>
+      <c r="V44" s="102"/>
+      <c r="W44" s="102"/>
+      <c r="X44" s="102"/>
+      <c r="Y44" s="102"/>
+      <c r="Z44" s="102"/>
+      <c r="AA44" s="102"/>
+      <c r="AB44" s="102"/>
+      <c r="AC44" s="102"/>
+      <c r="AD44" s="102"/>
+      <c r="AE44" s="102"/>
+      <c r="AF44" s="102"/>
+      <c r="AG44" s="102"/>
+      <c r="AH44" s="102"/>
+      <c r="AI44" s="102"/>
+      <c r="AJ44" s="44"/>
+    </row>
+    <row r="45" spans="1:36" ht="19.5" customHeight="1">
+      <c r="A45" s="45"/>
+      <c r="B45" t="s" s="96">
+        <v>23</v>
+      </c>
+      <c r="C45" s="96"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="96"/>
+      <c r="F45" s="96"/>
+      <c r="G45" s="96"/>
+      <c r="H45" s="96"/>
+      <c r="I45" s="96"/>
+      <c r="J45" s="96"/>
+      <c r="K45" s="96"/>
+      <c r="L45" s="96"/>
+      <c r="M45" s="96"/>
+      <c r="N45" s="96"/>
+      <c r="O45" s="103"/>
+      <c r="P45" s="57"/>
+      <c r="Q45" s="57"/>
+      <c r="R45" s="57"/>
+      <c r="S45" s="57"/>
+      <c r="T45" s="57"/>
+      <c r="U45" s="57"/>
+      <c r="V45" s="57"/>
+      <c r="W45" s="57"/>
+      <c r="X45" s="57"/>
+      <c r="Y45" t="s" s="155">
+        <v>24</v>
+      </c>
+      <c r="Z45" s="155"/>
+      <c r="AA45" s="155"/>
+      <c r="AB45" s="156"/>
+      <c r="AC45" s="156"/>
+      <c r="AD45" s="156"/>
+      <c r="AE45" s="156"/>
+      <c r="AF45" s="157"/>
+      <c r="AG45" s="157"/>
+      <c r="AH45" s="157"/>
+      <c r="AI45" s="157"/>
+      <c r="AJ45" s="44"/>
+    </row>
+    <row r="46" spans="1:36" ht="19.5" customHeight="1">
+      <c r="A46" s="45"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="34"/>
+      <c r="N46" s="34"/>
+      <c r="O46" s="104"/>
+      <c r="P46" s="105"/>
+      <c r="Q46" s="96"/>
+      <c r="R46" s="96"/>
+      <c r="S46" s="96"/>
+      <c r="T46" s="96"/>
+      <c r="U46" s="96"/>
+      <c r="V46" s="96"/>
+      <c r="W46" s="106"/>
+      <c r="X46" s="106"/>
+      <c r="Y46" t="s" s="155">
+        <v>25</v>
+      </c>
+      <c r="Z46" s="155"/>
+      <c r="AA46" s="155"/>
+      <c r="AB46" s="156"/>
+      <c r="AC46" s="156"/>
+      <c r="AD46" s="156"/>
+      <c r="AE46" s="156"/>
+      <c r="AF46" s="157"/>
+      <c r="AG46" s="157"/>
+      <c r="AH46" s="157"/>
+      <c r="AI46" s="157"/>
+      <c r="AJ46" s="44"/>
+    </row>
+    <row r="47" spans="1:36" ht="19.5" customHeight="1">
+      <c r="A47" s="45"/>
+      <c r="B47" s="107"/>
+      <c r="C47" s="108"/>
+      <c r="D47" s="108"/>
+      <c r="E47" s="108"/>
+      <c r="F47" s="108"/>
+      <c r="G47" s="108"/>
+      <c r="H47" s="108"/>
+      <c r="I47" s="108"/>
+      <c r="J47" s="108"/>
+      <c r="K47" s="108"/>
+      <c r="L47" s="108"/>
+      <c r="M47" s="108"/>
+      <c r="N47" s="108"/>
+      <c r="O47" s="109"/>
+      <c r="P47" s="107"/>
+      <c r="Q47" s="108"/>
+      <c r="R47" s="108"/>
+      <c r="S47" s="108"/>
+      <c r="T47" s="108"/>
+      <c r="U47" s="108"/>
+      <c r="V47" s="108"/>
+      <c r="W47" s="110"/>
+      <c r="X47" s="110"/>
+      <c r="Y47" t="s" s="155">
+        <v>26</v>
+      </c>
+      <c r="Z47" s="155"/>
+      <c r="AA47" s="155"/>
+      <c r="AB47" s="146"/>
+      <c r="AC47" s="147"/>
+      <c r="AD47" s="147"/>
+      <c r="AE47" s="148"/>
+      <c r="AF47" s="157"/>
+      <c r="AG47" s="157"/>
+      <c r="AH47" s="157"/>
+      <c r="AI47" s="157"/>
+      <c r="AJ47" s="44"/>
+    </row>
+    <row r="48" spans="1:36" ht="17.100000000000001" customHeight="1">
+      <c r="A48" s="45"/>
+      <c r="B48" s="107"/>
+      <c r="C48" t="s" s="108">
+        <v>27</v>
+      </c>
+      <c r="D48" s="108"/>
+      <c r="E48" s="108"/>
+      <c r="F48" s="108"/>
+      <c r="G48" s="108"/>
+      <c r="H48" s="108"/>
+      <c r="I48" s="108"/>
+      <c r="J48" s="108"/>
+      <c r="K48" s="108"/>
+      <c r="L48" s="108"/>
+      <c r="M48" s="108"/>
+      <c r="N48" s="108"/>
+      <c r="O48" s="108"/>
+      <c r="P48" s="108"/>
+      <c r="Q48" s="108"/>
+      <c r="R48" s="108"/>
+      <c r="S48" s="108"/>
+      <c r="T48" s="108"/>
+      <c r="U48" s="109"/>
+      <c r="V48" t="s" s="111">
+        <v>28</v>
+      </c>
+      <c r="W48" s="47"/>
+      <c r="X48" s="111"/>
+      <c r="Y48" s="100"/>
+      <c r="Z48" s="100"/>
+      <c r="AA48" s="101"/>
+      <c r="AB48" s="158">
+        <f>AG6</f>
+      </c>
+      <c r="AC48" s="159"/>
+      <c r="AD48" s="159"/>
+      <c r="AE48" t="s" s="147">
+        <v>29</v>
+      </c>
+      <c r="AF48" s="147"/>
+      <c r="AG48" s="160">
+        <f>AI6</f>
+      </c>
+      <c r="AH48" s="160"/>
+      <c r="AI48" s="161"/>
+      <c r="AJ48" s="44"/>
+    </row>
+    <row r="49" ht="6" customHeight="1"/>
+    <row r="50" ht="17.100000000000001" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="57">
+    <mergeCell ref="C38:O38"/>
+    <mergeCell ref="C39:O39"/>
+    <mergeCell ref="C33:O33"/>
+    <mergeCell ref="C34:O34"/>
+    <mergeCell ref="C35:O35"/>
+    <mergeCell ref="C36:O36"/>
+    <mergeCell ref="C37:O37"/>
+    <mergeCell ref="Y47:AA47"/>
+    <mergeCell ref="AB47:AE47"/>
+    <mergeCell ref="AF47:AI47"/>
+    <mergeCell ref="AB48:AD48"/>
+    <mergeCell ref="AE48:AF48"/>
+    <mergeCell ref="AG48:AI48"/>
+    <mergeCell ref="Y45:AA45"/>
+    <mergeCell ref="AB45:AE45"/>
+    <mergeCell ref="AF45:AI45"/>
+    <mergeCell ref="Y46:AA46"/>
+    <mergeCell ref="AB46:AE46"/>
+    <mergeCell ref="AF46:AI46"/>
+    <mergeCell ref="AA6:AF6"/>
+    <mergeCell ref="B8:B26"/>
+    <mergeCell ref="B27:B40"/>
+    <mergeCell ref="C8:O8"/>
+    <mergeCell ref="C9:O9"/>
+    <mergeCell ref="C10:O10"/>
+    <mergeCell ref="C11:O11"/>
+    <mergeCell ref="C12:O12"/>
+    <mergeCell ref="C13:O13"/>
+    <mergeCell ref="C14:O14"/>
+    <mergeCell ref="C15:O15"/>
+    <mergeCell ref="C16:O16"/>
+    <mergeCell ref="C17:O17"/>
+    <mergeCell ref="C18:O18"/>
+    <mergeCell ref="C19:O19"/>
+    <mergeCell ref="C20:O20"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:Z2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="P3:Z3"/>
+    <mergeCell ref="AA3:AC5"/>
+    <mergeCell ref="AD3:AF5"/>
+    <mergeCell ref="AG3:AI5"/>
+    <mergeCell ref="P4:Z4"/>
+    <mergeCell ref="P5:Z5"/>
+    <mergeCell ref="C21:O21"/>
+    <mergeCell ref="C22:O22"/>
+    <mergeCell ref="C23:O23"/>
+    <mergeCell ref="C24:O24"/>
+    <mergeCell ref="C25:O25"/>
+    <mergeCell ref="C32:O32"/>
+    <mergeCell ref="C27:O27"/>
+    <mergeCell ref="C28:O28"/>
+    <mergeCell ref="C29:O29"/>
+    <mergeCell ref="C30:O30"/>
+    <mergeCell ref="C31:O31"/>
+  </mergeCells>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <printOptions gridLinesSet="0"/>
+  <pageMargins left="0.39370078740157483" right="0" top="0.78740157480314965" bottom="0.39370078740157483" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;R〔規定番号〕ＳーＰ０４(Ｒｅｖ１.1)</oddHeader>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961F266A-B1EB-4F19-84A2-CD1F09B9F4D9}">
+  <sheetPr codeName="Sheet1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:O30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.875" style="23" customWidth="1"/>
+    <col min="2" max="14" width="3.625" style="23" customWidth="1"/>
+    <col min="15" max="15" width="20.375" style="23" customWidth="1"/>
+    <col min="16" max="28" width="3.625" style="23" customWidth="1"/>
+    <col min="29" max="29" width="3.625" style="24" customWidth="1"/>
+    <col min="30" max="35" width="3.625" style="23" customWidth="1"/>
+    <col min="36" max="36" width="1.875" style="23" customWidth="1"/>
+    <col min="37" max="16384" width="9.875" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" ht="6" customHeight="1" thickBot="1"/>
+    <row r="2" spans="1:36" ht="18.95" customHeight="1" thickBot="1">
+      <c r="K2" t="s" s="25">
+        <v>0</v>
+      </c>
+      <c r="L2" s="25"/>
+      <c r="M2" s="139">
+        <v>1</v>
+      </c>
+      <c r="N2" s="140"/>
+      <c r="O2" s="26"/>
+      <c r="P2" t="s" s="141">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="142"/>
+      <c r="R2" s="142"/>
+      <c r="S2" s="142"/>
+      <c r="T2" s="142"/>
+      <c r="U2" s="142"/>
+      <c r="V2" s="142"/>
+      <c r="W2" s="142"/>
+      <c r="X2" s="142"/>
+      <c r="Y2" s="142"/>
+      <c r="Z2" s="143"/>
+      <c r="AA2" t="s" s="144">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="145"/>
+      <c r="AC2" s="140"/>
+      <c r="AD2" t="s" s="139">
+        <v>13</v>
+      </c>
+      <c r="AE2" s="145"/>
+      <c r="AF2" s="140"/>
+      <c r="AG2" t="s" s="139">
+        <v>14</v>
+      </c>
+      <c r="AH2" s="145"/>
+      <c r="AI2" s="140"/>
+    </row>
+    <row r="3" spans="1:36" ht="18.95" customHeight="1">
+      <c r="B3" s="27"/>
+      <c r="C3" t="s" s="28">
+        <v>3</v>
+      </c>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="32"/>
+      <c r="K3" t="s" s="33">
+        <v>4</v>
+      </c>
+      <c r="O3" s="34"/>
+      <c r="P3" s="121"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="122"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="122"/>
+      <c r="U3" s="122"/>
+      <c r="V3" s="122"/>
+      <c r="W3" s="122"/>
+      <c r="X3" s="122"/>
+      <c r="Y3" s="122"/>
+      <c r="Z3" s="123"/>
+      <c r="AA3" s="124"/>
+      <c r="AB3" s="125"/>
+      <c r="AC3" s="126"/>
+      <c r="AD3" s="124"/>
+      <c r="AE3" s="125"/>
+      <c r="AF3" s="126"/>
+      <c r="AG3" s="124"/>
+      <c r="AH3" s="125"/>
+      <c r="AI3" s="126"/>
+    </row>
+    <row r="4" spans="1:36" ht="24" customHeight="1" thickBot="1">
+      <c r="B4" s="35"/>
+      <c r="C4" t="s" s="36">
+        <v>5</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="38"/>
+      <c r="K4" t="s" s="33">
+        <v>6</v>
+      </c>
+      <c r="O4" s="34"/>
+      <c r="P4" s="133"/>
+      <c r="Q4" s="134"/>
+      <c r="R4" s="134"/>
+      <c r="S4" s="134"/>
+      <c r="T4" s="134"/>
+      <c r="U4" s="134"/>
+      <c r="V4" s="134"/>
+      <c r="W4" s="134"/>
+      <c r="X4" s="134"/>
+      <c r="Y4" s="134"/>
+      <c r="Z4" s="135"/>
+      <c r="AA4" s="127"/>
+      <c r="AB4" s="128"/>
+      <c r="AC4" s="129"/>
+      <c r="AD4" s="127"/>
+      <c r="AE4" s="128"/>
+      <c r="AF4" s="129"/>
+      <c r="AG4" s="127"/>
+      <c r="AH4" s="128"/>
+      <c r="AI4" s="129"/>
+    </row>
+    <row r="5" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
+      <c r="C5" s="39"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="33"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="136"/>
+      <c r="Q5" s="137"/>
+      <c r="R5" s="137"/>
+      <c r="S5" s="137"/>
+      <c r="T5" s="137"/>
+      <c r="U5" s="137"/>
+      <c r="V5" s="137"/>
+      <c r="W5" s="137"/>
+      <c r="X5" s="137"/>
+      <c r="Y5" s="137"/>
+      <c r="Z5" s="138"/>
+      <c r="AA5" s="130"/>
+      <c r="AB5" s="131"/>
+      <c r="AC5" s="132"/>
+      <c r="AD5" s="130"/>
+      <c r="AE5" s="131"/>
+      <c r="AF5" s="132"/>
+      <c r="AG5" s="130"/>
+      <c r="AH5" s="131"/>
+      <c r="AI5" s="132"/>
+    </row>
+    <row r="6" spans="1:36" ht="21" customHeight="1">
+      <c r="AA6" t="s" s="146">
+        <v>7</v>
+      </c>
+      <c r="AB6" s="147"/>
+      <c r="AC6" s="147"/>
+      <c r="AD6" s="147"/>
+      <c r="AE6" s="147"/>
+      <c r="AF6" s="148"/>
+      <c r="AG6" s="41">
+        <v>1</v>
+      </c>
+      <c r="AH6" t="s" s="42">
+        <v>8</v>
+      </c>
+      <c r="AI6" s="43">
+        <v>18</v>
+      </c>
+      <c r="AJ6" s="44"/>
+    </row>
+    <row r="7" spans="1:36" ht="99.6" customHeight="1">
+      <c r="A7" s="45"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="48"/>
+      <c r="P7" t="s" s="49">
+        <v>9</v>
+      </c>
+      <c r="Q7" t="s" s="49">
+        <v>10</v>
+      </c>
+      <c r="R7" t="s" s="49">
+        <v>11</v>
+      </c>
+      <c r="S7" t="s" s="49">
+        <v>12</v>
+      </c>
+      <c r="T7" t="s" s="49">
+        <v>30</v>
+      </c>
+      <c r="U7" t="s" s="49">
+        <v>31</v>
+      </c>
+      <c r="V7" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="W7" t="s" s="49">
+        <v>33</v>
+      </c>
+      <c r="X7" t="s" s="49">
+        <v>34</v>
+      </c>
+      <c r="Y7" t="s" s="49">
+        <v>35</v>
+      </c>
+      <c r="Z7" t="s" s="49">
+        <v>36</v>
+      </c>
+      <c r="AA7" t="s" s="49">
+        <v>37</v>
+      </c>
+      <c r="AB7" t="s" s="49">
+        <v>38</v>
+      </c>
+      <c r="AC7" t="s" s="49">
+        <v>39</v>
+      </c>
+      <c r="AD7" t="s" s="49">
+        <v>40</v>
+      </c>
+      <c r="AE7" t="s" s="49">
+        <v>41</v>
+      </c>
+      <c r="AF7" t="s" s="49">
+        <v>42</v>
+      </c>
+      <c r="AG7" t="s" s="49">
+        <v>43</v>
+      </c>
+      <c r="AH7" s="50"/>
+      <c r="AI7" s="50"/>
+      <c r="AJ7" s="44"/>
+    </row>
+    <row r="8" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A8" s="51"/>
+      <c r="B8" t="s" s="149">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s" s="237">
+        <v>64</v>
+      </c>
+      <c r="D8" s="153"/>
+      <c r="E8" s="153"/>
+      <c r="F8" s="153"/>
+      <c r="G8" s="153"/>
+      <c r="H8" s="153"/>
+      <c r="I8" s="153"/>
+      <c r="J8" s="153"/>
+      <c r="K8" s="153"/>
+      <c r="L8" s="153"/>
+      <c r="M8" s="153"/>
+      <c r="N8" s="153"/>
+      <c r="O8" s="154"/>
+      <c r="P8" t="s" s="238">
+        <v>45</v>
+      </c>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="52"/>
+      <c r="AC8" s="53"/>
+      <c r="AD8" s="54"/>
+      <c r="AE8" s="52"/>
+      <c r="AF8" s="52"/>
+      <c r="AG8" s="52"/>
+      <c r="AH8" s="52"/>
+      <c r="AI8" s="55"/>
+      <c r="AJ8" s="56"/>
+    </row>
+    <row r="9" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A9" s="51"/>
+      <c r="B9" s="150"/>
+      <c r="C9" t="s" s="239">
+        <v>65</v>
+      </c>
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="119"/>
+      <c r="M9" s="119"/>
+      <c r="N9" s="119"/>
+      <c r="O9" s="120"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" t="s" s="240">
+        <v>45</v>
+      </c>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="58"/>
+      <c r="AC9" s="59"/>
+      <c r="AD9" s="60"/>
+      <c r="AE9" s="58"/>
+      <c r="AF9" s="58"/>
+      <c r="AG9" s="58"/>
+      <c r="AH9" s="58"/>
+      <c r="AI9" s="61"/>
+      <c r="AJ9" s="56"/>
+    </row>
+    <row r="10" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A10" s="51"/>
+      <c r="B10" s="150"/>
+      <c r="C10" t="s" s="241">
+        <v>66</v>
+      </c>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="119"/>
+      <c r="M10" s="119"/>
+      <c r="N10" s="119"/>
+      <c r="O10" s="120"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" t="s" s="242">
+        <v>45</v>
+      </c>
+      <c r="S10" s="6"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="62"/>
+      <c r="AC10" s="63"/>
+      <c r="AD10" s="62"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="64"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="65"/>
+      <c r="AJ10" s="56"/>
+    </row>
+    <row r="11" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A11" s="51"/>
+      <c r="B11" s="150"/>
+      <c r="C11" t="s" s="243">
+        <v>67</v>
+      </c>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="119"/>
+      <c r="L11" s="119"/>
+      <c r="M11" s="119"/>
+      <c r="N11" s="119"/>
+      <c r="O11" s="120"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" t="s" s="244">
+        <v>45</v>
+      </c>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="62"/>
+      <c r="Z11" s="62"/>
+      <c r="AA11" s="62"/>
+      <c r="AB11" s="62"/>
+      <c r="AC11" s="63"/>
+      <c r="AD11" s="62"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="64"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="65"/>
+      <c r="AJ11" s="56"/>
+    </row>
+    <row r="12" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A12" s="51"/>
+      <c r="B12" s="150"/>
+      <c r="C12" t="s" s="245">
+        <v>68</v>
+      </c>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="119"/>
+      <c r="K12" s="119"/>
+      <c r="L12" s="119"/>
+      <c r="M12" s="119"/>
+      <c r="N12" s="119"/>
+      <c r="O12" s="120"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" t="s" s="246">
+        <v>45</v>
+      </c>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="64"/>
+      <c r="AI12" s="65"/>
+      <c r="AJ12" s="56"/>
+    </row>
+    <row r="13" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A13" s="51"/>
+      <c r="B13" s="150"/>
+      <c r="C13" t="s" s="247">
+        <v>69</v>
+      </c>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="119"/>
+      <c r="L13" s="119"/>
+      <c r="M13" s="119"/>
+      <c r="N13" s="119"/>
+      <c r="O13" s="120"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" t="s" s="248">
+        <v>45</v>
+      </c>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="64"/>
+      <c r="AI13" s="65"/>
+      <c r="AJ13" s="56"/>
+    </row>
+    <row r="14" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A14" s="51"/>
+      <c r="B14" s="150"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="119"/>
+      <c r="K14" s="119"/>
+      <c r="L14" s="119"/>
+      <c r="M14" s="119"/>
+      <c r="N14" s="119"/>
+      <c r="O14" s="120"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="64"/>
+      <c r="AI14" s="65"/>
+      <c r="AJ14" s="56"/>
+    </row>
+    <row r="15" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A15" s="51"/>
+      <c r="B15" s="150"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="119"/>
+      <c r="J15" s="119"/>
+      <c r="K15" s="119"/>
+      <c r="L15" s="119"/>
+      <c r="M15" s="119"/>
+      <c r="N15" s="119"/>
+      <c r="O15" s="120"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="64"/>
+      <c r="AI15" s="65"/>
+      <c r="AJ15" s="56"/>
+    </row>
+    <row r="16" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A16" s="51"/>
+      <c r="B16" s="150"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="119"/>
+      <c r="J16" s="119"/>
+      <c r="K16" s="119"/>
+      <c r="L16" s="119"/>
+      <c r="M16" s="119"/>
+      <c r="N16" s="119"/>
+      <c r="O16" s="120"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="64"/>
+      <c r="AI16" s="65"/>
+      <c r="AJ16" s="56"/>
+    </row>
+    <row r="17" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A17" s="51"/>
+      <c r="B17" s="150"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="119"/>
+      <c r="I17" s="119"/>
+      <c r="J17" s="119"/>
+      <c r="K17" s="119"/>
+      <c r="L17" s="119"/>
+      <c r="M17" s="119"/>
+      <c r="N17" s="119"/>
+      <c r="O17" s="120"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="64"/>
+      <c r="AI17" s="65"/>
+      <c r="AJ17" s="56"/>
+    </row>
+    <row r="18" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A18" s="51"/>
+      <c r="B18" s="150"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="119"/>
+      <c r="J18" s="119"/>
+      <c r="K18" s="119"/>
+      <c r="L18" s="119"/>
+      <c r="M18" s="119"/>
+      <c r="N18" s="119"/>
+      <c r="O18" s="120"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="64"/>
+      <c r="AI18" s="65"/>
+      <c r="AJ18" s="56"/>
+    </row>
+    <row r="19" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A19" s="51"/>
+      <c r="B19" s="150"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="119"/>
+      <c r="J19" s="119"/>
+      <c r="K19" s="119"/>
+      <c r="L19" s="119"/>
+      <c r="M19" s="119"/>
+      <c r="N19" s="119"/>
+      <c r="O19" s="120"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="64"/>
+      <c r="AI19" s="65"/>
+      <c r="AJ19" s="56"/>
+    </row>
+    <row r="20" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A20" s="51"/>
+      <c r="B20" s="150"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="119"/>
+      <c r="J20" s="119"/>
+      <c r="K20" s="119"/>
+      <c r="L20" s="119"/>
+      <c r="M20" s="119"/>
+      <c r="N20" s="119"/>
+      <c r="O20" s="120"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="64"/>
+      <c r="AI20" s="65"/>
+      <c r="AJ20" s="56"/>
+    </row>
+    <row r="21" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A21" s="51"/>
+      <c r="B21" s="150"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="119"/>
+      <c r="J21" s="119"/>
+      <c r="K21" s="119"/>
+      <c r="L21" s="119"/>
+      <c r="M21" s="119"/>
+      <c r="N21" s="119"/>
+      <c r="O21" s="120"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="64"/>
+      <c r="AI21" s="65"/>
+      <c r="AJ21" s="56"/>
+    </row>
+    <row r="22" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A22" s="51"/>
+      <c r="B22" s="150"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="119"/>
+      <c r="J22" s="119"/>
+      <c r="K22" s="119"/>
+      <c r="L22" s="119"/>
+      <c r="M22" s="119"/>
+      <c r="N22" s="119"/>
+      <c r="O22" s="120"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="64"/>
+      <c r="AI22" s="65"/>
+      <c r="AJ22" s="56"/>
+    </row>
+    <row r="23" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A23" s="51"/>
+      <c r="B23" s="150"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="119"/>
+      <c r="H23" s="119"/>
+      <c r="I23" s="119"/>
+      <c r="J23" s="119"/>
+      <c r="K23" s="119"/>
+      <c r="L23" s="119"/>
+      <c r="M23" s="119"/>
+      <c r="N23" s="119"/>
+      <c r="O23" s="120"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="64"/>
+      <c r="AI23" s="65"/>
+      <c r="AJ23" s="56"/>
+    </row>
+    <row r="24" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A24" s="51"/>
+      <c r="B24" s="150"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="119"/>
+      <c r="H24" s="119"/>
+      <c r="I24" s="119"/>
+      <c r="J24" s="119"/>
+      <c r="K24" s="119"/>
+      <c r="L24" s="119"/>
+      <c r="M24" s="119"/>
+      <c r="N24" s="119"/>
+      <c r="O24" s="120"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="6"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="64"/>
+      <c r="AI24" s="65"/>
+      <c r="AJ24" s="56"/>
+    </row>
+    <row r="25" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A25" s="51"/>
+      <c r="B25" s="150"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="119"/>
+      <c r="H25" s="119"/>
+      <c r="I25" s="119"/>
+      <c r="J25" s="119"/>
+      <c r="K25" s="119"/>
+      <c r="L25" s="119"/>
+      <c r="M25" s="119"/>
+      <c r="N25" s="119"/>
+      <c r="O25" s="120"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="6"/>
+      <c r="AE25" s="6"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="64"/>
+      <c r="AI25" s="65"/>
+      <c r="AJ25" s="56"/>
+    </row>
+    <row r="26" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A26" s="51"/>
+      <c r="B26" s="150"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="67"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="16"/>
+      <c r="AC26" s="17"/>
+      <c r="AD26" s="67"/>
+      <c r="AE26" s="16"/>
+      <c r="AF26" s="16"/>
+      <c r="AG26" s="16"/>
+      <c r="AH26" s="68"/>
+      <c r="AI26" s="69"/>
+      <c r="AJ26" s="56"/>
+    </row>
+    <row r="27" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A27" s="51"/>
+      <c r="B27" t="s" s="149">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s" s="249">
+        <v>51</v>
+      </c>
+      <c r="D27" s="163"/>
+      <c r="E27" s="163"/>
+      <c r="F27" s="163"/>
+      <c r="G27" s="163"/>
+      <c r="H27" s="163"/>
+      <c r="I27" s="163"/>
+      <c r="J27" s="163"/>
+      <c r="K27" s="163"/>
+      <c r="L27" s="163"/>
+      <c r="M27" s="163"/>
+      <c r="N27" s="163"/>
+      <c r="O27" s="164"/>
+      <c r="P27" t="s" s="250">
+        <v>45</v>
+      </c>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="53"/>
+      <c r="AD27" s="54"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="52"/>
+      <c r="AI27" s="55"/>
+      <c r="AJ27" s="56"/>
+    </row>
+    <row r="28" spans="1:36" s="57" customFormat="1">
+      <c r="A28" s="51"/>
+      <c r="B28" s="150"/>
+      <c r="C28" t="s" s="251">
+        <v>51</v>
+      </c>
+      <c r="D28" s="116"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="116"/>
+      <c r="I28" s="116"/>
+      <c r="J28" s="116"/>
+      <c r="K28" s="116"/>
+      <c r="L28" s="116"/>
+      <c r="M28" s="116"/>
+      <c r="N28" s="116"/>
+      <c r="O28" s="117"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" t="s" s="252">
+        <v>45</v>
+      </c>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="7"/>
+      <c r="AC28" s="7"/>
+      <c r="AD28" s="7"/>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="62"/>
+      <c r="AG28" s="8"/>
+      <c r="AH28" s="64"/>
+      <c r="AI28" s="65"/>
+      <c r="AJ28" s="56"/>
+    </row>
+    <row r="29" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A29" s="51"/>
+      <c r="B29" s="150"/>
+      <c r="C29" t="s" s="253">
+        <v>51</v>
+      </c>
+      <c r="D29" s="116"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="116"/>
+      <c r="H29" s="116"/>
+      <c r="I29" s="116"/>
+      <c r="J29" s="116"/>
+      <c r="K29" s="116"/>
+      <c r="L29" s="116"/>
+      <c r="M29" s="116"/>
+      <c r="N29" s="116"/>
+      <c r="O29" s="117"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" t="s" s="254">
+        <v>45</v>
+      </c>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="62"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7"/>
+      <c r="AC29" s="7"/>
+      <c r="AD29" s="7"/>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="62"/>
+      <c r="AG29" s="18"/>
+      <c r="AH29" s="70"/>
+      <c r="AI29" s="71"/>
+      <c r="AJ29" s="56"/>
+    </row>
+    <row r="30" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A30" s="51"/>
+      <c r="B30" s="150"/>
+      <c r="C30" t="s" s="255">
+        <v>51</v>
+      </c>
+      <c r="D30" s="116"/>
+      <c r="E30" s="116"/>
+      <c r="F30" s="116"/>
+      <c r="G30" s="116"/>
+      <c r="H30" s="116"/>
+      <c r="I30" s="116"/>
+      <c r="J30" s="116"/>
+      <c r="K30" s="116"/>
+      <c r="L30" s="116"/>
+      <c r="M30" s="116"/>
+      <c r="N30" s="116"/>
+      <c r="O30" s="117"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="6"/>
+      <c r="S30" t="s" s="256">
+        <v>45</v>
+      </c>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="7"/>
+      <c r="AF30" s="62"/>
+      <c r="AG30" s="8"/>
+      <c r="AH30" s="64"/>
+      <c r="AI30" s="65"/>
+      <c r="AJ30" s="56"/>
+    </row>
+    <row r="31" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A31" s="51"/>
+      <c r="B31" s="150"/>
+      <c r="C31" t="s" s="257">
+        <v>51</v>
+      </c>
+      <c r="D31" s="116"/>
+      <c r="E31" s="116"/>
+      <c r="F31" s="116"/>
+      <c r="G31" s="116"/>
+      <c r="H31" s="116"/>
+      <c r="I31" s="116"/>
+      <c r="J31" s="116"/>
+      <c r="K31" s="116"/>
+      <c r="L31" s="116"/>
+      <c r="M31" s="116"/>
+      <c r="N31" s="116"/>
+      <c r="O31" s="117"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="6"/>
+      <c r="T31" t="s" s="258">
+        <v>45</v>
+      </c>
+      <c r="U31" s="21"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="22"/>
+      <c r="AD31" s="72"/>
+      <c r="AE31" s="8"/>
+      <c r="AF31" s="8"/>
+      <c r="AG31" s="8"/>
+      <c r="AH31" s="64"/>
+      <c r="AI31" s="65"/>
+      <c r="AJ31" s="56"/>
+    </row>
+    <row r="32" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A32" s="51"/>
+      <c r="B32" s="150"/>
+      <c r="C32" t="s" s="259">
+        <v>51</v>
+      </c>
+      <c r="D32" s="116"/>
+      <c r="E32" s="116"/>
+      <c r="F32" s="116"/>
+      <c r="G32" s="116"/>
+      <c r="H32" s="116"/>
+      <c r="I32" s="116"/>
+      <c r="J32" s="116"/>
+      <c r="K32" s="116"/>
+      <c r="L32" s="116"/>
+      <c r="M32" s="116"/>
+      <c r="N32" s="116"/>
+      <c r="O32" s="117"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="21"/>
+      <c r="U32" t="s" s="260">
+        <v>45</v>
+      </c>
+      <c r="V32" s="21"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="22"/>
+      <c r="AD32" s="72"/>
+      <c r="AE32" s="8"/>
+      <c r="AF32" s="8"/>
+      <c r="AG32" s="8"/>
+      <c r="AH32" s="64"/>
+      <c r="AI32" s="65"/>
+      <c r="AJ32" s="56"/>
+    </row>
+    <row r="33" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A33" s="51"/>
+      <c r="B33" s="150"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="116"/>
+      <c r="E33" s="116"/>
+      <c r="F33" s="116"/>
+      <c r="G33" s="116"/>
+      <c r="H33" s="116"/>
+      <c r="I33" s="116"/>
+      <c r="J33" s="116"/>
+      <c r="K33" s="116"/>
+      <c r="L33" s="116"/>
+      <c r="M33" s="116"/>
+      <c r="N33" s="116"/>
+      <c r="O33" s="117"/>
+      <c r="P33" s="112"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="18"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="18"/>
+      <c r="X33" s="18"/>
+      <c r="Y33" s="18"/>
+      <c r="Z33" s="18"/>
+      <c r="AA33" s="18"/>
+      <c r="AB33" s="18"/>
+      <c r="AC33" s="113"/>
+      <c r="AD33" s="114"/>
+      <c r="AE33" s="18"/>
+      <c r="AF33" s="18"/>
+      <c r="AG33" s="18"/>
+      <c r="AH33" s="70"/>
+      <c r="AI33" s="71"/>
+      <c r="AJ33" s="56"/>
+    </row>
+    <row r="34" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A34" s="51"/>
+      <c r="B34" s="150"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="116"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="116"/>
+      <c r="K34" s="116"/>
+      <c r="L34" s="116"/>
+      <c r="M34" s="116"/>
+      <c r="N34" s="116"/>
+      <c r="O34" s="117"/>
+      <c r="P34" s="112"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="21"/>
+      <c r="W34" s="18"/>
+      <c r="X34" s="18"/>
+      <c r="Y34" s="18"/>
+      <c r="Z34" s="18"/>
+      <c r="AA34" s="18"/>
+      <c r="AB34" s="18"/>
+      <c r="AC34" s="113"/>
+      <c r="AD34" s="114"/>
+      <c r="AE34" s="18"/>
+      <c r="AF34" s="18"/>
+      <c r="AG34" s="18"/>
+      <c r="AH34" s="70"/>
+      <c r="AI34" s="71"/>
+      <c r="AJ34" s="56"/>
+    </row>
+    <row r="35" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A35" s="51"/>
+      <c r="B35" s="150"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="116"/>
+      <c r="G35" s="116"/>
+      <c r="H35" s="116"/>
+      <c r="I35" s="116"/>
+      <c r="J35" s="116"/>
+      <c r="K35" s="116"/>
+      <c r="L35" s="116"/>
+      <c r="M35" s="116"/>
+      <c r="N35" s="116"/>
+      <c r="O35" s="117"/>
+      <c r="P35" s="112"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="18"/>
+      <c r="V35" s="21"/>
+      <c r="W35" s="18"/>
+      <c r="X35" s="18"/>
+      <c r="Y35" s="18"/>
+      <c r="Z35" s="18"/>
+      <c r="AA35" s="18"/>
+      <c r="AB35" s="18"/>
+      <c r="AC35" s="113"/>
+      <c r="AD35" s="114"/>
+      <c r="AE35" s="18"/>
+      <c r="AF35" s="18"/>
+      <c r="AG35" s="18"/>
+      <c r="AH35" s="70"/>
+      <c r="AI35" s="71"/>
+      <c r="AJ35" s="56"/>
+    </row>
+    <row r="36" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A36" s="51"/>
+      <c r="B36" s="150"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="116"/>
+      <c r="E36" s="116"/>
+      <c r="F36" s="116"/>
+      <c r="G36" s="116"/>
+      <c r="H36" s="116"/>
+      <c r="I36" s="116"/>
+      <c r="J36" s="116"/>
+      <c r="K36" s="116"/>
+      <c r="L36" s="116"/>
+      <c r="M36" s="116"/>
+      <c r="N36" s="116"/>
+      <c r="O36" s="117"/>
+      <c r="P36" s="112"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="21"/>
+      <c r="U36" s="18"/>
+      <c r="V36" s="21"/>
+      <c r="W36" s="18"/>
+      <c r="X36" s="18"/>
+      <c r="Y36" s="18"/>
+      <c r="Z36" s="18"/>
+      <c r="AA36" s="18"/>
+      <c r="AB36" s="18"/>
+      <c r="AC36" s="113"/>
+      <c r="AD36" s="114"/>
+      <c r="AE36" s="18"/>
+      <c r="AF36" s="18"/>
+      <c r="AG36" s="18"/>
+      <c r="AH36" s="70"/>
+      <c r="AI36" s="71"/>
+      <c r="AJ36" s="56"/>
+    </row>
+    <row r="37" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A37" s="51"/>
+      <c r="B37" s="150"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="116"/>
+      <c r="F37" s="116"/>
+      <c r="G37" s="116"/>
+      <c r="H37" s="116"/>
+      <c r="I37" s="116"/>
+      <c r="J37" s="116"/>
+      <c r="K37" s="116"/>
+      <c r="L37" s="116"/>
+      <c r="M37" s="116"/>
+      <c r="N37" s="116"/>
+      <c r="O37" s="117"/>
+      <c r="P37" s="112"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="21"/>
+      <c r="U37" s="18"/>
+      <c r="V37" s="21"/>
+      <c r="W37" s="18"/>
+      <c r="X37" s="18"/>
+      <c r="Y37" s="18"/>
+      <c r="Z37" s="18"/>
+      <c r="AA37" s="18"/>
+      <c r="AB37" s="18"/>
+      <c r="AC37" s="113"/>
+      <c r="AD37" s="114"/>
+      <c r="AE37" s="18"/>
+      <c r="AF37" s="18"/>
+      <c r="AG37" s="18"/>
+      <c r="AH37" s="70"/>
+      <c r="AI37" s="71"/>
+      <c r="AJ37" s="56"/>
+    </row>
+    <row r="38" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A38" s="51"/>
+      <c r="B38" s="150"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="116"/>
+      <c r="E38" s="116"/>
+      <c r="F38" s="116"/>
+      <c r="G38" s="116"/>
+      <c r="H38" s="116"/>
+      <c r="I38" s="116"/>
+      <c r="J38" s="116"/>
+      <c r="K38" s="116"/>
+      <c r="L38" s="116"/>
+      <c r="M38" s="116"/>
+      <c r="N38" s="116"/>
+      <c r="O38" s="117"/>
+      <c r="P38" s="112"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="21"/>
+      <c r="T38" s="21"/>
+      <c r="U38" s="18"/>
+      <c r="V38" s="21"/>
+      <c r="W38" s="18"/>
+      <c r="X38" s="18"/>
+      <c r="Y38" s="18"/>
+      <c r="Z38" s="18"/>
+      <c r="AA38" s="18"/>
+      <c r="AB38" s="18"/>
+      <c r="AC38" s="113"/>
+      <c r="AD38" s="114"/>
+      <c r="AE38" s="18"/>
+      <c r="AF38" s="18"/>
+      <c r="AG38" s="18"/>
+      <c r="AH38" s="70"/>
+      <c r="AI38" s="71"/>
+      <c r="AJ38" s="56"/>
+    </row>
+    <row r="39" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A39" s="51"/>
+      <c r="B39" s="150"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="116"/>
+      <c r="E39" s="116"/>
+      <c r="F39" s="116"/>
+      <c r="G39" s="116"/>
+      <c r="H39" s="116"/>
+      <c r="I39" s="116"/>
+      <c r="J39" s="116"/>
+      <c r="K39" s="116"/>
+      <c r="L39" s="116"/>
+      <c r="M39" s="116"/>
+      <c r="N39" s="116"/>
+      <c r="O39" s="117"/>
+      <c r="P39" s="112"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="21"/>
+      <c r="W39" s="18"/>
+      <c r="X39" s="18"/>
+      <c r="Y39" s="18"/>
+      <c r="Z39" s="18"/>
+      <c r="AA39" s="18"/>
+      <c r="AB39" s="18"/>
+      <c r="AC39" s="113"/>
+      <c r="AD39" s="114"/>
+      <c r="AE39" s="18"/>
+      <c r="AF39" s="18"/>
+      <c r="AG39" s="18"/>
+      <c r="AH39" s="70"/>
+      <c r="AI39" s="71"/>
+      <c r="AJ39" s="56"/>
+    </row>
+    <row r="40" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A40" s="51"/>
+      <c r="B40" s="151"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="74"/>
+      <c r="K40" s="74"/>
+      <c r="L40" s="74"/>
+      <c r="M40" s="74"/>
+      <c r="N40" s="74"/>
+      <c r="O40" s="75"/>
+      <c r="P40" s="76"/>
+      <c r="Q40" s="68"/>
+      <c r="R40" s="68"/>
+      <c r="S40" s="68"/>
+      <c r="T40" s="68"/>
+      <c r="U40" s="68"/>
+      <c r="V40" s="68"/>
+      <c r="W40" s="68"/>
+      <c r="X40" s="68"/>
+      <c r="Y40" s="68"/>
+      <c r="Z40" s="68"/>
+      <c r="AA40" s="68"/>
+      <c r="AB40" s="68"/>
+      <c r="AC40" s="77"/>
+      <c r="AD40" s="68"/>
+      <c r="AE40" s="68"/>
+      <c r="AF40" s="68"/>
+      <c r="AG40" s="68"/>
+      <c r="AH40" s="68"/>
+      <c r="AI40" s="69"/>
+      <c r="AJ40" s="56"/>
+    </row>
+    <row r="41" spans="1:36" ht="51" customHeight="1">
+      <c r="A41" s="45"/>
+      <c r="B41" s="78"/>
+      <c r="C41" t="s" s="79">
+        <v>15</v>
+      </c>
+      <c r="D41" s="79"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="79"/>
+      <c r="H41" s="79"/>
+      <c r="I41" s="79"/>
+      <c r="K41" s="79"/>
+      <c r="L41" s="79"/>
+      <c r="M41" s="79"/>
+      <c r="N41" s="79"/>
+      <c r="O41" s="80"/>
+      <c r="P41" s="81"/>
+      <c r="Q41" s="82"/>
+      <c r="R41" s="82"/>
+      <c r="S41" s="82"/>
+      <c r="T41" s="82"/>
+      <c r="U41" s="82"/>
+      <c r="V41" s="82"/>
+      <c r="W41" s="82"/>
+      <c r="X41" s="82"/>
+      <c r="Y41" s="82"/>
+      <c r="Z41" s="82"/>
+      <c r="AA41" s="82"/>
+      <c r="AB41" s="82"/>
+      <c r="AC41" s="83"/>
+      <c r="AD41" s="82"/>
+      <c r="AE41" s="82"/>
+      <c r="AF41" s="82"/>
+      <c r="AG41" s="82"/>
+      <c r="AH41" s="82"/>
+      <c r="AI41" s="84"/>
+      <c r="AJ41" s="44"/>
+    </row>
+    <row r="42" spans="1:36" ht="17.100000000000001" customHeight="1">
+      <c r="A42" s="45"/>
+      <c r="B42" s="85"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="86"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="86"/>
+      <c r="H42" s="86"/>
+      <c r="I42" s="86"/>
+      <c r="J42" s="86"/>
+      <c r="K42" s="86"/>
+      <c r="L42" s="86"/>
+      <c r="M42" s="86"/>
+      <c r="N42" s="87"/>
+      <c r="O42" t="s" s="88">
+        <v>18</v>
+      </c>
+      <c r="P42" s="89"/>
+      <c r="Q42" s="90"/>
+      <c r="R42" s="90"/>
+      <c r="S42" s="90"/>
+      <c r="T42" s="90"/>
+      <c r="U42" s="90"/>
+      <c r="V42" s="90"/>
+      <c r="W42" s="90"/>
+      <c r="X42" s="90"/>
+      <c r="Y42" s="90"/>
+      <c r="Z42" s="90"/>
+      <c r="AA42" s="90"/>
+      <c r="AB42" s="91"/>
+      <c r="AC42" s="92"/>
+      <c r="AD42" s="91"/>
+      <c r="AE42" s="91"/>
+      <c r="AF42" s="91"/>
+      <c r="AG42" s="91"/>
+      <c r="AH42" s="91"/>
+      <c r="AI42" s="93"/>
+      <c r="AJ42" s="44"/>
+    </row>
+    <row r="43" spans="1:36" ht="26.25" customHeight="1">
+      <c r="A43" s="45"/>
+      <c r="B43" t="s" s="94">
+        <v>19</v>
+      </c>
+      <c r="C43" s="95"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="95"/>
+      <c r="G43" s="95"/>
+      <c r="H43" s="95"/>
+      <c r="I43" s="95"/>
+      <c r="J43" s="95"/>
+      <c r="K43" s="95"/>
+      <c r="L43" s="95"/>
+      <c r="M43" s="95"/>
+      <c r="N43" s="96"/>
+      <c r="O43" t="s" s="88">
+        <v>20</v>
+      </c>
+      <c r="P43" s="97"/>
+      <c r="Q43" s="97"/>
+      <c r="R43" s="97"/>
+      <c r="S43" s="97"/>
+      <c r="T43" s="97"/>
+      <c r="U43" s="97"/>
+      <c r="V43" s="97"/>
+      <c r="W43" s="98"/>
+      <c r="X43" s="98"/>
+      <c r="Y43" s="98"/>
+      <c r="Z43" s="98"/>
+      <c r="AA43" s="98"/>
+      <c r="AB43" s="98"/>
+      <c r="AC43" s="99"/>
+      <c r="AD43" s="98"/>
+      <c r="AE43" s="98"/>
+      <c r="AF43" s="98"/>
+      <c r="AG43" s="98"/>
+      <c r="AH43" s="98"/>
+      <c r="AI43" s="98"/>
+      <c r="AJ43" s="44"/>
+    </row>
+    <row r="44" spans="1:36" ht="23.1" customHeight="1">
+      <c r="A44" s="45"/>
+      <c r="B44" s="47"/>
+      <c r="C44" t="s" s="47">
+        <v>21</v>
+      </c>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="100"/>
+      <c r="H44" s="100"/>
+      <c r="I44" s="100"/>
+      <c r="J44" s="100"/>
+      <c r="K44" s="100"/>
+      <c r="L44" s="100"/>
+      <c r="M44" s="100"/>
+      <c r="N44" s="100"/>
+      <c r="O44" s="101"/>
+      <c r="P44" t="s" s="102">
+        <v>22</v>
+      </c>
+      <c r="Q44" t="s" s="102">
+        <v>22</v>
+      </c>
+      <c r="R44" t="s" s="102">
+        <v>22</v>
+      </c>
+      <c r="S44" t="s" s="102">
+        <v>22</v>
+      </c>
+      <c r="T44" s="102"/>
+      <c r="U44" s="102"/>
+      <c r="V44" s="102"/>
+      <c r="W44" s="102"/>
+      <c r="X44" s="102"/>
+      <c r="Y44" s="102"/>
+      <c r="Z44" s="102"/>
+      <c r="AA44" s="102"/>
+      <c r="AB44" s="102"/>
+      <c r="AC44" s="102"/>
+      <c r="AD44" s="102"/>
+      <c r="AE44" s="102"/>
+      <c r="AF44" s="102"/>
+      <c r="AG44" s="102"/>
+      <c r="AH44" s="102"/>
+      <c r="AI44" s="102"/>
+      <c r="AJ44" s="44"/>
+    </row>
+    <row r="45" spans="1:36" ht="19.5" customHeight="1">
+      <c r="A45" s="45"/>
+      <c r="B45" t="s" s="96">
+        <v>23</v>
+      </c>
+      <c r="C45" s="96"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="96"/>
+      <c r="F45" s="96"/>
+      <c r="G45" s="96"/>
+      <c r="H45" s="96"/>
+      <c r="I45" s="96"/>
+      <c r="J45" s="96"/>
+      <c r="K45" s="96"/>
+      <c r="L45" s="96"/>
+      <c r="M45" s="96"/>
+      <c r="N45" s="96"/>
+      <c r="O45" s="103"/>
+      <c r="P45" s="57"/>
+      <c r="Q45" s="57"/>
+      <c r="R45" s="57"/>
+      <c r="S45" s="57"/>
+      <c r="T45" s="57"/>
+      <c r="U45" s="57"/>
+      <c r="V45" s="57"/>
+      <c r="W45" s="57"/>
+      <c r="X45" s="57"/>
+      <c r="Y45" t="s" s="155">
+        <v>24</v>
+      </c>
+      <c r="Z45" s="155"/>
+      <c r="AA45" s="155"/>
+      <c r="AB45" s="156"/>
+      <c r="AC45" s="156"/>
+      <c r="AD45" s="156"/>
+      <c r="AE45" s="156"/>
+      <c r="AF45" s="157"/>
+      <c r="AG45" s="157"/>
+      <c r="AH45" s="157"/>
+      <c r="AI45" s="157"/>
+      <c r="AJ45" s="44"/>
+    </row>
+    <row r="46" spans="1:36" ht="19.5" customHeight="1">
+      <c r="A46" s="45"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="34"/>
+      <c r="N46" s="34"/>
+      <c r="O46" s="104"/>
+      <c r="P46" s="105"/>
+      <c r="Q46" s="96"/>
+      <c r="R46" s="96"/>
+      <c r="S46" s="96"/>
+      <c r="T46" s="96"/>
+      <c r="U46" s="96"/>
+      <c r="V46" s="96"/>
+      <c r="W46" s="106"/>
+      <c r="X46" s="106"/>
+      <c r="Y46" t="s" s="155">
+        <v>25</v>
+      </c>
+      <c r="Z46" s="155"/>
+      <c r="AA46" s="155"/>
+      <c r="AB46" s="156"/>
+      <c r="AC46" s="156"/>
+      <c r="AD46" s="156"/>
+      <c r="AE46" s="156"/>
+      <c r="AF46" s="157"/>
+      <c r="AG46" s="157"/>
+      <c r="AH46" s="157"/>
+      <c r="AI46" s="157"/>
+      <c r="AJ46" s="44"/>
+    </row>
+    <row r="47" spans="1:36" ht="19.5" customHeight="1">
+      <c r="A47" s="45"/>
+      <c r="B47" s="107"/>
+      <c r="C47" s="108"/>
+      <c r="D47" s="108"/>
+      <c r="E47" s="108"/>
+      <c r="F47" s="108"/>
+      <c r="G47" s="108"/>
+      <c r="H47" s="108"/>
+      <c r="I47" s="108"/>
+      <c r="J47" s="108"/>
+      <c r="K47" s="108"/>
+      <c r="L47" s="108"/>
+      <c r="M47" s="108"/>
+      <c r="N47" s="108"/>
+      <c r="O47" s="109"/>
+      <c r="P47" s="107"/>
+      <c r="Q47" s="108"/>
+      <c r="R47" s="108"/>
+      <c r="S47" s="108"/>
+      <c r="T47" s="108"/>
+      <c r="U47" s="108"/>
+      <c r="V47" s="108"/>
+      <c r="W47" s="110"/>
+      <c r="X47" s="110"/>
+      <c r="Y47" t="s" s="155">
+        <v>26</v>
+      </c>
+      <c r="Z47" s="155"/>
+      <c r="AA47" s="155"/>
+      <c r="AB47" s="146"/>
+      <c r="AC47" s="147"/>
+      <c r="AD47" s="147"/>
+      <c r="AE47" s="148"/>
+      <c r="AF47" s="157"/>
+      <c r="AG47" s="157"/>
+      <c r="AH47" s="157"/>
+      <c r="AI47" s="157"/>
+      <c r="AJ47" s="44"/>
+    </row>
+    <row r="48" spans="1:36" ht="17.100000000000001" customHeight="1">
+      <c r="A48" s="45"/>
+      <c r="B48" s="107"/>
+      <c r="C48" t="s" s="108">
+        <v>27</v>
+      </c>
+      <c r="D48" s="108"/>
+      <c r="E48" s="108"/>
+      <c r="F48" s="108"/>
+      <c r="G48" s="108"/>
+      <c r="H48" s="108"/>
+      <c r="I48" s="108"/>
+      <c r="J48" s="108"/>
+      <c r="K48" s="108"/>
+      <c r="L48" s="108"/>
+      <c r="M48" s="108"/>
+      <c r="N48" s="108"/>
+      <c r="O48" s="108"/>
+      <c r="P48" s="108"/>
+      <c r="Q48" s="108"/>
+      <c r="R48" s="108"/>
+      <c r="S48" s="108"/>
+      <c r="T48" s="108"/>
+      <c r="U48" s="109"/>
+      <c r="V48" t="s" s="111">
+        <v>28</v>
+      </c>
+      <c r="W48" s="47"/>
+      <c r="X48" s="111"/>
+      <c r="Y48" s="100"/>
+      <c r="Z48" s="100"/>
+      <c r="AA48" s="101"/>
+      <c r="AB48" s="158">
+        <f>AG6</f>
+      </c>
+      <c r="AC48" s="159"/>
+      <c r="AD48" s="159"/>
+      <c r="AE48" t="s" s="147">
+        <v>29</v>
+      </c>
+      <c r="AF48" s="147"/>
+      <c r="AG48" s="160">
+        <f>AI6</f>
+      </c>
+      <c r="AH48" s="160"/>
+      <c r="AI48" s="161"/>
+      <c r="AJ48" s="44"/>
+    </row>
+    <row r="49" ht="6" customHeight="1"/>
+    <row r="50" ht="17.100000000000001" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="57">
+    <mergeCell ref="C38:O38"/>
+    <mergeCell ref="C39:O39"/>
+    <mergeCell ref="C33:O33"/>
+    <mergeCell ref="C34:O34"/>
+    <mergeCell ref="C35:O35"/>
+    <mergeCell ref="C36:O36"/>
+    <mergeCell ref="C37:O37"/>
+    <mergeCell ref="Y47:AA47"/>
+    <mergeCell ref="AB47:AE47"/>
+    <mergeCell ref="AF47:AI47"/>
+    <mergeCell ref="AB48:AD48"/>
+    <mergeCell ref="AE48:AF48"/>
+    <mergeCell ref="AG48:AI48"/>
+    <mergeCell ref="Y45:AA45"/>
+    <mergeCell ref="AB45:AE45"/>
+    <mergeCell ref="AF45:AI45"/>
+    <mergeCell ref="Y46:AA46"/>
+    <mergeCell ref="AB46:AE46"/>
+    <mergeCell ref="AF46:AI46"/>
+    <mergeCell ref="AA6:AF6"/>
+    <mergeCell ref="B8:B26"/>
+    <mergeCell ref="B27:B40"/>
+    <mergeCell ref="C8:O8"/>
+    <mergeCell ref="C9:O9"/>
+    <mergeCell ref="C10:O10"/>
+    <mergeCell ref="C11:O11"/>
+    <mergeCell ref="C12:O12"/>
+    <mergeCell ref="C13:O13"/>
+    <mergeCell ref="C14:O14"/>
+    <mergeCell ref="C15:O15"/>
+    <mergeCell ref="C16:O16"/>
+    <mergeCell ref="C17:O17"/>
+    <mergeCell ref="C18:O18"/>
+    <mergeCell ref="C19:O19"/>
+    <mergeCell ref="C20:O20"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:Z2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="P3:Z3"/>
+    <mergeCell ref="AA3:AC5"/>
+    <mergeCell ref="AD3:AF5"/>
+    <mergeCell ref="AG3:AI5"/>
+    <mergeCell ref="P4:Z4"/>
+    <mergeCell ref="P5:Z5"/>
+    <mergeCell ref="C21:O21"/>
+    <mergeCell ref="C22:O22"/>
+    <mergeCell ref="C23:O23"/>
+    <mergeCell ref="C24:O24"/>
+    <mergeCell ref="C25:O25"/>
+    <mergeCell ref="C32:O32"/>
+    <mergeCell ref="C27:O27"/>
+    <mergeCell ref="C28:O28"/>
+    <mergeCell ref="C29:O29"/>
+    <mergeCell ref="C30:O30"/>
+    <mergeCell ref="C31:O31"/>
+  </mergeCells>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <printOptions gridLinesSet="0"/>
+  <pageMargins left="0.39370078740157483" right="0" top="0.78740157480314965" bottom="0.39370078740157483" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;R〔規定番号〕ＳーＰ０４(Ｒｅｖ１.1)</oddHeader>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961F266A-B1EB-4F19-84A2-CD1F09B9F4D9}">
+  <sheetPr codeName="Sheet1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:O30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.875" style="23" customWidth="1"/>
+    <col min="2" max="14" width="3.625" style="23" customWidth="1"/>
+    <col min="15" max="15" width="20.375" style="23" customWidth="1"/>
+    <col min="16" max="28" width="3.625" style="23" customWidth="1"/>
+    <col min="29" max="29" width="3.625" style="24" customWidth="1"/>
+    <col min="30" max="35" width="3.625" style="23" customWidth="1"/>
+    <col min="36" max="36" width="1.875" style="23" customWidth="1"/>
+    <col min="37" max="16384" width="9.875" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" ht="6" customHeight="1" thickBot="1"/>
+    <row r="2" spans="1:36" ht="18.95" customHeight="1" thickBot="1">
+      <c r="K2" t="s" s="25">
+        <v>0</v>
+      </c>
+      <c r="L2" s="25"/>
+      <c r="M2" s="139">
+        <v>1</v>
+      </c>
+      <c r="N2" s="140"/>
+      <c r="O2" s="26"/>
+      <c r="P2" t="s" s="141">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="142"/>
+      <c r="R2" s="142"/>
+      <c r="S2" s="142"/>
+      <c r="T2" s="142"/>
+      <c r="U2" s="142"/>
+      <c r="V2" s="142"/>
+      <c r="W2" s="142"/>
+      <c r="X2" s="142"/>
+      <c r="Y2" s="142"/>
+      <c r="Z2" s="143"/>
+      <c r="AA2" t="s" s="144">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="145"/>
+      <c r="AC2" s="140"/>
+      <c r="AD2" t="s" s="139">
+        <v>13</v>
+      </c>
+      <c r="AE2" s="145"/>
+      <c r="AF2" s="140"/>
+      <c r="AG2" t="s" s="139">
+        <v>14</v>
+      </c>
+      <c r="AH2" s="145"/>
+      <c r="AI2" s="140"/>
+    </row>
+    <row r="3" spans="1:36" ht="18.95" customHeight="1">
+      <c r="B3" s="27"/>
+      <c r="C3" t="s" s="28">
+        <v>3</v>
+      </c>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="32"/>
+      <c r="K3" t="s" s="33">
+        <v>4</v>
+      </c>
+      <c r="O3" s="34"/>
+      <c r="P3" s="121"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="122"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="122"/>
+      <c r="U3" s="122"/>
+      <c r="V3" s="122"/>
+      <c r="W3" s="122"/>
+      <c r="X3" s="122"/>
+      <c r="Y3" s="122"/>
+      <c r="Z3" s="123"/>
+      <c r="AA3" s="124"/>
+      <c r="AB3" s="125"/>
+      <c r="AC3" s="126"/>
+      <c r="AD3" s="124"/>
+      <c r="AE3" s="125"/>
+      <c r="AF3" s="126"/>
+      <c r="AG3" s="124"/>
+      <c r="AH3" s="125"/>
+      <c r="AI3" s="126"/>
+    </row>
+    <row r="4" spans="1:36" ht="24" customHeight="1" thickBot="1">
+      <c r="B4" s="35"/>
+      <c r="C4" t="s" s="36">
+        <v>5</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="38"/>
+      <c r="K4" t="s" s="33">
+        <v>6</v>
+      </c>
+      <c r="O4" s="34"/>
+      <c r="P4" s="133"/>
+      <c r="Q4" s="134"/>
+      <c r="R4" s="134"/>
+      <c r="S4" s="134"/>
+      <c r="T4" s="134"/>
+      <c r="U4" s="134"/>
+      <c r="V4" s="134"/>
+      <c r="W4" s="134"/>
+      <c r="X4" s="134"/>
+      <c r="Y4" s="134"/>
+      <c r="Z4" s="135"/>
+      <c r="AA4" s="127"/>
+      <c r="AB4" s="128"/>
+      <c r="AC4" s="129"/>
+      <c r="AD4" s="127"/>
+      <c r="AE4" s="128"/>
+      <c r="AF4" s="129"/>
+      <c r="AG4" s="127"/>
+      <c r="AH4" s="128"/>
+      <c r="AI4" s="129"/>
+    </row>
+    <row r="5" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
+      <c r="C5" s="39"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="33"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="136"/>
+      <c r="Q5" s="137"/>
+      <c r="R5" s="137"/>
+      <c r="S5" s="137"/>
+      <c r="T5" s="137"/>
+      <c r="U5" s="137"/>
+      <c r="V5" s="137"/>
+      <c r="W5" s="137"/>
+      <c r="X5" s="137"/>
+      <c r="Y5" s="137"/>
+      <c r="Z5" s="138"/>
+      <c r="AA5" s="130"/>
+      <c r="AB5" s="131"/>
+      <c r="AC5" s="132"/>
+      <c r="AD5" s="130"/>
+      <c r="AE5" s="131"/>
+      <c r="AF5" s="132"/>
+      <c r="AG5" s="130"/>
+      <c r="AH5" s="131"/>
+      <c r="AI5" s="132"/>
+    </row>
+    <row r="6" spans="1:36" ht="21" customHeight="1">
+      <c r="AA6" t="s" s="146">
+        <v>7</v>
+      </c>
+      <c r="AB6" s="147"/>
+      <c r="AC6" s="147"/>
+      <c r="AD6" s="147"/>
+      <c r="AE6" s="147"/>
+      <c r="AF6" s="148"/>
+      <c r="AG6" s="41">
+        <v>1</v>
+      </c>
+      <c r="AH6" t="s" s="42">
+        <v>8</v>
+      </c>
+      <c r="AI6" s="43">
+        <v>18</v>
+      </c>
+      <c r="AJ6" s="44"/>
+    </row>
+    <row r="7" spans="1:36" ht="99.6" customHeight="1">
+      <c r="A7" s="45"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="48"/>
+      <c r="P7" t="s" s="49">
+        <v>9</v>
+      </c>
+      <c r="Q7" t="s" s="49">
+        <v>10</v>
+      </c>
+      <c r="R7" t="s" s="49">
+        <v>11</v>
+      </c>
+      <c r="S7" t="s" s="49">
+        <v>12</v>
+      </c>
+      <c r="T7" t="s" s="49">
+        <v>30</v>
+      </c>
+      <c r="U7" t="s" s="49">
+        <v>31</v>
+      </c>
+      <c r="V7" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="W7" t="s" s="49">
+        <v>33</v>
+      </c>
+      <c r="X7" t="s" s="49">
+        <v>34</v>
+      </c>
+      <c r="Y7" t="s" s="49">
+        <v>35</v>
+      </c>
+      <c r="Z7" t="s" s="49">
+        <v>36</v>
+      </c>
+      <c r="AA7" t="s" s="49">
+        <v>37</v>
+      </c>
+      <c r="AB7" t="s" s="49">
+        <v>38</v>
+      </c>
+      <c r="AC7" t="s" s="49">
+        <v>39</v>
+      </c>
+      <c r="AD7" t="s" s="49">
+        <v>40</v>
+      </c>
+      <c r="AE7" t="s" s="49">
+        <v>41</v>
+      </c>
+      <c r="AF7" t="s" s="49">
+        <v>42</v>
+      </c>
+      <c r="AG7" t="s" s="49">
+        <v>43</v>
+      </c>
+      <c r="AH7" s="50"/>
+      <c r="AI7" s="50"/>
+      <c r="AJ7" s="44"/>
+    </row>
+    <row r="8" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A8" s="51"/>
+      <c r="B8" t="s" s="149">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s" s="261">
+        <v>70</v>
+      </c>
+      <c r="D8" s="153"/>
+      <c r="E8" s="153"/>
+      <c r="F8" s="153"/>
+      <c r="G8" s="153"/>
+      <c r="H8" s="153"/>
+      <c r="I8" s="153"/>
+      <c r="J8" s="153"/>
+      <c r="K8" s="153"/>
+      <c r="L8" s="153"/>
+      <c r="M8" s="153"/>
+      <c r="N8" s="153"/>
+      <c r="O8" s="154"/>
+      <c r="P8" t="s" s="262">
+        <v>45</v>
+      </c>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="52"/>
+      <c r="AC8" s="53"/>
+      <c r="AD8" s="54"/>
+      <c r="AE8" s="52"/>
+      <c r="AF8" s="52"/>
+      <c r="AG8" s="52"/>
+      <c r="AH8" s="52"/>
+      <c r="AI8" s="55"/>
+      <c r="AJ8" s="56"/>
+    </row>
+    <row r="9" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A9" s="51"/>
+      <c r="B9" s="150"/>
+      <c r="C9" t="s" s="263">
+        <v>71</v>
+      </c>
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="119"/>
+      <c r="M9" s="119"/>
+      <c r="N9" s="119"/>
+      <c r="O9" s="120"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" t="s" s="264">
+        <v>45</v>
+      </c>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="58"/>
+      <c r="AC9" s="59"/>
+      <c r="AD9" s="60"/>
+      <c r="AE9" s="58"/>
+      <c r="AF9" s="58"/>
+      <c r="AG9" s="58"/>
+      <c r="AH9" s="58"/>
+      <c r="AI9" s="61"/>
+      <c r="AJ9" s="56"/>
+    </row>
+    <row r="10" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A10" s="51"/>
+      <c r="B10" s="150"/>
+      <c r="C10" t="s" s="265">
+        <v>71</v>
+      </c>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="119"/>
+      <c r="M10" s="119"/>
+      <c r="N10" s="119"/>
+      <c r="O10" s="120"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" t="s" s="266">
+        <v>45</v>
+      </c>
+      <c r="S10" s="6"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="62"/>
+      <c r="AC10" s="63"/>
+      <c r="AD10" s="62"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="64"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="65"/>
+      <c r="AJ10" s="56"/>
+    </row>
+    <row r="11" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A11" s="51"/>
+      <c r="B11" s="150"/>
+      <c r="C11" t="s" s="267">
+        <v>71</v>
+      </c>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="119"/>
+      <c r="L11" s="119"/>
+      <c r="M11" s="119"/>
+      <c r="N11" s="119"/>
+      <c r="O11" s="120"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" t="s" s="268">
+        <v>45</v>
+      </c>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="62"/>
+      <c r="Z11" s="62"/>
+      <c r="AA11" s="62"/>
+      <c r="AB11" s="62"/>
+      <c r="AC11" s="63"/>
+      <c r="AD11" s="62"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="64"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="65"/>
+      <c r="AJ11" s="56"/>
+    </row>
+    <row r="12" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A12" s="51"/>
+      <c r="B12" s="150"/>
+      <c r="C12" t="s" s="269">
+        <v>71</v>
+      </c>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="119"/>
+      <c r="K12" s="119"/>
+      <c r="L12" s="119"/>
+      <c r="M12" s="119"/>
+      <c r="N12" s="119"/>
+      <c r="O12" s="120"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" t="s" s="270">
+        <v>45</v>
+      </c>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="64"/>
+      <c r="AI12" s="65"/>
+      <c r="AJ12" s="56"/>
+    </row>
+    <row r="13" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A13" s="51"/>
+      <c r="B13" s="150"/>
+      <c r="C13" t="s" s="271">
+        <v>71</v>
+      </c>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="119"/>
+      <c r="L13" s="119"/>
+      <c r="M13" s="119"/>
+      <c r="N13" s="119"/>
+      <c r="O13" s="120"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" t="s" s="272">
+        <v>45</v>
+      </c>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="64"/>
+      <c r="AI13" s="65"/>
+      <c r="AJ13" s="56"/>
+    </row>
+    <row r="14" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A14" s="51"/>
+      <c r="B14" s="150"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="119"/>
+      <c r="K14" s="119"/>
+      <c r="L14" s="119"/>
+      <c r="M14" s="119"/>
+      <c r="N14" s="119"/>
+      <c r="O14" s="120"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="64"/>
+      <c r="AI14" s="65"/>
+      <c r="AJ14" s="56"/>
+    </row>
+    <row r="15" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A15" s="51"/>
+      <c r="B15" s="150"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="119"/>
+      <c r="J15" s="119"/>
+      <c r="K15" s="119"/>
+      <c r="L15" s="119"/>
+      <c r="M15" s="119"/>
+      <c r="N15" s="119"/>
+      <c r="O15" s="120"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="64"/>
+      <c r="AI15" s="65"/>
+      <c r="AJ15" s="56"/>
+    </row>
+    <row r="16" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A16" s="51"/>
+      <c r="B16" s="150"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="119"/>
+      <c r="J16" s="119"/>
+      <c r="K16" s="119"/>
+      <c r="L16" s="119"/>
+      <c r="M16" s="119"/>
+      <c r="N16" s="119"/>
+      <c r="O16" s="120"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="64"/>
+      <c r="AI16" s="65"/>
+      <c r="AJ16" s="56"/>
+    </row>
+    <row r="17" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A17" s="51"/>
+      <c r="B17" s="150"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="119"/>
+      <c r="I17" s="119"/>
+      <c r="J17" s="119"/>
+      <c r="K17" s="119"/>
+      <c r="L17" s="119"/>
+      <c r="M17" s="119"/>
+      <c r="N17" s="119"/>
+      <c r="O17" s="120"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="64"/>
+      <c r="AI17" s="65"/>
+      <c r="AJ17" s="56"/>
+    </row>
+    <row r="18" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A18" s="51"/>
+      <c r="B18" s="150"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="119"/>
+      <c r="J18" s="119"/>
+      <c r="K18" s="119"/>
+      <c r="L18" s="119"/>
+      <c r="M18" s="119"/>
+      <c r="N18" s="119"/>
+      <c r="O18" s="120"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="64"/>
+      <c r="AI18" s="65"/>
+      <c r="AJ18" s="56"/>
+    </row>
+    <row r="19" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A19" s="51"/>
+      <c r="B19" s="150"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="119"/>
+      <c r="J19" s="119"/>
+      <c r="K19" s="119"/>
+      <c r="L19" s="119"/>
+      <c r="M19" s="119"/>
+      <c r="N19" s="119"/>
+      <c r="O19" s="120"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="64"/>
+      <c r="AI19" s="65"/>
+      <c r="AJ19" s="56"/>
+    </row>
+    <row r="20" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A20" s="51"/>
+      <c r="B20" s="150"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="119"/>
+      <c r="J20" s="119"/>
+      <c r="K20" s="119"/>
+      <c r="L20" s="119"/>
+      <c r="M20" s="119"/>
+      <c r="N20" s="119"/>
+      <c r="O20" s="120"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="64"/>
+      <c r="AI20" s="65"/>
+      <c r="AJ20" s="56"/>
+    </row>
+    <row r="21" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A21" s="51"/>
+      <c r="B21" s="150"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="119"/>
+      <c r="J21" s="119"/>
+      <c r="K21" s="119"/>
+      <c r="L21" s="119"/>
+      <c r="M21" s="119"/>
+      <c r="N21" s="119"/>
+      <c r="O21" s="120"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="64"/>
+      <c r="AI21" s="65"/>
+      <c r="AJ21" s="56"/>
+    </row>
+    <row r="22" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A22" s="51"/>
+      <c r="B22" s="150"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="119"/>
+      <c r="J22" s="119"/>
+      <c r="K22" s="119"/>
+      <c r="L22" s="119"/>
+      <c r="M22" s="119"/>
+      <c r="N22" s="119"/>
+      <c r="O22" s="120"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="64"/>
+      <c r="AI22" s="65"/>
+      <c r="AJ22" s="56"/>
+    </row>
+    <row r="23" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A23" s="51"/>
+      <c r="B23" s="150"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="119"/>
+      <c r="H23" s="119"/>
+      <c r="I23" s="119"/>
+      <c r="J23" s="119"/>
+      <c r="K23" s="119"/>
+      <c r="L23" s="119"/>
+      <c r="M23" s="119"/>
+      <c r="N23" s="119"/>
+      <c r="O23" s="120"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="64"/>
+      <c r="AI23" s="65"/>
+      <c r="AJ23" s="56"/>
+    </row>
+    <row r="24" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A24" s="51"/>
+      <c r="B24" s="150"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="119"/>
+      <c r="H24" s="119"/>
+      <c r="I24" s="119"/>
+      <c r="J24" s="119"/>
+      <c r="K24" s="119"/>
+      <c r="L24" s="119"/>
+      <c r="M24" s="119"/>
+      <c r="N24" s="119"/>
+      <c r="O24" s="120"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="6"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="64"/>
+      <c r="AI24" s="65"/>
+      <c r="AJ24" s="56"/>
+    </row>
+    <row r="25" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A25" s="51"/>
+      <c r="B25" s="150"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="119"/>
+      <c r="H25" s="119"/>
+      <c r="I25" s="119"/>
+      <c r="J25" s="119"/>
+      <c r="K25" s="119"/>
+      <c r="L25" s="119"/>
+      <c r="M25" s="119"/>
+      <c r="N25" s="119"/>
+      <c r="O25" s="120"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="6"/>
+      <c r="AE25" s="6"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="64"/>
+      <c r="AI25" s="65"/>
+      <c r="AJ25" s="56"/>
+    </row>
+    <row r="26" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A26" s="51"/>
+      <c r="B26" s="150"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="67"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="16"/>
+      <c r="AC26" s="17"/>
+      <c r="AD26" s="67"/>
+      <c r="AE26" s="16"/>
+      <c r="AF26" s="16"/>
+      <c r="AG26" s="16"/>
+      <c r="AH26" s="68"/>
+      <c r="AI26" s="69"/>
+      <c r="AJ26" s="56"/>
+    </row>
+    <row r="27" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A27" s="51"/>
+      <c r="B27" t="s" s="149">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s" s="273">
+        <v>51</v>
+      </c>
+      <c r="D27" s="163"/>
+      <c r="E27" s="163"/>
+      <c r="F27" s="163"/>
+      <c r="G27" s="163"/>
+      <c r="H27" s="163"/>
+      <c r="I27" s="163"/>
+      <c r="J27" s="163"/>
+      <c r="K27" s="163"/>
+      <c r="L27" s="163"/>
+      <c r="M27" s="163"/>
+      <c r="N27" s="163"/>
+      <c r="O27" s="164"/>
+      <c r="P27" t="s" s="274">
+        <v>45</v>
+      </c>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="53"/>
+      <c r="AD27" s="54"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="52"/>
+      <c r="AI27" s="55"/>
+      <c r="AJ27" s="56"/>
+    </row>
+    <row r="28" spans="1:36" s="57" customFormat="1">
+      <c r="A28" s="51"/>
+      <c r="B28" s="150"/>
+      <c r="C28" t="s" s="275">
+        <v>51</v>
+      </c>
+      <c r="D28" s="116"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="116"/>
+      <c r="I28" s="116"/>
+      <c r="J28" s="116"/>
+      <c r="K28" s="116"/>
+      <c r="L28" s="116"/>
+      <c r="M28" s="116"/>
+      <c r="N28" s="116"/>
+      <c r="O28" s="117"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" t="s" s="276">
+        <v>45</v>
+      </c>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="7"/>
+      <c r="AC28" s="7"/>
+      <c r="AD28" s="7"/>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="62"/>
+      <c r="AG28" s="8"/>
+      <c r="AH28" s="64"/>
+      <c r="AI28" s="65"/>
+      <c r="AJ28" s="56"/>
+    </row>
+    <row r="29" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A29" s="51"/>
+      <c r="B29" s="150"/>
+      <c r="C29" t="s" s="277">
+        <v>51</v>
+      </c>
+      <c r="D29" s="116"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="116"/>
+      <c r="H29" s="116"/>
+      <c r="I29" s="116"/>
+      <c r="J29" s="116"/>
+      <c r="K29" s="116"/>
+      <c r="L29" s="116"/>
+      <c r="M29" s="116"/>
+      <c r="N29" s="116"/>
+      <c r="O29" s="117"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" t="s" s="278">
+        <v>45</v>
+      </c>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="62"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7"/>
+      <c r="AC29" s="7"/>
+      <c r="AD29" s="7"/>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="62"/>
+      <c r="AG29" s="18"/>
+      <c r="AH29" s="70"/>
+      <c r="AI29" s="71"/>
+      <c r="AJ29" s="56"/>
+    </row>
+    <row r="30" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A30" s="51"/>
+      <c r="B30" s="150"/>
+      <c r="C30" t="s" s="279">
+        <v>51</v>
+      </c>
+      <c r="D30" s="116"/>
+      <c r="E30" s="116"/>
+      <c r="F30" s="116"/>
+      <c r="G30" s="116"/>
+      <c r="H30" s="116"/>
+      <c r="I30" s="116"/>
+      <c r="J30" s="116"/>
+      <c r="K30" s="116"/>
+      <c r="L30" s="116"/>
+      <c r="M30" s="116"/>
+      <c r="N30" s="116"/>
+      <c r="O30" s="117"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="6"/>
+      <c r="S30" t="s" s="280">
+        <v>45</v>
+      </c>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="7"/>
+      <c r="AF30" s="62"/>
+      <c r="AG30" s="8"/>
+      <c r="AH30" s="64"/>
+      <c r="AI30" s="65"/>
+      <c r="AJ30" s="56"/>
+    </row>
+    <row r="31" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A31" s="51"/>
+      <c r="B31" s="150"/>
+      <c r="C31" t="s" s="281">
+        <v>51</v>
+      </c>
+      <c r="D31" s="116"/>
+      <c r="E31" s="116"/>
+      <c r="F31" s="116"/>
+      <c r="G31" s="116"/>
+      <c r="H31" s="116"/>
+      <c r="I31" s="116"/>
+      <c r="J31" s="116"/>
+      <c r="K31" s="116"/>
+      <c r="L31" s="116"/>
+      <c r="M31" s="116"/>
+      <c r="N31" s="116"/>
+      <c r="O31" s="117"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="6"/>
+      <c r="T31" t="s" s="282">
+        <v>45</v>
+      </c>
+      <c r="U31" s="21"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="22"/>
+      <c r="AD31" s="72"/>
+      <c r="AE31" s="8"/>
+      <c r="AF31" s="8"/>
+      <c r="AG31" s="8"/>
+      <c r="AH31" s="64"/>
+      <c r="AI31" s="65"/>
+      <c r="AJ31" s="56"/>
+    </row>
+    <row r="32" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A32" s="51"/>
+      <c r="B32" s="150"/>
+      <c r="C32" t="s" s="283">
+        <v>51</v>
+      </c>
+      <c r="D32" s="116"/>
+      <c r="E32" s="116"/>
+      <c r="F32" s="116"/>
+      <c r="G32" s="116"/>
+      <c r="H32" s="116"/>
+      <c r="I32" s="116"/>
+      <c r="J32" s="116"/>
+      <c r="K32" s="116"/>
+      <c r="L32" s="116"/>
+      <c r="M32" s="116"/>
+      <c r="N32" s="116"/>
+      <c r="O32" s="117"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="21"/>
+      <c r="U32" t="s" s="284">
+        <v>45</v>
+      </c>
+      <c r="V32" s="21"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="22"/>
+      <c r="AD32" s="72"/>
+      <c r="AE32" s="8"/>
+      <c r="AF32" s="8"/>
+      <c r="AG32" s="8"/>
+      <c r="AH32" s="64"/>
+      <c r="AI32" s="65"/>
+      <c r="AJ32" s="56"/>
+    </row>
+    <row r="33" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A33" s="51"/>
+      <c r="B33" s="150"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="116"/>
+      <c r="E33" s="116"/>
+      <c r="F33" s="116"/>
+      <c r="G33" s="116"/>
+      <c r="H33" s="116"/>
+      <c r="I33" s="116"/>
+      <c r="J33" s="116"/>
+      <c r="K33" s="116"/>
+      <c r="L33" s="116"/>
+      <c r="M33" s="116"/>
+      <c r="N33" s="116"/>
+      <c r="O33" s="117"/>
+      <c r="P33" s="112"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="18"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="18"/>
+      <c r="X33" s="18"/>
+      <c r="Y33" s="18"/>
+      <c r="Z33" s="18"/>
+      <c r="AA33" s="18"/>
+      <c r="AB33" s="18"/>
+      <c r="AC33" s="113"/>
+      <c r="AD33" s="114"/>
+      <c r="AE33" s="18"/>
+      <c r="AF33" s="18"/>
+      <c r="AG33" s="18"/>
+      <c r="AH33" s="70"/>
+      <c r="AI33" s="71"/>
+      <c r="AJ33" s="56"/>
+    </row>
+    <row r="34" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A34" s="51"/>
+      <c r="B34" s="150"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="116"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="116"/>
+      <c r="K34" s="116"/>
+      <c r="L34" s="116"/>
+      <c r="M34" s="116"/>
+      <c r="N34" s="116"/>
+      <c r="O34" s="117"/>
+      <c r="P34" s="112"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="21"/>
+      <c r="W34" s="18"/>
+      <c r="X34" s="18"/>
+      <c r="Y34" s="18"/>
+      <c r="Z34" s="18"/>
+      <c r="AA34" s="18"/>
+      <c r="AB34" s="18"/>
+      <c r="AC34" s="113"/>
+      <c r="AD34" s="114"/>
+      <c r="AE34" s="18"/>
+      <c r="AF34" s="18"/>
+      <c r="AG34" s="18"/>
+      <c r="AH34" s="70"/>
+      <c r="AI34" s="71"/>
+      <c r="AJ34" s="56"/>
+    </row>
+    <row r="35" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A35" s="51"/>
+      <c r="B35" s="150"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="116"/>
+      <c r="G35" s="116"/>
+      <c r="H35" s="116"/>
+      <c r="I35" s="116"/>
+      <c r="J35" s="116"/>
+      <c r="K35" s="116"/>
+      <c r="L35" s="116"/>
+      <c r="M35" s="116"/>
+      <c r="N35" s="116"/>
+      <c r="O35" s="117"/>
+      <c r="P35" s="112"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="18"/>
+      <c r="V35" s="21"/>
+      <c r="W35" s="18"/>
+      <c r="X35" s="18"/>
+      <c r="Y35" s="18"/>
+      <c r="Z35" s="18"/>
+      <c r="AA35" s="18"/>
+      <c r="AB35" s="18"/>
+      <c r="AC35" s="113"/>
+      <c r="AD35" s="114"/>
+      <c r="AE35" s="18"/>
+      <c r="AF35" s="18"/>
+      <c r="AG35" s="18"/>
+      <c r="AH35" s="70"/>
+      <c r="AI35" s="71"/>
+      <c r="AJ35" s="56"/>
+    </row>
+    <row r="36" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A36" s="51"/>
+      <c r="B36" s="150"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="116"/>
+      <c r="E36" s="116"/>
+      <c r="F36" s="116"/>
+      <c r="G36" s="116"/>
+      <c r="H36" s="116"/>
+      <c r="I36" s="116"/>
+      <c r="J36" s="116"/>
+      <c r="K36" s="116"/>
+      <c r="L36" s="116"/>
+      <c r="M36" s="116"/>
+      <c r="N36" s="116"/>
+      <c r="O36" s="117"/>
+      <c r="P36" s="112"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="21"/>
+      <c r="U36" s="18"/>
+      <c r="V36" s="21"/>
+      <c r="W36" s="18"/>
+      <c r="X36" s="18"/>
+      <c r="Y36" s="18"/>
+      <c r="Z36" s="18"/>
+      <c r="AA36" s="18"/>
+      <c r="AB36" s="18"/>
+      <c r="AC36" s="113"/>
+      <c r="AD36" s="114"/>
+      <c r="AE36" s="18"/>
+      <c r="AF36" s="18"/>
+      <c r="AG36" s="18"/>
+      <c r="AH36" s="70"/>
+      <c r="AI36" s="71"/>
+      <c r="AJ36" s="56"/>
+    </row>
+    <row r="37" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A37" s="51"/>
+      <c r="B37" s="150"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="116"/>
+      <c r="F37" s="116"/>
+      <c r="G37" s="116"/>
+      <c r="H37" s="116"/>
+      <c r="I37" s="116"/>
+      <c r="J37" s="116"/>
+      <c r="K37" s="116"/>
+      <c r="L37" s="116"/>
+      <c r="M37" s="116"/>
+      <c r="N37" s="116"/>
+      <c r="O37" s="117"/>
+      <c r="P37" s="112"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="21"/>
+      <c r="U37" s="18"/>
+      <c r="V37" s="21"/>
+      <c r="W37" s="18"/>
+      <c r="X37" s="18"/>
+      <c r="Y37" s="18"/>
+      <c r="Z37" s="18"/>
+      <c r="AA37" s="18"/>
+      <c r="AB37" s="18"/>
+      <c r="AC37" s="113"/>
+      <c r="AD37" s="114"/>
+      <c r="AE37" s="18"/>
+      <c r="AF37" s="18"/>
+      <c r="AG37" s="18"/>
+      <c r="AH37" s="70"/>
+      <c r="AI37" s="71"/>
+      <c r="AJ37" s="56"/>
+    </row>
+    <row r="38" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A38" s="51"/>
+      <c r="B38" s="150"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="116"/>
+      <c r="E38" s="116"/>
+      <c r="F38" s="116"/>
+      <c r="G38" s="116"/>
+      <c r="H38" s="116"/>
+      <c r="I38" s="116"/>
+      <c r="J38" s="116"/>
+      <c r="K38" s="116"/>
+      <c r="L38" s="116"/>
+      <c r="M38" s="116"/>
+      <c r="N38" s="116"/>
+      <c r="O38" s="117"/>
+      <c r="P38" s="112"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="21"/>
+      <c r="T38" s="21"/>
+      <c r="U38" s="18"/>
+      <c r="V38" s="21"/>
+      <c r="W38" s="18"/>
+      <c r="X38" s="18"/>
+      <c r="Y38" s="18"/>
+      <c r="Z38" s="18"/>
+      <c r="AA38" s="18"/>
+      <c r="AB38" s="18"/>
+      <c r="AC38" s="113"/>
+      <c r="AD38" s="114"/>
+      <c r="AE38" s="18"/>
+      <c r="AF38" s="18"/>
+      <c r="AG38" s="18"/>
+      <c r="AH38" s="70"/>
+      <c r="AI38" s="71"/>
+      <c r="AJ38" s="56"/>
+    </row>
+    <row r="39" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A39" s="51"/>
+      <c r="B39" s="150"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="116"/>
+      <c r="E39" s="116"/>
+      <c r="F39" s="116"/>
+      <c r="G39" s="116"/>
+      <c r="H39" s="116"/>
+      <c r="I39" s="116"/>
+      <c r="J39" s="116"/>
+      <c r="K39" s="116"/>
+      <c r="L39" s="116"/>
+      <c r="M39" s="116"/>
+      <c r="N39" s="116"/>
+      <c r="O39" s="117"/>
+      <c r="P39" s="112"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="21"/>
+      <c r="W39" s="18"/>
+      <c r="X39" s="18"/>
+      <c r="Y39" s="18"/>
+      <c r="Z39" s="18"/>
+      <c r="AA39" s="18"/>
+      <c r="AB39" s="18"/>
+      <c r="AC39" s="113"/>
+      <c r="AD39" s="114"/>
+      <c r="AE39" s="18"/>
+      <c r="AF39" s="18"/>
+      <c r="AG39" s="18"/>
+      <c r="AH39" s="70"/>
+      <c r="AI39" s="71"/>
+      <c r="AJ39" s="56"/>
+    </row>
+    <row r="40" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A40" s="51"/>
+      <c r="B40" s="151"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="74"/>
+      <c r="K40" s="74"/>
+      <c r="L40" s="74"/>
+      <c r="M40" s="74"/>
+      <c r="N40" s="74"/>
+      <c r="O40" s="75"/>
+      <c r="P40" s="76"/>
+      <c r="Q40" s="68"/>
+      <c r="R40" s="68"/>
+      <c r="S40" s="68"/>
+      <c r="T40" s="68"/>
+      <c r="U40" s="68"/>
+      <c r="V40" s="68"/>
+      <c r="W40" s="68"/>
+      <c r="X40" s="68"/>
+      <c r="Y40" s="68"/>
+      <c r="Z40" s="68"/>
+      <c r="AA40" s="68"/>
+      <c r="AB40" s="68"/>
+      <c r="AC40" s="77"/>
+      <c r="AD40" s="68"/>
+      <c r="AE40" s="68"/>
+      <c r="AF40" s="68"/>
+      <c r="AG40" s="68"/>
+      <c r="AH40" s="68"/>
+      <c r="AI40" s="69"/>
+      <c r="AJ40" s="56"/>
+    </row>
+    <row r="41" spans="1:36" ht="51" customHeight="1">
+      <c r="A41" s="45"/>
+      <c r="B41" s="78"/>
+      <c r="C41" t="s" s="79">
+        <v>15</v>
+      </c>
+      <c r="D41" s="79"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="79"/>
+      <c r="H41" s="79"/>
+      <c r="I41" s="79"/>
+      <c r="K41" s="79"/>
+      <c r="L41" s="79"/>
+      <c r="M41" s="79"/>
+      <c r="N41" s="79"/>
+      <c r="O41" s="80"/>
+      <c r="P41" s="81"/>
+      <c r="Q41" s="82"/>
+      <c r="R41" s="82"/>
+      <c r="S41" s="82"/>
+      <c r="T41" s="82"/>
+      <c r="U41" s="82"/>
+      <c r="V41" s="82"/>
+      <c r="W41" s="82"/>
+      <c r="X41" s="82"/>
+      <c r="Y41" s="82"/>
+      <c r="Z41" s="82"/>
+      <c r="AA41" s="82"/>
+      <c r="AB41" s="82"/>
+      <c r="AC41" s="83"/>
+      <c r="AD41" s="82"/>
+      <c r="AE41" s="82"/>
+      <c r="AF41" s="82"/>
+      <c r="AG41" s="82"/>
+      <c r="AH41" s="82"/>
+      <c r="AI41" s="84"/>
+      <c r="AJ41" s="44"/>
+    </row>
+    <row r="42" spans="1:36" ht="17.100000000000001" customHeight="1">
+      <c r="A42" s="45"/>
+      <c r="B42" s="85"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="86"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="86"/>
+      <c r="H42" s="86"/>
+      <c r="I42" s="86"/>
+      <c r="J42" s="86"/>
+      <c r="K42" s="86"/>
+      <c r="L42" s="86"/>
+      <c r="M42" s="86"/>
+      <c r="N42" s="87"/>
+      <c r="O42" t="s" s="88">
+        <v>18</v>
+      </c>
+      <c r="P42" s="89"/>
+      <c r="Q42" s="90"/>
+      <c r="R42" s="90"/>
+      <c r="S42" s="90"/>
+      <c r="T42" s="90"/>
+      <c r="U42" s="90"/>
+      <c r="V42" s="90"/>
+      <c r="W42" s="90"/>
+      <c r="X42" s="90"/>
+      <c r="Y42" s="90"/>
+      <c r="Z42" s="90"/>
+      <c r="AA42" s="90"/>
+      <c r="AB42" s="91"/>
+      <c r="AC42" s="92"/>
+      <c r="AD42" s="91"/>
+      <c r="AE42" s="91"/>
+      <c r="AF42" s="91"/>
+      <c r="AG42" s="91"/>
+      <c r="AH42" s="91"/>
+      <c r="AI42" s="93"/>
+      <c r="AJ42" s="44"/>
+    </row>
+    <row r="43" spans="1:36" ht="26.25" customHeight="1">
+      <c r="A43" s="45"/>
+      <c r="B43" t="s" s="94">
+        <v>19</v>
+      </c>
+      <c r="C43" s="95"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="95"/>
+      <c r="G43" s="95"/>
+      <c r="H43" s="95"/>
+      <c r="I43" s="95"/>
+      <c r="J43" s="95"/>
+      <c r="K43" s="95"/>
+      <c r="L43" s="95"/>
+      <c r="M43" s="95"/>
+      <c r="N43" s="96"/>
+      <c r="O43" t="s" s="88">
+        <v>20</v>
+      </c>
+      <c r="P43" s="97"/>
+      <c r="Q43" s="97"/>
+      <c r="R43" s="97"/>
+      <c r="S43" s="97"/>
+      <c r="T43" s="97"/>
+      <c r="U43" s="97"/>
+      <c r="V43" s="97"/>
+      <c r="W43" s="98"/>
+      <c r="X43" s="98"/>
+      <c r="Y43" s="98"/>
+      <c r="Z43" s="98"/>
+      <c r="AA43" s="98"/>
+      <c r="AB43" s="98"/>
+      <c r="AC43" s="99"/>
+      <c r="AD43" s="98"/>
+      <c r="AE43" s="98"/>
+      <c r="AF43" s="98"/>
+      <c r="AG43" s="98"/>
+      <c r="AH43" s="98"/>
+      <c r="AI43" s="98"/>
+      <c r="AJ43" s="44"/>
+    </row>
+    <row r="44" spans="1:36" ht="23.1" customHeight="1">
+      <c r="A44" s="45"/>
+      <c r="B44" s="47"/>
+      <c r="C44" t="s" s="47">
+        <v>21</v>
+      </c>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="100"/>
+      <c r="H44" s="100"/>
+      <c r="I44" s="100"/>
+      <c r="J44" s="100"/>
+      <c r="K44" s="100"/>
+      <c r="L44" s="100"/>
+      <c r="M44" s="100"/>
+      <c r="N44" s="100"/>
+      <c r="O44" s="101"/>
+      <c r="P44" t="s" s="102">
+        <v>22</v>
+      </c>
+      <c r="Q44" t="s" s="102">
+        <v>22</v>
+      </c>
+      <c r="R44" t="s" s="102">
+        <v>22</v>
+      </c>
+      <c r="S44" t="s" s="102">
+        <v>22</v>
+      </c>
+      <c r="T44" s="102"/>
+      <c r="U44" s="102"/>
+      <c r="V44" s="102"/>
+      <c r="W44" s="102"/>
+      <c r="X44" s="102"/>
+      <c r="Y44" s="102"/>
+      <c r="Z44" s="102"/>
+      <c r="AA44" s="102"/>
+      <c r="AB44" s="102"/>
+      <c r="AC44" s="102"/>
+      <c r="AD44" s="102"/>
+      <c r="AE44" s="102"/>
+      <c r="AF44" s="102"/>
+      <c r="AG44" s="102"/>
+      <c r="AH44" s="102"/>
+      <c r="AI44" s="102"/>
+      <c r="AJ44" s="44"/>
+    </row>
+    <row r="45" spans="1:36" ht="19.5" customHeight="1">
+      <c r="A45" s="45"/>
+      <c r="B45" t="s" s="96">
+        <v>23</v>
+      </c>
+      <c r="C45" s="96"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="96"/>
+      <c r="F45" s="96"/>
+      <c r="G45" s="96"/>
+      <c r="H45" s="96"/>
+      <c r="I45" s="96"/>
+      <c r="J45" s="96"/>
+      <c r="K45" s="96"/>
+      <c r="L45" s="96"/>
+      <c r="M45" s="96"/>
+      <c r="N45" s="96"/>
+      <c r="O45" s="103"/>
+      <c r="P45" s="57"/>
+      <c r="Q45" s="57"/>
+      <c r="R45" s="57"/>
+      <c r="S45" s="57"/>
+      <c r="T45" s="57"/>
+      <c r="U45" s="57"/>
+      <c r="V45" s="57"/>
+      <c r="W45" s="57"/>
+      <c r="X45" s="57"/>
+      <c r="Y45" t="s" s="155">
+        <v>24</v>
+      </c>
+      <c r="Z45" s="155"/>
+      <c r="AA45" s="155"/>
+      <c r="AB45" s="156"/>
+      <c r="AC45" s="156"/>
+      <c r="AD45" s="156"/>
+      <c r="AE45" s="156"/>
+      <c r="AF45" s="157"/>
+      <c r="AG45" s="157"/>
+      <c r="AH45" s="157"/>
+      <c r="AI45" s="157"/>
+      <c r="AJ45" s="44"/>
+    </row>
+    <row r="46" spans="1:36" ht="19.5" customHeight="1">
+      <c r="A46" s="45"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="34"/>
+      <c r="N46" s="34"/>
+      <c r="O46" s="104"/>
+      <c r="P46" s="105"/>
+      <c r="Q46" s="96"/>
+      <c r="R46" s="96"/>
+      <c r="S46" s="96"/>
+      <c r="T46" s="96"/>
+      <c r="U46" s="96"/>
+      <c r="V46" s="96"/>
+      <c r="W46" s="106"/>
+      <c r="X46" s="106"/>
+      <c r="Y46" t="s" s="155">
+        <v>25</v>
+      </c>
+      <c r="Z46" s="155"/>
+      <c r="AA46" s="155"/>
+      <c r="AB46" s="156"/>
+      <c r="AC46" s="156"/>
+      <c r="AD46" s="156"/>
+      <c r="AE46" s="156"/>
+      <c r="AF46" s="157"/>
+      <c r="AG46" s="157"/>
+      <c r="AH46" s="157"/>
+      <c r="AI46" s="157"/>
+      <c r="AJ46" s="44"/>
+    </row>
+    <row r="47" spans="1:36" ht="19.5" customHeight="1">
+      <c r="A47" s="45"/>
+      <c r="B47" s="107"/>
+      <c r="C47" s="108"/>
+      <c r="D47" s="108"/>
+      <c r="E47" s="108"/>
+      <c r="F47" s="108"/>
+      <c r="G47" s="108"/>
+      <c r="H47" s="108"/>
+      <c r="I47" s="108"/>
+      <c r="J47" s="108"/>
+      <c r="K47" s="108"/>
+      <c r="L47" s="108"/>
+      <c r="M47" s="108"/>
+      <c r="N47" s="108"/>
+      <c r="O47" s="109"/>
+      <c r="P47" s="107"/>
+      <c r="Q47" s="108"/>
+      <c r="R47" s="108"/>
+      <c r="S47" s="108"/>
+      <c r="T47" s="108"/>
+      <c r="U47" s="108"/>
+      <c r="V47" s="108"/>
+      <c r="W47" s="110"/>
+      <c r="X47" s="110"/>
+      <c r="Y47" t="s" s="155">
+        <v>26</v>
+      </c>
+      <c r="Z47" s="155"/>
+      <c r="AA47" s="155"/>
+      <c r="AB47" s="146"/>
+      <c r="AC47" s="147"/>
+      <c r="AD47" s="147"/>
+      <c r="AE47" s="148"/>
+      <c r="AF47" s="157"/>
+      <c r="AG47" s="157"/>
+      <c r="AH47" s="157"/>
+      <c r="AI47" s="157"/>
+      <c r="AJ47" s="44"/>
+    </row>
+    <row r="48" spans="1:36" ht="17.100000000000001" customHeight="1">
+      <c r="A48" s="45"/>
+      <c r="B48" s="107"/>
+      <c r="C48" t="s" s="108">
+        <v>27</v>
+      </c>
+      <c r="D48" s="108"/>
+      <c r="E48" s="108"/>
+      <c r="F48" s="108"/>
+      <c r="G48" s="108"/>
+      <c r="H48" s="108"/>
+      <c r="I48" s="108"/>
+      <c r="J48" s="108"/>
+      <c r="K48" s="108"/>
+      <c r="L48" s="108"/>
+      <c r="M48" s="108"/>
+      <c r="N48" s="108"/>
+      <c r="O48" s="108"/>
+      <c r="P48" s="108"/>
+      <c r="Q48" s="108"/>
+      <c r="R48" s="108"/>
+      <c r="S48" s="108"/>
+      <c r="T48" s="108"/>
+      <c r="U48" s="109"/>
+      <c r="V48" t="s" s="111">
+        <v>28</v>
+      </c>
+      <c r="W48" s="47"/>
+      <c r="X48" s="111"/>
+      <c r="Y48" s="100"/>
+      <c r="Z48" s="100"/>
+      <c r="AA48" s="101"/>
+      <c r="AB48" s="158">
+        <f>AG6</f>
+      </c>
+      <c r="AC48" s="159"/>
+      <c r="AD48" s="159"/>
+      <c r="AE48" t="s" s="147">
+        <v>29</v>
+      </c>
+      <c r="AF48" s="147"/>
+      <c r="AG48" s="160">
+        <f>AI6</f>
+      </c>
+      <c r="AH48" s="160"/>
+      <c r="AI48" s="161"/>
+      <c r="AJ48" s="44"/>
+    </row>
+    <row r="49" ht="6" customHeight="1"/>
+    <row r="50" ht="17.100000000000001" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="57">
+    <mergeCell ref="C38:O38"/>
+    <mergeCell ref="C39:O39"/>
+    <mergeCell ref="C33:O33"/>
+    <mergeCell ref="C34:O34"/>
+    <mergeCell ref="C35:O35"/>
+    <mergeCell ref="C36:O36"/>
+    <mergeCell ref="C37:O37"/>
+    <mergeCell ref="Y47:AA47"/>
+    <mergeCell ref="AB47:AE47"/>
+    <mergeCell ref="AF47:AI47"/>
+    <mergeCell ref="AB48:AD48"/>
+    <mergeCell ref="AE48:AF48"/>
+    <mergeCell ref="AG48:AI48"/>
+    <mergeCell ref="Y45:AA45"/>
+    <mergeCell ref="AB45:AE45"/>
+    <mergeCell ref="AF45:AI45"/>
+    <mergeCell ref="Y46:AA46"/>
+    <mergeCell ref="AB46:AE46"/>
+    <mergeCell ref="AF46:AI46"/>
+    <mergeCell ref="AA6:AF6"/>
+    <mergeCell ref="B8:B26"/>
+    <mergeCell ref="B27:B40"/>
+    <mergeCell ref="C8:O8"/>
+    <mergeCell ref="C9:O9"/>
+    <mergeCell ref="C10:O10"/>
+    <mergeCell ref="C11:O11"/>
+    <mergeCell ref="C12:O12"/>
+    <mergeCell ref="C13:O13"/>
+    <mergeCell ref="C14:O14"/>
+    <mergeCell ref="C15:O15"/>
+    <mergeCell ref="C16:O16"/>
+    <mergeCell ref="C17:O17"/>
+    <mergeCell ref="C18:O18"/>
+    <mergeCell ref="C19:O19"/>
+    <mergeCell ref="C20:O20"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:Z2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="P3:Z3"/>
+    <mergeCell ref="AA3:AC5"/>
+    <mergeCell ref="AD3:AF5"/>
+    <mergeCell ref="AG3:AI5"/>
+    <mergeCell ref="P4:Z4"/>
+    <mergeCell ref="P5:Z5"/>
+    <mergeCell ref="C21:O21"/>
+    <mergeCell ref="C22:O22"/>
+    <mergeCell ref="C23:O23"/>
+    <mergeCell ref="C24:O24"/>
+    <mergeCell ref="C25:O25"/>
+    <mergeCell ref="C32:O32"/>
+    <mergeCell ref="C27:O27"/>
+    <mergeCell ref="C28:O28"/>
+    <mergeCell ref="C29:O29"/>
+    <mergeCell ref="C30:O30"/>
+    <mergeCell ref="C31:O31"/>
+  </mergeCells>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <printOptions gridLinesSet="0"/>
+  <pageMargins left="0.39370078740157483" right="0" top="0.78740157480314965" bottom="0.39370078740157483" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;R〔規定番号〕ＳーＰ０４(Ｒｅｖ１.1)</oddHeader>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961F266A-B1EB-4F19-84A2-CD1F09B9F4D9}">
   <sheetPr codeName="Sheet1"/>
   <sheetViews>
